--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="24800" windowHeight="15560" tabRatio="500"/>
+    <workbookView xWindow="-100" yWindow="0" windowWidth="24860" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -127,6 +128,7 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,8 +179,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -211,7 +219,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -225,6 +233,9 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -238,6 +249,9 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -569,8 +583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="W2" sqref="W2:AD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1326,4 +1340,84 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:H13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="5" spans="2:8">
+      <c r="B5" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8">
+      <c r="F6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8">
+      <c r="B10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8">
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="0" windowWidth="24860" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="47">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -116,6 +116,51 @@
   </si>
   <si>
     <t>Fixed at default size per benchmark</t>
+  </si>
+  <si>
+    <t>cholesky</t>
+  </si>
+  <si>
+    <t>fw</t>
+  </si>
+  <si>
+    <t>jacobi</t>
+  </si>
+  <si>
+    <t>Message Count</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block </t>
+  </si>
+  <si>
+    <t>Cyclic Modulo</t>
+  </si>
+  <si>
+    <t>Benchmark</t>
+  </si>
+  <si>
+    <t>Runtime (s)</t>
+  </si>
+  <si>
+    <t>Normalized Message Count</t>
+  </si>
+  <si>
+    <t>Normalized Runtime</t>
+  </si>
+  <si>
+    <t>*all benchmarks tested on Dell Optiplex 9020 in SCAL</t>
+  </si>
+  <si>
+    <t>*nl = 10 for all benchmarks</t>
+  </si>
+  <si>
+    <t>correlation</t>
+  </si>
+  <si>
+    <t>covariance</t>
+  </si>
+  <si>
+    <t>Benchmark Results Table</t>
   </si>
 </sst>
 </file>
@@ -179,8 +224,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -219,7 +278,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -236,6 +295,13 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -252,6 +318,13 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1344,76 +1417,259 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B5:H13"/>
+  <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="2:8">
-      <c r="B5" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8">
-      <c r="F6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8">
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>4</v>
-      </c>
-      <c r="G7">
-        <v>5</v>
-      </c>
-      <c r="H7" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8">
-      <c r="B8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8">
-      <c r="B9" t="s">
+    <row r="1" spans="1:17">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
-      <c r="B10" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8">
-      <c r="B11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8">
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8">
-      <c r="B13" t="s">
+      <c r="B5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="C6">
+        <v>2317.63</v>
+      </c>
+      <c r="E6">
+        <v>18151922</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6">
+        <v>6371.81</v>
+      </c>
+      <c r="J6">
+        <v>40835699</v>
+      </c>
+      <c r="L6" s="1"/>
+      <c r="M6">
+        <v>6253.78</v>
+      </c>
+      <c r="O6">
+        <v>39869998</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8">
+        <v>40.132399999999997</v>
+      </c>
+      <c r="E8">
+        <v>140223</v>
+      </c>
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <v>115.28400000000001</v>
+      </c>
+      <c r="J8">
+        <v>3358597</v>
+      </c>
+      <c r="L8" s="1"/>
+      <c r="M8">
+        <v>35.5916</v>
+      </c>
+      <c r="O8">
+        <v>185207</v>
+      </c>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" t="s">
         <v>25</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="B16" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-80" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -161,13 +161,16 @@
   </si>
   <si>
     <t>Benchmark Results Table</t>
+  </si>
+  <si>
+    <t>atax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -200,8 +203,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -211,6 +219,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,10 +287,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1417,9 +1433,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
@@ -1549,80 +1567,80 @@
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" t="s">
-        <v>32</v>
+      <c r="A6" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B6" s="1"/>
-      <c r="C6">
-        <v>2317.63</v>
-      </c>
-      <c r="E6">
-        <v>18151922</v>
-      </c>
       <c r="G6" s="1"/>
-      <c r="H6">
-        <v>6371.81</v>
-      </c>
-      <c r="J6">
-        <v>40835699</v>
-      </c>
       <c r="L6" s="1"/>
-      <c r="M6">
-        <v>6253.78</v>
-      </c>
-      <c r="O6">
-        <v>39869998</v>
-      </c>
       <c r="Q6" s="1"/>
     </row>
     <row r="7" spans="1:17">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B7" s="1"/>
+      <c r="C7">
+        <v>2317.63</v>
+      </c>
+      <c r="E7">
+        <v>18151922</v>
+      </c>
       <c r="G7" s="1"/>
+      <c r="H7">
+        <v>6371.81</v>
+      </c>
+      <c r="J7">
+        <v>40835699</v>
+      </c>
       <c r="L7" s="1"/>
+      <c r="M7">
+        <v>6253.78</v>
+      </c>
+      <c r="O7">
+        <v>39869998</v>
+      </c>
       <c r="Q7" s="1"/>
     </row>
     <row r="8" spans="1:17">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8" s="1"/>
-      <c r="C8">
-        <v>40.132399999999997</v>
-      </c>
-      <c r="E8">
-        <v>140223</v>
-      </c>
       <c r="G8" s="1"/>
-      <c r="H8">
-        <v>115.28400000000001</v>
-      </c>
-      <c r="J8">
-        <v>3358597</v>
-      </c>
       <c r="L8" s="1"/>
-      <c r="M8">
-        <v>35.5916</v>
-      </c>
-      <c r="O8">
-        <v>185207</v>
-      </c>
       <c r="Q8" s="1"/>
     </row>
     <row r="9" spans="1:17">
       <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>40.132399999999997</v>
+      </c>
+      <c r="E9">
+        <v>140223</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <v>115.28400000000001</v>
+      </c>
+      <c r="J9">
+        <v>3358597</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9">
+        <v>35.5916</v>
+      </c>
+      <c r="O9">
+        <v>185207</v>
+      </c>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
-      <c r="A10" t="s">
-        <v>45</v>
       </c>
       <c r="B10" s="1"/>
       <c r="G10" s="1"/>
@@ -1630,40 +1648,49 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="1"/>
+      <c r="A11" s="4" t="s">
+        <v>45</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
       <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" t="s">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="Q12" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="B16" t="s">
-        <v>42</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>atax</t>
+  </si>
+  <si>
+    <t>stencil9</t>
   </si>
 </sst>
 </file>
@@ -209,7 +212,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +231,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -287,12 +296,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1433,10 +1443,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1657,40 +1667,67 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="1"/>
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
       <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="C12">
+        <v>20.668299999999999</v>
+      </c>
+      <c r="E12">
+        <v>132367</v>
+      </c>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="H12">
+        <v>68.375799999999998</v>
+      </c>
+      <c r="J12">
+        <v>3972063</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
+      <c r="M12">
+        <v>16.892499999999998</v>
+      </c>
+      <c r="O12">
+        <v>144711</v>
+      </c>
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" t="s">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="Q13" s="1"/>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
-        <v>42</v>
-      </c>
+      <c r="B14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>43</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="0" windowWidth="25000" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -167,6 +167,15 @@
   </si>
   <si>
     <t>stencil9</t>
+  </si>
+  <si>
+    <t>*paracr script doesn’t check for correctness but it was checked manually and is correct</t>
+  </si>
+  <si>
+    <t>paracr</t>
+  </si>
+  <si>
+    <t>lsms</t>
   </si>
 </sst>
 </file>
@@ -212,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +246,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -296,13 +311,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1443,10 +1459,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q19"/>
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1694,41 +1710,64 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="1"/>
+      <c r="A13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
       <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" t="s">
-        <v>25</v>
+      <c r="A14" s="6" t="s">
+        <v>51</v>
       </c>
       <c r="B14" s="1"/>
       <c r="G14" s="1"/>
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="15" spans="1:17">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="0" windowWidth="25000" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-140" yWindow="0" windowWidth="25020" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -176,6 +176,15 @@
   </si>
   <si>
     <t>lsms</t>
+  </si>
+  <si>
+    <t>*covariance correctness returns false but was confirmed to be true when printouts of symmat and symmatTest were compared manually</t>
+  </si>
+  <si>
+    <t>*lsms script does not check for correctness but it was checked manually and is correct</t>
+  </si>
+  <si>
+    <t>*correlation correctness returns false but was confirmed to be true when printouts of symmat and symmatTest were compared manually</t>
   </si>
 </sst>
 </file>
@@ -221,7 +230,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,12 +246,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,9 +319,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="47">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1459,10 +1462,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q22"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1476,7 +1479,7 @@
     <col min="7" max="7" width="8.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="9" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="8.6640625" customWidth="1"/>
@@ -1589,7 +1592,16 @@
       </c>
       <c r="B5" s="1"/>
       <c r="G5" s="1"/>
+      <c r="H5">
+        <v>50781.7</v>
+      </c>
+      <c r="J5">
+        <v>240102586</v>
+      </c>
       <c r="L5" s="1"/>
+      <c r="O5">
+        <v>240094739</v>
+      </c>
       <c r="Q5" s="1"/>
     </row>
     <row r="6" spans="1:17">
@@ -1665,7 +1677,7 @@
       <c r="Q9" s="1"/>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
       <c r="B10" s="1"/>
@@ -1674,7 +1686,7 @@
       <c r="Q10" s="1"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
       <c r="B11" s="1"/>
@@ -1710,16 +1722,34 @@
       <c r="Q12" s="1"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="C13">
+        <v>3.72342</v>
+      </c>
+      <c r="E13">
+        <v>51985</v>
+      </c>
       <c r="G13" s="1"/>
+      <c r="H13">
+        <v>8.3016199999999998</v>
+      </c>
+      <c r="J13">
+        <v>140022</v>
+      </c>
       <c r="L13" s="1"/>
+      <c r="M13">
+        <v>7.8949400000000001</v>
+      </c>
+      <c r="O13">
+        <v>132117</v>
+      </c>
       <c r="Q13" s="1"/>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
       <c r="B14" s="1"/>
@@ -1770,6 +1800,21 @@
         <v>49</v>
       </c>
     </row>
+    <row r="23" spans="2:2">
+      <c r="B23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="0" windowWidth="25020" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-140" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -185,6 +185,9 @@
   </si>
   <si>
     <t>*correlation correctness returns false but was confirmed to be true when printouts of symmat and symmatTest were compared manually</t>
+  </si>
+  <si>
+    <t>stream</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1465,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:Q26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1758,60 +1761,69 @@
       <c r="Q14" s="1"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="1"/>
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
       <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" t="s">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="Q16" s="1"/>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" t="s">
+      <c r="B17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="B21" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" t="s">
+    <row r="22" spans="1:17">
+      <c r="B22" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" t="s">
+    <row r="23" spans="1:17">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" t="s">
+    <row r="24" spans="1:17">
+      <c r="B24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" t="s">
+    <row r="25" spans="1:17">
+      <c r="B25" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
-      <c r="B25" t="s">
+    <row r="26" spans="1:17">
+      <c r="B26" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-140" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-160" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -188,6 +188,9 @@
   </si>
   <si>
     <t>stream</t>
+  </si>
+  <si>
+    <t>*stream would not run on 10 locales</t>
   </si>
 </sst>
 </file>
@@ -1465,10 +1468,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q26"/>
+  <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1477,7 +1480,7 @@
     <col min="2" max="2" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="9.83203125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
@@ -1485,7 +1488,7 @@
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
-    <col min="13" max="13" width="8.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
     <col min="15" max="15" width="10" customWidth="1"/>
     <col min="16" max="16" width="9.33203125" customWidth="1"/>
@@ -1594,16 +1597,49 @@
         <v>20</v>
       </c>
       <c r="B5" s="1"/>
+      <c r="C5">
+        <v>55105.8</v>
+      </c>
+      <c r="D5">
+        <f>H5/C5</f>
+        <v>0.92153094592583706</v>
+      </c>
+      <c r="E5">
+        <v>129011106</v>
+      </c>
+      <c r="F5">
+        <f>J5/E5</f>
+        <v>1.8611001288524727</v>
+      </c>
       <c r="G5" s="1"/>
       <c r="H5">
         <v>50781.7</v>
       </c>
+      <c r="I5">
+        <f>H5/H5</f>
+        <v>1</v>
+      </c>
       <c r="J5">
         <v>240102586</v>
       </c>
+      <c r="K5">
+        <f>J5/J5</f>
+        <v>1</v>
+      </c>
       <c r="L5" s="1"/>
+      <c r="M5">
+        <v>102864</v>
+      </c>
+      <c r="N5">
+        <f>H5/M5</f>
+        <v>0.49367806035153211</v>
+      </c>
       <c r="O5">
         <v>240094739</v>
+      </c>
+      <c r="P5">
+        <f>J5/O5</f>
+        <v>1.0000326829318822</v>
       </c>
       <c r="Q5" s="1"/>
     </row>
@@ -1624,22 +1660,46 @@
       <c r="C7">
         <v>2317.63</v>
       </c>
+      <c r="D7">
+        <f>H7/C7</f>
+        <v>2.7492783576325817</v>
+      </c>
       <c r="E7">
         <v>18151922</v>
+      </c>
+      <c r="F7">
+        <f>J7/E7</f>
+        <v>2.2496625426222083</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
         <v>6371.81</v>
       </c>
+      <c r="I7">
+        <f>H7/H7</f>
+        <v>1</v>
+      </c>
       <c r="J7">
         <v>40835699</v>
+      </c>
+      <c r="K7">
+        <f>J7/J7</f>
+        <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7">
         <v>6253.78</v>
       </c>
+      <c r="N7">
+        <f>H7/M7</f>
+        <v>1.0188733853765244</v>
+      </c>
       <c r="O7">
         <v>39869998</v>
+      </c>
+      <c r="P7">
+        <f>J7/O7</f>
+        <v>1.0242212452581512</v>
       </c>
       <c r="Q7" s="1"/>
     </row>
@@ -1660,22 +1720,46 @@
       <c r="C9">
         <v>40.132399999999997</v>
       </c>
+      <c r="D9">
+        <f>H9/C9</f>
+        <v>2.8725917214021592</v>
+      </c>
       <c r="E9">
         <v>140223</v>
+      </c>
+      <c r="F9">
+        <f>J9/E9</f>
+        <v>23.951826733132226</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9">
         <v>115.28400000000001</v>
       </c>
+      <c r="I9">
+        <f>H9/H9</f>
+        <v>1</v>
+      </c>
       <c r="J9">
         <v>3358597</v>
+      </c>
+      <c r="K9">
+        <f>J9/J9</f>
+        <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9">
         <v>35.5916</v>
       </c>
+      <c r="N9">
+        <f>H9/M9</f>
+        <v>3.2390788837815667</v>
+      </c>
       <c r="O9">
         <v>185207</v>
+      </c>
+      <c r="P9">
+        <f>J9/O9</f>
+        <v>18.134287580922969</v>
       </c>
       <c r="Q9" s="1"/>
     </row>
@@ -1705,22 +1789,46 @@
       <c r="C12">
         <v>20.668299999999999</v>
       </c>
+      <c r="D12">
+        <f>H12/C12</f>
+        <v>3.3082449935408333</v>
+      </c>
       <c r="E12">
         <v>132367</v>
+      </c>
+      <c r="F12">
+        <f>J12/E12</f>
+        <v>30.007955154985758</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12">
         <v>68.375799999999998</v>
       </c>
+      <c r="I12">
+        <f>H12/H12</f>
+        <v>1</v>
+      </c>
       <c r="J12">
         <v>3972063</v>
+      </c>
+      <c r="K12">
+        <f>J12/J12</f>
+        <v>1</v>
       </c>
       <c r="L12" s="1"/>
       <c r="M12">
         <v>16.892499999999998</v>
       </c>
+      <c r="N12">
+        <f>H12/M12</f>
+        <v>4.0477016427408614</v>
+      </c>
       <c r="O12">
         <v>144711</v>
+      </c>
+      <c r="P12">
+        <f>J12/O12</f>
+        <v>27.448245123038333</v>
       </c>
       <c r="Q12" s="1"/>
     </row>
@@ -1732,22 +1840,46 @@
       <c r="C13">
         <v>3.72342</v>
       </c>
+      <c r="D13">
+        <f>H13/C13</f>
+        <v>2.2295685149674225</v>
+      </c>
       <c r="E13">
         <v>51985</v>
+      </c>
+      <c r="F13">
+        <f>J13/E13</f>
+        <v>2.6935077426180629</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
         <v>8.3016199999999998</v>
       </c>
+      <c r="I13">
+        <f>H13/H13</f>
+        <v>1</v>
+      </c>
       <c r="J13">
         <v>140022</v>
+      </c>
+      <c r="K13">
+        <f>J13/J13</f>
+        <v>1</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13">
         <v>7.8949400000000001</v>
       </c>
+      <c r="N13">
+        <f>H13/M13</f>
+        <v>1.0515114744380578</v>
+      </c>
       <c r="O13">
         <v>132117</v>
+      </c>
+      <c r="P13">
+        <f>J13/O13</f>
+        <v>1.0598333295488089</v>
       </c>
       <c r="Q13" s="1"/>
     </row>
@@ -1770,61 +1902,87 @@
       <c r="Q15" s="1"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="1"/>
+      <c r="A16" s="5"/>
       <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
+      <c r="A17" s="5"/>
       <c r="B17" s="1"/>
       <c r="G17" s="1"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row r="21" spans="1:17">
-      <c r="B21" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
-      <c r="B23" t="s">
-        <v>49</v>
-      </c>
+    <row r="18" spans="1:17">
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row r="24" spans="1:17">
       <c r="B24" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="B25" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="B29" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
+      <c r="B31" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-160" yWindow="0" windowWidth="24960" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15560" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -190,7 +191,55 @@
     <t>stream</t>
   </si>
   <si>
-    <t>*stream would not run on 10 locales</t>
+    <t>*stream would not run on 10 locales - not enough memory</t>
+  </si>
+  <si>
+    <t>bicg</t>
+  </si>
+  <si>
+    <t>lu</t>
+  </si>
+  <si>
+    <t>mvt</t>
+  </si>
+  <si>
+    <t>trmm</t>
+  </si>
+  <si>
+    <t>mandelbrot</t>
+  </si>
+  <si>
+    <t>Zippered</t>
+  </si>
+  <si>
+    <t>No Zippered</t>
+  </si>
+  <si>
+    <t>Cyclic Modul</t>
+  </si>
+  <si>
+    <t>nl =2</t>
+  </si>
+  <si>
+    <t>Runtime</t>
+  </si>
+  <si>
+    <t>Messages</t>
+  </si>
+  <si>
+    <t>Message Counts and Runtime - test.chpl</t>
+  </si>
+  <si>
+    <t>folding</t>
+  </si>
+  <si>
+    <t>pascal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Block Cyclic </t>
+  </si>
+  <si>
+    <t>Block Cyclic Modulo</t>
   </si>
 </sst>
 </file>
@@ -203,7 +252,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -236,7 +284,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,6 +309,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -271,7 +325,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="47">
+  <cellStyleXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -319,8 +373,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -328,8 +398,9 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="47">
+  <cellStyles count="63">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -353,6 +424,14 @@
     <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -376,11 +455,312 @@
     <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$39:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$39:$D$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$E$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic Modulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet2!$B$39:$B$45</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$E$39:$E$45</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.999967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.976352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.055144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.036432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.066086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.090928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.150856286189233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2046934920"/>
+        <c:axId val="2046937896"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2046934920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2046937896"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2046937896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Count Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Cyclic Distribution</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2046934920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1468,19 +1848,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q31"/>
+  <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38:E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="14" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
     <col min="3" max="3" width="9.1640625" customWidth="1"/>
     <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
@@ -1495,17 +1875,17 @@
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:27">
       <c r="A1" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:27">
       <c r="B2" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
+    <row r="3" spans="1:27">
       <c r="B3" s="1"/>
       <c r="C3" t="s">
         <v>36</v>
@@ -1546,8 +1926,34 @@
         <v>37</v>
       </c>
       <c r="Q3" s="1"/>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -1591,8 +1997,34 @@
         <v>40</v>
       </c>
       <c r="Q4" s="1"/>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1600,25 +2032,17 @@
       <c r="C5">
         <v>55105.8</v>
       </c>
-      <c r="D5">
-        <f>H5/C5</f>
-        <v>0.92153094592583706</v>
-      </c>
       <c r="E5">
         <v>129011106</v>
       </c>
       <c r="F5">
-        <f>J5/E5</f>
-        <v>1.8611001288524727</v>
+        <f>E5/J5</f>
+        <v>0.53731660349547428</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5">
         <v>50781.7</v>
       </c>
-      <c r="I5">
-        <f>H5/H5</f>
-        <v>1</v>
-      </c>
       <c r="J5">
         <v>240102586</v>
       </c>
@@ -1630,20 +2054,18 @@
       <c r="M5">
         <v>102864</v>
       </c>
-      <c r="N5">
-        <f>H5/M5</f>
-        <v>0.49367806035153211</v>
-      </c>
       <c r="O5">
         <v>240094739</v>
       </c>
       <c r="P5">
-        <f>J5/O5</f>
-        <v>1.0000326829318822</v>
+        <f>O5/J5</f>
+        <v>0.99996731813625694</v>
       </c>
       <c r="Q5" s="1"/>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="V5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -1651,8 +2073,10 @@
       <c r="G6" s="1"/>
       <c r="L6" s="1"/>
       <c r="Q6" s="1"/>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="V6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1660,25 +2084,17 @@
       <c r="C7">
         <v>2317.63</v>
       </c>
-      <c r="D7">
-        <f>H7/C7</f>
-        <v>2.7492783576325817</v>
-      </c>
       <c r="E7">
         <v>18151922</v>
       </c>
       <c r="F7">
-        <f>J7/E7</f>
-        <v>2.2496625426222083</v>
+        <f>E7/J7</f>
+        <v>0.44451111269088356</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
         <v>6371.81</v>
       </c>
-      <c r="I7">
-        <f>H7/H7</f>
-        <v>1</v>
-      </c>
       <c r="J7">
         <v>40835699</v>
       </c>
@@ -1690,20 +2106,18 @@
       <c r="M7">
         <v>6253.78</v>
       </c>
-      <c r="N7">
-        <f>H7/M7</f>
-        <v>1.0188733853765244</v>
-      </c>
       <c r="O7">
         <v>39869998</v>
       </c>
       <c r="P7">
-        <f>J7/O7</f>
-        <v>1.0242212452581512</v>
+        <f>O7/J7</f>
+        <v>0.97635154965756799</v>
       </c>
       <c r="Q7" s="1"/>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="V7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1711,8 +2125,10 @@
       <c r="G8" s="1"/>
       <c r="L8" s="1"/>
       <c r="Q8" s="1"/>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="V8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27">
       <c r="A9" t="s">
         <v>34</v>
       </c>
@@ -1720,25 +2136,17 @@
       <c r="C9">
         <v>40.132399999999997</v>
       </c>
-      <c r="D9">
-        <f>H9/C9</f>
-        <v>2.8725917214021592</v>
-      </c>
       <c r="E9">
         <v>140223</v>
       </c>
       <c r="F9">
-        <f>J9/E9</f>
-        <v>23.951826733132226</v>
+        <f>E9/J9</f>
+        <v>4.1750469020248634E-2</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9">
         <v>115.28400000000001</v>
       </c>
-      <c r="I9">
-        <f>H9/H9</f>
-        <v>1</v>
-      </c>
       <c r="J9">
         <v>3358597</v>
       </c>
@@ -1750,20 +2158,18 @@
       <c r="M9">
         <v>35.5916</v>
       </c>
-      <c r="N9">
-        <f>H9/M9</f>
-        <v>3.2390788837815667</v>
-      </c>
       <c r="O9">
         <v>185207</v>
       </c>
       <c r="P9">
-        <f>J9/O9</f>
-        <v>18.134287580922969</v>
+        <f>O9/J9</f>
+        <v>5.5144156920285466E-2</v>
       </c>
       <c r="Q9" s="1"/>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="V9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27">
       <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
@@ -1771,8 +2177,10 @@
       <c r="G10" s="1"/>
       <c r="L10" s="1"/>
       <c r="Q10" s="1"/>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="V10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
@@ -1780,8 +2188,10 @@
       <c r="G11" s="1"/>
       <c r="L11" s="1"/>
       <c r="Q11" s="1"/>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="V11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
         <v>48</v>
       </c>
@@ -1789,25 +2199,17 @@
       <c r="C12">
         <v>20.668299999999999</v>
       </c>
-      <c r="D12">
-        <f>H12/C12</f>
-        <v>3.3082449935408333</v>
-      </c>
       <c r="E12">
         <v>132367</v>
       </c>
       <c r="F12">
-        <f>J12/E12</f>
-        <v>30.007955154985758</v>
+        <f>E12/J12</f>
+        <v>3.3324496615486712E-2</v>
       </c>
       <c r="G12" s="1"/>
       <c r="H12">
         <v>68.375799999999998</v>
       </c>
-      <c r="I12">
-        <f>H12/H12</f>
-        <v>1</v>
-      </c>
       <c r="J12">
         <v>3972063</v>
       </c>
@@ -1819,20 +2221,18 @@
       <c r="M12">
         <v>16.892499999999998</v>
       </c>
-      <c r="N12">
-        <f>H12/M12</f>
-        <v>4.0477016427408614</v>
-      </c>
       <c r="O12">
         <v>144711</v>
       </c>
       <c r="P12">
-        <f>J12/O12</f>
-        <v>27.448245123038333</v>
+        <f>O12/J12</f>
+        <v>3.643220160405311E-2</v>
       </c>
       <c r="Q12" s="1"/>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="V12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="4" t="s">
         <v>50</v>
       </c>
@@ -1840,25 +2240,17 @@
       <c r="C13">
         <v>3.72342</v>
       </c>
-      <c r="D13">
-        <f>H13/C13</f>
-        <v>2.2295685149674225</v>
-      </c>
       <c r="E13">
         <v>51985</v>
       </c>
       <c r="F13">
-        <f>J13/E13</f>
-        <v>2.6935077426180629</v>
+        <f>E13/J13</f>
+        <v>0.37126308722914969</v>
       </c>
       <c r="G13" s="1"/>
       <c r="H13">
         <v>8.3016199999999998</v>
       </c>
-      <c r="I13">
-        <f>H13/H13</f>
-        <v>1</v>
-      </c>
       <c r="J13">
         <v>140022</v>
       </c>
@@ -1870,20 +2262,18 @@
       <c r="M13">
         <v>7.8949400000000001</v>
       </c>
-      <c r="N13">
-        <f>H13/M13</f>
-        <v>1.0515114744380578</v>
-      </c>
       <c r="O13">
         <v>132117</v>
       </c>
       <c r="P13">
-        <f>J13/O13</f>
-        <v>1.0598333295488089</v>
+        <f>O13/J13</f>
+        <v>0.94354458585079493</v>
       </c>
       <c r="Q13" s="1"/>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="V13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="4" t="s">
         <v>51</v>
       </c>
@@ -1891,8 +2281,10 @@
       <c r="G14" s="1"/>
       <c r="L14" s="1"/>
       <c r="Q14" s="1"/>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="V14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="4" t="s">
         <v>55</v>
       </c>
@@ -1900,89 +2292,649 @@
       <c r="G15" s="1"/>
       <c r="L15" s="1"/>
       <c r="Q15" s="1"/>
-    </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="5"/>
+      <c r="V15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
       <c r="B16" s="1"/>
       <c r="G16" s="1"/>
       <c r="L16" s="1"/>
       <c r="Q16" s="1"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="5"/>
+      <c r="V16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
       <c r="B17" s="1"/>
       <c r="G17" s="1"/>
       <c r="L17" s="1"/>
       <c r="Q17" s="1"/>
-    </row>
-    <row r="18" spans="1:17">
-      <c r="A18" s="5"/>
+      <c r="V17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
       <c r="B18" s="1"/>
       <c r="G18" s="1"/>
       <c r="L18" s="1"/>
       <c r="Q18" s="1"/>
-    </row>
-    <row r="19" spans="1:17">
-      <c r="A19" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
-    </row>
-    <row r="20" spans="1:17">
-      <c r="A20" t="s">
-        <v>25</v>
+      <c r="V19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
       </c>
       <c r="B20" s="1"/>
       <c r="G20" s="1"/>
       <c r="L20" s="1"/>
       <c r="Q20" s="1"/>
-    </row>
-    <row r="24" spans="1:17">
-      <c r="B24" t="s">
+      <c r="V20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7">
+        <v>22.2135</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
+        <v>3568376</v>
+      </c>
+      <c r="F21" s="7">
+        <f>E21/J21</f>
+        <v>1.065422212667873</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>20.750599999999999</v>
+      </c>
+      <c r="I21" s="7"/>
+      <c r="J21" s="7">
+        <v>3349260</v>
+      </c>
+      <c r="K21" s="7">
+        <f>J21/J21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
+        <v>8.4070800000000006</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="7">
+        <v>221340</v>
+      </c>
+      <c r="P21">
+        <f>O21/J21</f>
+        <v>6.6086239945540207E-2</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7">
+        <v>0.69175399999999998</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7">
+        <v>29527</v>
+      </c>
+      <c r="F22" s="7">
+        <f>E22/J22</f>
+        <v>4.5159435273821234E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>5.1107500000000003</v>
+      </c>
+      <c r="I22" s="7"/>
+      <c r="J22" s="7">
+        <v>653839</v>
+      </c>
+      <c r="K22" s="7">
+        <f>J22/J22</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>1.57839</v>
+      </c>
+      <c r="N22" s="7"/>
+      <c r="O22" s="7">
+        <v>59452</v>
+      </c>
+      <c r="P22" s="7">
+        <f>O22/J22</f>
+        <v>9.0927583090026756E-2</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7">
+        <v>10.177099999999999</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7">
+        <v>982235</v>
+      </c>
+      <c r="U22" s="7">
+        <f>T22/J22</f>
+        <v>1.5022582011779659</v>
+      </c>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7">
+        <v>2.6984599999999999</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7">
+        <v>94098</v>
+      </c>
+      <c r="Z22" s="7">
+        <f>Y22/J22</f>
+        <v>0.14391616284742881</v>
+      </c>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="F24">
+        <f>GEOMEAN(F5,F7,F9,F12,F13,F21,F22)</f>
+        <v>0.17920729909371527</v>
+      </c>
+      <c r="K24">
+        <f>GEOMEAN(K5,K7,K9,K12,K13,K21,K22)</f>
+        <v>1</v>
+      </c>
+      <c r="P24">
+        <f>GEOMEAN(P5,P7,P9,P12,P13,P21,P22)</f>
+        <v>0.19602279629350219</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="B28" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:17">
-      <c r="B25" t="s">
+    <row r="29" spans="1:27">
+      <c r="B29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:17">
-      <c r="B26" t="s">
+    <row r="30" spans="1:27">
+      <c r="B30" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:17">
-      <c r="B27" t="s">
+    <row r="31" spans="1:27">
+      <c r="B31" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="B28" t="s">
+    <row r="32" spans="1:27">
+      <c r="B32" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="B29" t="s">
+    <row r="33" spans="2:5">
+      <c r="B33" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:17">
-      <c r="B31" t="s">
+    <row r="35" spans="2:5">
+      <c r="B35" t="s">
         <v>56</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="C38" t="s">
+        <v>9</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="E38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39">
+        <v>0.53731700000000004</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>0.99996700000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40">
+        <v>0.44451099999999999</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>0.976352</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41">
+        <v>4.1750000000000002E-2</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>5.5143999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" t="s">
+        <v>48</v>
+      </c>
+      <c r="C42">
+        <v>3.3323999999999999E-2</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>3.6431999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C43">
+        <v>1.0654220000000001</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>6.6086000000000006E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" t="s">
+        <v>70</v>
+      </c>
+      <c r="C44">
+        <v>4.5158999999999998E-2</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>9.0927999999999995E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <f>GEOMEAN(C39,C40,C41,C42,C43,C44)</f>
+        <v>0.15872016734377342</v>
+      </c>
+      <c r="D45">
+        <f t="shared" ref="D45:E45" si="0">GEOMEAN(D39,D40,D41,D42,D43,D44)</f>
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="0"/>
+        <v>0.15085628618923339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:T17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="2:20">
+      <c r="B3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="B4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>10</v>
+      </c>
+      <c r="O5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+      <c r="G6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="K6" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" t="s">
+        <v>63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>63</v>
+      </c>
+      <c r="S6" t="s">
+        <v>62</v>
+      </c>
+      <c r="T6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>67</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" t="s">
+        <v>66</v>
+      </c>
+      <c r="J7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>66</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
+      </c>
+      <c r="O7" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>66</v>
+      </c>
+      <c r="R7" t="s">
+        <v>67</v>
+      </c>
+      <c r="S7" t="s">
+        <v>66</v>
+      </c>
+      <c r="T7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>0.28935899999999998</v>
+      </c>
+      <c r="D8">
+        <v>1104</v>
+      </c>
+      <c r="G8">
+        <v>0.32066299999999998</v>
+      </c>
+      <c r="H8">
+        <v>2188</v>
+      </c>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>1.06125</v>
+      </c>
+      <c r="D9">
+        <v>4414</v>
+      </c>
+      <c r="G9">
+        <v>1.2388699999999999</v>
+      </c>
+      <c r="H9">
+        <v>8838</v>
+      </c>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>4.2282099999999998</v>
+      </c>
+      <c r="D10">
+        <v>17766</v>
+      </c>
+      <c r="G10">
+        <v>4.9888199999999996</v>
+      </c>
+      <c r="H10">
+        <v>35438</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>16.8401</v>
+      </c>
+      <c r="D11">
+        <v>72070</v>
+      </c>
+      <c r="G11">
+        <v>20.124400000000001</v>
+      </c>
+      <c r="H11">
+        <v>142734</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12">
+        <v>32</v>
+      </c>
+      <c r="C12">
+        <v>67.838800000000006</v>
+      </c>
+      <c r="D12">
+        <v>296454</v>
+      </c>
+      <c r="G12">
+        <v>81.385300000000001</v>
+      </c>
+      <c r="H12">
+        <v>579086</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13">
+        <v>64</v>
+      </c>
+      <c r="C13">
+        <v>271.23599999999999</v>
+      </c>
+      <c r="D13">
+        <v>1251334</v>
+      </c>
+      <c r="G13">
+        <v>342.12299999999999</v>
+      </c>
+      <c r="H13">
+        <v>2381838</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14">
+        <v>128</v>
+      </c>
+      <c r="C14">
+        <v>1679.65</v>
+      </c>
+      <c r="D14">
+        <v>5529606</v>
+      </c>
+      <c r="G14">
+        <v>1494.96</v>
+      </c>
+      <c r="H14">
+        <v>10051598</v>
+      </c>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15">
+        <v>256</v>
+      </c>
+      <c r="C15">
+        <v>10558.4</v>
+      </c>
+      <c r="D15">
+        <v>26312710</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17">
+        <v>1024</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24840" windowHeight="15560" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="20" yWindow="0" windowWidth="24860" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Data Collected at LTS" sheetId="5" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -240,6 +241,48 @@
   </si>
   <si>
     <t>Block Cyclic Modulo</t>
+  </si>
+  <si>
+    <t>*data collected at LTS</t>
+  </si>
+  <si>
+    <t>*golgatha cluster computer</t>
+  </si>
+  <si>
+    <t>Bandwidth (MB/s)</t>
+  </si>
+  <si>
+    <t>Round Trip Time (μs)</t>
+  </si>
+  <si>
+    <t>Data size (bytes)</t>
+  </si>
+  <si>
+    <t>2mm N = 16</t>
+  </si>
+  <si>
+    <t>cholesky N = 128</t>
+  </si>
+  <si>
+    <t>stencil9 n=400, epsilon = 0.05, iterations = 3</t>
+  </si>
+  <si>
+    <t>jacobi n = 400, epsilon = 0.05, iterations = 5</t>
+  </si>
+  <si>
+    <t>folding n = 50400, iterations = 10</t>
+  </si>
+  <si>
+    <t>*all run on 10 locales</t>
+  </si>
+  <si>
+    <t>pascal n1 = 100000, n2 = 100003, blocksize = 16</t>
+  </si>
+  <si>
+    <t>covariance N=64, M=64</t>
+  </si>
+  <si>
+    <t>*compiled benchmark tests on chapel trunk revision 22919</t>
   </si>
 </sst>
 </file>
@@ -325,8 +368,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="63">
+  <cellStyleXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -400,7 +453,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="63">
+  <cellStyles count="73">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -432,6 +485,11 @@
     <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -463,6 +521,11 @@
     <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -650,11 +713,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046934920"/>
-        <c:axId val="2046937896"/>
+        <c:axId val="2081708024"/>
+        <c:axId val="2081705032"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046934920"/>
+        <c:axId val="2081708024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -663,7 +726,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046937896"/>
+        <c:crossAx val="2081705032"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -671,7 +734,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046937896"/>
+        <c:axId val="2081705032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -706,7 +769,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046934920"/>
+        <c:crossAx val="2081708024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -716,6 +779,707 @@
       <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$D$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$B$54:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$D$54:$D$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$E$53</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic Modulo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$B$54:$B$60</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>jacobi</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$E$54:$E$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.999967</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.976352</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.055144</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.036432</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.066086</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.090928</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.150856286189233</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2086841320"/>
+        <c:axId val="2086838328"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2086841320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086838328"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2086838328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Count Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Cyclic Distribution</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2086841320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Round Trip Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Infiniband</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$E$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Round Trip Time (μs)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$C$75:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$E$75:$E$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.47</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.93</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.39</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2085798664"/>
+        <c:axId val="-2132152888"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2085798664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (bytes)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2132152888"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2132152888"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Latency</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>μs</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0"/>
+                  <a:t>)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2085798664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$D$74</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Bandwidth (MB/s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$C$75:$C$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>8.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>32.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>256.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>512.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1024.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$D$75:$D$82</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>35.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>144.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>285.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>569.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1153.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2316.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3127.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2133144072"/>
+        <c:axId val="-2133265192"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2133144072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Data size (bytes)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133265192"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2133265192"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Bandwidth</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (MB/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2133144072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -755,6 +1519,103 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>596900</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>431800</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>184150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>101600</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1087,7 +1948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AC43"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="W2" sqref="W2:AD10"/>
     </sheetView>
   </sheetViews>
@@ -1850,8 +2711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38:E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2671,6 +3532,1030 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AA82"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="14.5" customWidth="1"/>
+    <col min="3" max="3" width="16.1640625" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="8" max="8" width="8" customWidth="1"/>
+    <col min="9" max="9" width="8.83203125" customWidth="1"/>
+    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="11" max="11" width="9.5" customWidth="1"/>
+    <col min="12" max="12" width="9.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.5" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="16" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27">
+      <c r="A1" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27">
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="B3" s="1"/>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L3" s="1"/>
+      <c r="M3" t="s">
+        <v>37</v>
+      </c>
+      <c r="N3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" t="s">
+        <v>37</v>
+      </c>
+      <c r="P3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="1"/>
+      <c r="R3" t="s">
+        <v>10</v>
+      </c>
+      <c r="S3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T3" t="s">
+        <v>10</v>
+      </c>
+      <c r="U3" t="s">
+        <v>71</v>
+      </c>
+      <c r="V3" s="1"/>
+      <c r="W3" t="s">
+        <v>72</v>
+      </c>
+      <c r="X3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>72</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA3" s="1"/>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4" t="s">
+        <v>40</v>
+      </c>
+      <c r="L4" s="1"/>
+      <c r="M4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" t="s">
+        <v>35</v>
+      </c>
+      <c r="P4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q4" s="1"/>
+      <c r="R4" t="s">
+        <v>39</v>
+      </c>
+      <c r="S4" t="s">
+        <v>41</v>
+      </c>
+      <c r="T4" t="s">
+        <v>35</v>
+      </c>
+      <c r="U4" t="s">
+        <v>40</v>
+      </c>
+      <c r="V4" s="1"/>
+      <c r="W4" t="s">
+        <v>39</v>
+      </c>
+      <c r="X4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA4" s="1"/>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5">
+        <v>6.1939299999999999</v>
+      </c>
+      <c r="D5">
+        <f>C5/H5</f>
+        <v>0.51275528365770673</v>
+      </c>
+      <c r="E5">
+        <v>1791617</v>
+      </c>
+      <c r="F5">
+        <f>E5/J5</f>
+        <v>0.53176490491779926</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>12.079700000000001</v>
+      </c>
+      <c r="I5">
+        <f>H5/H5</f>
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>3369190</v>
+      </c>
+      <c r="K5">
+        <f>J5/J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="1"/>
+      <c r="M5">
+        <v>11.9999</v>
+      </c>
+      <c r="N5">
+        <f>M5/H5</f>
+        <v>0.99339387567572035</v>
+      </c>
+      <c r="O5">
+        <v>3368972</v>
+      </c>
+      <c r="P5">
+        <f>O5/J5</f>
+        <v>0.9999352960207053</v>
+      </c>
+      <c r="Q5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="AA5" s="1"/>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="AA6" s="1"/>
+    </row>
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7">
+        <v>66.007900000000006</v>
+      </c>
+      <c r="D7">
+        <f>C7/H7</f>
+        <v>0.47414018503620275</v>
+      </c>
+      <c r="E7">
+        <v>18151922</v>
+      </c>
+      <c r="F7">
+        <f>E7/J7</f>
+        <v>0.44451111269088356</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7">
+        <v>139.21600000000001</v>
+      </c>
+      <c r="I7">
+        <f>H7/H7</f>
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>40835699</v>
+      </c>
+      <c r="K7">
+        <f>J7/J7</f>
+        <v>1</v>
+      </c>
+      <c r="L7" s="1"/>
+      <c r="M7">
+        <v>150.69399999999999</v>
+      </c>
+      <c r="N7">
+        <f>M7/H7</f>
+        <v>1.0824474198368002</v>
+      </c>
+      <c r="O7">
+        <v>41122968</v>
+      </c>
+      <c r="P7">
+        <f>O7/J7</f>
+        <v>1.0070347516274913</v>
+      </c>
+      <c r="Q7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="AA7" s="1"/>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="Q8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="AA8" s="1"/>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9">
+        <v>1.14863</v>
+      </c>
+      <c r="D9">
+        <f>C9/H9</f>
+        <v>0.41774591848239195</v>
+      </c>
+      <c r="E9">
+        <v>144368</v>
+      </c>
+      <c r="F9">
+        <f>E9/J9</f>
+        <v>4.2913956577739186E-2</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <v>2.74959</v>
+      </c>
+      <c r="I9">
+        <f>H9/H9</f>
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>3364127</v>
+      </c>
+      <c r="K9">
+        <f>J9/J9</f>
+        <v>1</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9">
+        <v>1.1837899999999999</v>
+      </c>
+      <c r="N9">
+        <f>M9/H9</f>
+        <v>0.4305332795071265</v>
+      </c>
+      <c r="O9">
+        <v>234887</v>
+      </c>
+      <c r="P9">
+        <f>O9/J9</f>
+        <v>6.9821085827021387E-2</v>
+      </c>
+      <c r="Q9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="AA9" s="1"/>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="Q10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="AA10" s="1"/>
+    </row>
+    <row r="11" spans="1:27">
+      <c r="A11" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11">
+        <v>79.754199999999997</v>
+      </c>
+      <c r="D11">
+        <f>C11/H11</f>
+        <v>0.42670982584735562</v>
+      </c>
+      <c r="E11">
+        <v>11017460</v>
+      </c>
+      <c r="F11">
+        <f>E11/J11</f>
+        <v>0.63292676509510681</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11">
+        <v>186.905</v>
+      </c>
+      <c r="I11">
+        <f>H11/H11</f>
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>17407164</v>
+      </c>
+      <c r="K11">
+        <f>J11/J11</f>
+        <v>1</v>
+      </c>
+      <c r="L11" s="1"/>
+      <c r="M11">
+        <v>173.423</v>
+      </c>
+      <c r="N11">
+        <f>M11/H11</f>
+        <v>0.92786709825847358</v>
+      </c>
+      <c r="O11">
+        <v>17339284</v>
+      </c>
+      <c r="P11">
+        <f>O11/J11</f>
+        <v>0.99610045611105869</v>
+      </c>
+      <c r="Q11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="AA11" s="1"/>
+    </row>
+    <row r="12" spans="1:27">
+      <c r="A12" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1"/>
+      <c r="C12">
+        <v>0.79603999999999997</v>
+      </c>
+      <c r="D12">
+        <f>C12/H12</f>
+        <v>0.28634223371690232</v>
+      </c>
+      <c r="E12">
+        <v>147308</v>
+      </c>
+      <c r="F12">
+        <f>E12/J12</f>
+        <v>3.6964220427281175E-2</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <v>2.78003</v>
+      </c>
+      <c r="I12">
+        <f>H12/H12</f>
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>3985151</v>
+      </c>
+      <c r="K12">
+        <f>J12/J12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12">
+        <v>0.87531599999999998</v>
+      </c>
+      <c r="N12">
+        <f>M12/H12</f>
+        <v>0.31485847275029405</v>
+      </c>
+      <c r="O12">
+        <v>203139</v>
+      </c>
+      <c r="P12">
+        <f>O12/J12</f>
+        <v>5.0973978150388781E-2</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="L13" s="1"/>
+      <c r="Q13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="AA13" s="1"/>
+    </row>
+    <row r="14" spans="1:27">
+      <c r="A14" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="AA14" s="1"/>
+    </row>
+    <row r="15" spans="1:27">
+      <c r="A15" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="Q15" s="1"/>
+      <c r="V15" s="1"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27">
+      <c r="A16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="V16" s="1"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="AA17" s="1"/>
+    </row>
+    <row r="18" spans="1:27">
+      <c r="A18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="AA18" s="1"/>
+    </row>
+    <row r="19" spans="1:27">
+      <c r="A19" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="AA19" s="1"/>
+    </row>
+    <row r="20" spans="1:27">
+      <c r="A20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="AA20" s="1"/>
+    </row>
+    <row r="21" spans="1:27">
+      <c r="A21" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B21" s="1"/>
+      <c r="C21" s="7">
+        <v>5.6093000000000002</v>
+      </c>
+      <c r="D21" s="7">
+        <f>C21/H21</f>
+        <v>4.4569544316872589</v>
+      </c>
+      <c r="E21" s="7">
+        <v>3562817</v>
+      </c>
+      <c r="F21" s="7">
+        <f>E21/J21</f>
+        <v>1.0637624430471209</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7">
+        <v>1.2585500000000001</v>
+      </c>
+      <c r="I21" s="7">
+        <f>H21/H21</f>
+        <v>1</v>
+      </c>
+      <c r="J21" s="7">
+        <v>3349260</v>
+      </c>
+      <c r="K21" s="7">
+        <f>J21/J21</f>
+        <v>1</v>
+      </c>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7">
+        <v>0.57199199999999994</v>
+      </c>
+      <c r="N21" s="7">
+        <f>M21/H21</f>
+        <v>0.45448492312581934</v>
+      </c>
+      <c r="O21" s="7">
+        <v>219370</v>
+      </c>
+      <c r="P21">
+        <f>O21/J21</f>
+        <v>6.5498050315592096E-2</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="AA21" s="1"/>
+    </row>
+    <row r="22" spans="1:27">
+      <c r="A22" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="7">
+        <v>6.6540000000000002E-2</v>
+      </c>
+      <c r="D22" s="7">
+        <f>C22/H22</f>
+        <v>0.16838407968256539</v>
+      </c>
+      <c r="E22" s="7">
+        <v>29527</v>
+      </c>
+      <c r="F22" s="7">
+        <f>E22/J22</f>
+        <v>4.5473446230233291E-2</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="7">
+        <v>0.39516800000000002</v>
+      </c>
+      <c r="I22" s="7">
+        <f>H22/H22</f>
+        <v>1</v>
+      </c>
+      <c r="J22" s="7">
+        <v>649324</v>
+      </c>
+      <c r="K22" s="7">
+        <f>J22/J22</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="7"/>
+      <c r="M22" s="7">
+        <v>0.13713700000000001</v>
+      </c>
+      <c r="N22" s="7">
+        <f>M22/H22</f>
+        <v>0.34703467892137013</v>
+      </c>
+      <c r="O22" s="7">
+        <v>58798</v>
+      </c>
+      <c r="P22" s="7">
+        <f>O22/J22</f>
+        <v>9.0552636280192944E-2</v>
+      </c>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7">
+        <v>0.64637699999999998</v>
+      </c>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7">
+        <v>982235</v>
+      </c>
+      <c r="U22" s="7"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="7">
+        <v>0.188948</v>
+      </c>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="7">
+        <v>94098</v>
+      </c>
+      <c r="Z22" s="7"/>
+      <c r="AA22" s="1"/>
+    </row>
+    <row r="23" spans="1:27">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
+      <c r="AA23" s="1"/>
+    </row>
+    <row r="24" spans="1:27">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="D24">
+        <f>GEOMEAN(D5,D7,D9,D12,D21,D22)</f>
+        <v>0.52863870700485549</v>
+      </c>
+      <c r="F24">
+        <f>GEOMEAN(F5,F7,F9,F12,F21,F22)</f>
+        <v>0.16209296042402524</v>
+      </c>
+      <c r="I24">
+        <f>GEOMEAN(I5,I7,I9,I12,I21,I23)</f>
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <f>GEOMEAN(K5,K7,K9,K12,K21,K22)</f>
+        <v>1</v>
+      </c>
+      <c r="N24">
+        <f>GEOMEAN(N5,N7,N9,N12,N21,N22)</f>
+        <v>0.53324131737120128</v>
+      </c>
+      <c r="P24">
+        <f>GEOMEAN(P5,P7,P9,P12,P21,P22)</f>
+        <v>0.16643582984091718</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="B27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="B28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="B31" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="B32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2">
+      <c r="B33" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2">
+      <c r="B34" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="C53" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" t="s">
+        <v>8</v>
+      </c>
+      <c r="E53" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" t="s">
+        <v>20</v>
+      </c>
+      <c r="C54">
+        <v>0.53731700000000004</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54">
+        <v>0.99996700000000005</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" t="s">
+        <v>32</v>
+      </c>
+      <c r="C55">
+        <v>0.44451099999999999</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55">
+        <v>0.976352</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C56">
+        <v>4.1750000000000002E-2</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <v>5.5143999999999999E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57">
+        <v>3.3323999999999999E-2</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <v>3.6431999999999999E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58">
+        <v>1.0654220000000001</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <v>6.6086000000000006E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" t="s">
+        <v>70</v>
+      </c>
+      <c r="C59">
+        <v>4.5158999999999998E-2</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <v>9.0927999999999995E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60">
+        <f>GEOMEAN(C54,C55,C56,C57,C58,C59)</f>
+        <v>0.15872016734377342</v>
+      </c>
+      <c r="D60">
+        <f t="shared" ref="D60:E60" si="0">GEOMEAN(D54,D55,D56,D57,D58,D59)</f>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="0"/>
+        <v>0.15085628618923339</v>
+      </c>
+    </row>
+    <row r="74" spans="3:5">
+      <c r="C74" t="s">
+        <v>77</v>
+      </c>
+      <c r="D74" t="s">
+        <v>75</v>
+      </c>
+      <c r="E74" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="75" spans="3:5">
+      <c r="C75">
+        <v>8</v>
+      </c>
+      <c r="D75">
+        <v>35</v>
+      </c>
+      <c r="E75">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="76" spans="3:5">
+      <c r="C76">
+        <v>16</v>
+      </c>
+      <c r="D76">
+        <v>72</v>
+      </c>
+      <c r="E76">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="77" spans="3:5">
+      <c r="C77">
+        <v>32</v>
+      </c>
+      <c r="D77">
+        <v>144</v>
+      </c>
+      <c r="E77">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="78" spans="3:5">
+      <c r="C78">
+        <v>64</v>
+      </c>
+      <c r="D78">
+        <v>285</v>
+      </c>
+      <c r="E78">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="3:5">
+      <c r="C79">
+        <v>128</v>
+      </c>
+      <c r="D79">
+        <v>569</v>
+      </c>
+      <c r="E79">
+        <v>2.56</v>
+      </c>
+    </row>
+    <row r="80" spans="3:5">
+      <c r="C80">
+        <v>256</v>
+      </c>
+      <c r="D80">
+        <v>1153</v>
+      </c>
+      <c r="E80">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="81" spans="3:5">
+      <c r="C81">
+        <v>512</v>
+      </c>
+      <c r="D81">
+        <v>2316</v>
+      </c>
+      <c r="E81">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="82" spans="3:5">
+      <c r="C82">
+        <v>1024</v>
+      </c>
+      <c r="D82">
+        <v>3127</v>
+      </c>
+      <c r="E82">
+        <v>3.39</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:T17"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="89">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>*compiled benchmark tests on chapel trunk revision 22919</t>
+  </si>
+  <si>
+    <t>jacobi-1D</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobi-1d </t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$53</c:f>
+              <c:f>'Data Collected at LTS'!$D$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -829,7 +835,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$54:$B$60</c:f>
+              <c:f>'Data Collected at LTS'!$B$55:$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -858,7 +864,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$54:$D$60</c:f>
+              <c:f>'Data Collected at LTS'!$D$55:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -892,7 +898,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$53</c:f>
+              <c:f>'Data Collected at LTS'!$E$54</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -904,7 +910,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$54:$B$60</c:f>
+              <c:f>'Data Collected at LTS'!$B$55:$B$61</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -933,7 +939,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$54:$E$60</c:f>
+              <c:f>'Data Collected at LTS'!$E$55:$E$61</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1098,7 +1104,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$74</c:f>
+              <c:f>'Data Collected at LTS'!$E$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1109,7 +1115,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$75:$C$82</c:f>
+              <c:f>'Data Collected at LTS'!$C$76:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1142,7 +1148,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$75:$E$82</c:f>
+              <c:f>'Data Collected at LTS'!$E$76:$E$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1317,7 +1323,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$74</c:f>
+              <c:f>'Data Collected at LTS'!$D$75</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1328,7 +1334,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$75:$C$82</c:f>
+              <c:f>'Data Collected at LTS'!$C$76:$C$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1361,7 +1367,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$75:$D$82</c:f>
+              <c:f>'Data Collected at LTS'!$D$76:$D$83</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1533,13 +1539,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>39</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>64</xdr:row>
+      <xdr:row>65</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1565,13 +1571,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>69</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1595,13 +1601,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>87</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>108</xdr:row>
+      <xdr:row>109</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3532,10 +3538,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA82"/>
+  <dimension ref="A1:AA83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4217,328 +4223,376 @@
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="1"/>
+      <c r="A23" s="5" t="s">
+        <v>87</v>
+      </c>
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-      <c r="I23" s="1"/>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
-      <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="1"/>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
-      <c r="U23" s="1"/>
-      <c r="V23" s="1"/>
-      <c r="W23" s="1"/>
-      <c r="X23" s="1"/>
-      <c r="Y23" s="1"/>
-      <c r="Z23" s="1"/>
+      <c r="C23" s="7">
+        <v>2.40943</v>
+      </c>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7">
+        <v>1177164</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7">
+        <v>7.1884800000000002</v>
+      </c>
+      <c r="I23" s="7"/>
+      <c r="J23" s="7">
+        <v>3931545</v>
+      </c>
+      <c r="K23" s="7"/>
+      <c r="L23" s="7"/>
+      <c r="M23" s="7">
+        <v>4.7495700000000003</v>
+      </c>
+      <c r="N23" s="7"/>
+      <c r="O23" s="7">
+        <v>2252206</v>
+      </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" t="s">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+      <c r="Z24" s="1"/>
+      <c r="AA24" s="1"/>
+    </row>
+    <row r="25" spans="1:27">
+      <c r="A25" t="s">
         <v>25</v>
       </c>
-      <c r="B24" s="1"/>
-      <c r="D24">
+      <c r="B25" s="1"/>
+      <c r="D25">
         <f>GEOMEAN(D5,D7,D9,D12,D21,D22)</f>
         <v>0.52863870700485549</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <f>GEOMEAN(F5,F7,F9,F12,F21,F22)</f>
         <v>0.16209296042402524</v>
       </c>
-      <c r="I24">
-        <f>GEOMEAN(I5,I7,I9,I12,I21,I23)</f>
+      <c r="I25">
+        <f>GEOMEAN(I5,I7,I9,I12,I21,I24)</f>
         <v>1</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <f>GEOMEAN(K5,K7,K9,K12,K21,K22)</f>
         <v>1</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <f>GEOMEAN(N5,N7,N9,N12,N21,N22)</f>
         <v>0.53324131737120128</v>
       </c>
-      <c r="P24">
+      <c r="P25">
         <f>GEOMEAN(P5,P7,P9,P12,P21,P22)</f>
         <v>0.16643582984091718</v>
       </c>
-      <c r="Q24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="B27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="AA25" s="1"/>
     </row>
     <row r="28" spans="1:27">
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D28" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:27">
       <c r="B29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
+      <c r="B30" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="B31" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="B32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="53" spans="2:5">
-      <c r="C53" t="s">
+    <row r="39" spans="2:2">
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="C54" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="s">
+      <c r="D54" t="s">
         <v>8</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5">
-      <c r="B54" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54">
-        <v>0.53731700000000004</v>
-      </c>
-      <c r="D54">
-        <v>1</v>
-      </c>
-      <c r="E54">
-        <v>0.99996700000000005</v>
       </c>
     </row>
     <row r="55" spans="2:5">
       <c r="B55" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C55">
-        <v>0.44451099999999999</v>
+        <v>0.53731700000000004</v>
       </c>
       <c r="D55">
         <v>1</v>
       </c>
       <c r="E55">
-        <v>0.976352</v>
+        <v>0.99996700000000005</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C56">
-        <v>4.1750000000000002E-2</v>
+        <v>0.44451099999999999</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>5.5143999999999999E-2</v>
+        <v>0.976352</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C57">
-        <v>3.3323999999999999E-2</v>
+        <v>4.1750000000000002E-2</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>3.6431999999999999E-2</v>
+        <v>5.5143999999999999E-2</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C58">
-        <v>1.0654220000000001</v>
+        <v>3.3323999999999999E-2</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>6.6086000000000006E-2</v>
+        <v>3.6431999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59">
-        <v>4.5158999999999998E-2</v>
+        <v>1.0654220000000001</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>9.0927999999999995E-2</v>
+        <v>6.6086000000000006E-2</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60">
+        <v>4.5158999999999998E-2</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <v>9.0927999999999995E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="B61" t="s">
         <v>25</v>
       </c>
-      <c r="C60">
-        <f>GEOMEAN(C54,C55,C56,C57,C58,C59)</f>
+      <c r="C61">
+        <f>GEOMEAN(C55,C56,C57,C58,C59,C60)</f>
         <v>0.15872016734377342</v>
       </c>
-      <c r="D60">
-        <f t="shared" ref="D60:E60" si="0">GEOMEAN(D54,D55,D56,D57,D58,D59)</f>
+      <c r="D61">
+        <f t="shared" ref="D61:E61" si="0">GEOMEAN(D55,D56,D57,D58,D59,D60)</f>
         <v>1</v>
       </c>
-      <c r="E60">
+      <c r="E61">
         <f t="shared" si="0"/>
         <v>0.15085628618923339</v>
       </c>
     </row>
-    <row r="74" spans="3:5">
-      <c r="C74" t="s">
+    <row r="75" spans="3:5">
+      <c r="C75" t="s">
         <v>77</v>
       </c>
-      <c r="D74" t="s">
+      <c r="D75" t="s">
         <v>75</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E75" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="3:5">
-      <c r="C75">
-        <v>8</v>
-      </c>
-      <c r="D75">
-        <v>35</v>
-      </c>
-      <c r="E75">
-        <v>2.5</v>
       </c>
     </row>
     <row r="76" spans="3:5">
       <c r="C76">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D76">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E76">
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="3:5">
       <c r="C77">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D77">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="E77">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="78" spans="3:5">
       <c r="C78">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D78">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="E78">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="79" spans="3:5">
       <c r="C79">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D79">
-        <v>569</v>
+        <v>285</v>
       </c>
       <c r="E79">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="80" spans="3:5">
       <c r="C80">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D80">
-        <v>1153</v>
+        <v>569</v>
       </c>
       <c r="E80">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="81" spans="3:5">
       <c r="C81">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D81">
-        <v>2316</v>
+        <v>1153</v>
       </c>
       <c r="E81">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="82" spans="3:5">
       <c r="C82">
+        <v>512</v>
+      </c>
+      <c r="D82">
+        <v>2316</v>
+      </c>
+      <c r="E82">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="83" spans="3:5">
+      <c r="C83">
         <v>1024</v>
       </c>
-      <c r="D82">
+      <c r="D83">
         <v>3127</v>
       </c>
-      <c r="E82">
+      <c r="E83">
         <v>3.39</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="0" windowWidth="24860" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -288,7 +288,7 @@
     <t>jacobi-1D</t>
   </si>
   <si>
-    <t xml:space="preserve">jacobi-1d </t>
+    <t>jacobi-1d M=10000, bsize = 4</t>
   </si>
 </sst>
 </file>
@@ -3540,8 +3540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
+      <selection activeCell="R24" sqref="R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4237,16 +4237,16 @@
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
       <c r="H23" s="7">
-        <v>7.1884800000000002</v>
+        <v>6.4320700000000004</v>
       </c>
       <c r="I23" s="7"/>
       <c r="J23" s="7">
-        <v>3931545</v>
+        <v>3925847</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
       <c r="M23" s="7">
-        <v>4.7495700000000003</v>
+        <v>4.8103999999999996</v>
       </c>
       <c r="N23" s="7"/>
       <c r="O23" s="7">
@@ -4254,14 +4254,22 @@
       </c>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
-      <c r="R23" s="7"/>
+      <c r="R23" s="7">
+        <v>11.6592</v>
+      </c>
       <c r="S23" s="7"/>
-      <c r="T23" s="7"/>
+      <c r="T23" s="7">
+        <v>15657168</v>
+      </c>
       <c r="U23" s="7"/>
       <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
+      <c r="W23" s="7">
+        <v>8.91</v>
+      </c>
       <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
+      <c r="Y23" s="7">
+        <v>12998512</v>
+      </c>
       <c r="Z23" s="7"/>
       <c r="AA23" s="1"/>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="90">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -289,6 +289,9 @@
   </si>
   <si>
     <t>jacobi-1d M=10000, bsize = 4</t>
+  </si>
+  <si>
+    <t>fdtd-2d</t>
   </si>
 </sst>
 </file>
@@ -823,7 +826,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$54</c:f>
+              <c:f>'Data Collected at LTS'!$D$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -835,7 +838,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$55:$B$61</c:f>
+              <c:f>'Data Collected at LTS'!$B$56:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -864,7 +867,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$55:$D$61</c:f>
+              <c:f>'Data Collected at LTS'!$D$56:$D$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -898,7 +901,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$54</c:f>
+              <c:f>'Data Collected at LTS'!$E$55</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -910,7 +913,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$55:$B$61</c:f>
+              <c:f>'Data Collected at LTS'!$B$56:$B$62</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -939,7 +942,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$55:$E$61</c:f>
+              <c:f>'Data Collected at LTS'!$E$56:$E$62</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1104,7 +1107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$75</c:f>
+              <c:f>'Data Collected at LTS'!$E$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1115,7 +1118,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$76:$C$83</c:f>
+              <c:f>'Data Collected at LTS'!$C$77:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1148,7 +1151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$76:$E$83</c:f>
+              <c:f>'Data Collected at LTS'!$E$77:$E$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1323,7 +1326,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$75</c:f>
+              <c:f>'Data Collected at LTS'!$D$76</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1334,7 +1337,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$76:$C$83</c:f>
+              <c:f>'Data Collected at LTS'!$C$77:$C$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1367,7 +1370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$76:$D$83</c:f>
+              <c:f>'Data Collected at LTS'!$D$77:$D$84</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1539,13 +1542,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>146050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
       <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1571,13 +1574,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:row>70</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1601,13 +1604,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>87</xdr:row>
+      <xdr:row>88</xdr:row>
       <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>109</xdr:row>
+      <xdr:row>110</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -3538,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA83"/>
+  <dimension ref="A1:AA84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K3" workbookViewId="0">
-      <selection activeCell="R24" sqref="R24"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4274,333 +4277,364 @@
       <c r="AA23" s="1"/>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="1"/>
+      <c r="A24" s="5" t="s">
+        <v>89</v>
+      </c>
       <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-      <c r="K24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="1"/>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="1"/>
-      <c r="W24" s="1"/>
-      <c r="X24" s="1"/>
-      <c r="Y24" s="1"/>
-      <c r="Z24" s="1"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+      <c r="J24" s="7"/>
+      <c r="K24" s="7"/>
+      <c r="L24" s="7"/>
+      <c r="M24" s="7"/>
+      <c r="N24" s="7"/>
+      <c r="O24" s="7"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
+      <c r="U24" s="7"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="7"/>
+      <c r="X24" s="7"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
       <c r="AA24" s="1"/>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" t="s">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+      <c r="Z25" s="1"/>
+      <c r="AA25" s="1"/>
+    </row>
+    <row r="26" spans="1:27">
+      <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B25" s="1"/>
-      <c r="D25">
+      <c r="B26" s="1"/>
+      <c r="D26">
         <f>GEOMEAN(D5,D7,D9,D12,D21,D22)</f>
         <v>0.52863870700485549</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <f>GEOMEAN(F5,F7,F9,F12,F21,F22)</f>
         <v>0.16209296042402524</v>
       </c>
-      <c r="I25">
-        <f>GEOMEAN(I5,I7,I9,I12,I21,I24)</f>
+      <c r="I26">
+        <f>GEOMEAN(I5,I7,I9,I12,I21,I25)</f>
         <v>1</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <f>GEOMEAN(K5,K7,K9,K12,K21,K22)</f>
         <v>1</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <f>GEOMEAN(N5,N7,N9,N12,N21,N22)</f>
         <v>0.53324131737120128</v>
       </c>
-      <c r="P25">
+      <c r="P26">
         <f>GEOMEAN(P5,P7,P9,P12,P21,P22)</f>
         <v>0.16643582984091718</v>
       </c>
-      <c r="Q25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="AA25" s="1"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="B28" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" t="s">
-        <v>86</v>
-      </c>
+      <c r="Q26" s="1"/>
+      <c r="V26" s="1"/>
+      <c r="AA26" s="1"/>
     </row>
     <row r="29" spans="1:27">
       <c r="B29" t="s">
-        <v>74</v>
+        <v>73</v>
+      </c>
+      <c r="D29" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="B30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
+      <c r="B31" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="B32" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="33" spans="2:2">
       <c r="B33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="54" spans="2:5">
-      <c r="C54" t="s">
+    <row r="55" spans="2:5">
+      <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D54" t="s">
+      <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E55" t="s">
         <v>37</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="B55" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55">
-        <v>0.53731700000000004</v>
-      </c>
-      <c r="D55">
-        <v>1</v>
-      </c>
-      <c r="E55">
-        <v>0.99996700000000005</v>
       </c>
     </row>
     <row r="56" spans="2:5">
       <c r="B56" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>0.44451099999999999</v>
+        <v>0.53731700000000004</v>
       </c>
       <c r="D56">
         <v>1</v>
       </c>
       <c r="E56">
-        <v>0.976352</v>
+        <v>0.99996700000000005</v>
       </c>
     </row>
     <row r="57" spans="2:5">
       <c r="B57" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C57">
-        <v>4.1750000000000002E-2</v>
+        <v>0.44451099999999999</v>
       </c>
       <c r="D57">
         <v>1</v>
       </c>
       <c r="E57">
-        <v>5.5143999999999999E-2</v>
+        <v>0.976352</v>
       </c>
     </row>
     <row r="58" spans="2:5">
       <c r="B58" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C58">
-        <v>3.3323999999999999E-2</v>
+        <v>4.1750000000000002E-2</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58">
-        <v>3.6431999999999999E-2</v>
+        <v>5.5143999999999999E-2</v>
       </c>
     </row>
     <row r="59" spans="2:5">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="C59">
-        <v>1.0654220000000001</v>
+        <v>3.3323999999999999E-2</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59">
-        <v>6.6086000000000006E-2</v>
+        <v>3.6431999999999999E-2</v>
       </c>
     </row>
     <row r="60" spans="2:5">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C60">
-        <v>4.5158999999999998E-2</v>
+        <v>1.0654220000000001</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>9.0927999999999995E-2</v>
+        <v>6.6086000000000006E-2</v>
       </c>
     </row>
     <row r="61" spans="2:5">
       <c r="B61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C61">
+        <v>4.5158999999999998E-2</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <v>9.0927999999999995E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5">
+      <c r="B62" t="s">
         <v>25</v>
       </c>
-      <c r="C61">
-        <f>GEOMEAN(C55,C56,C57,C58,C59,C60)</f>
+      <c r="C62">
+        <f>GEOMEAN(C56,C57,C58,C59,C60,C61)</f>
         <v>0.15872016734377342</v>
       </c>
-      <c r="D61">
-        <f t="shared" ref="D61:E61" si="0">GEOMEAN(D55,D56,D57,D58,D59,D60)</f>
+      <c r="D62">
+        <f t="shared" ref="D62:E62" si="0">GEOMEAN(D56,D57,D58,D59,D60,D61)</f>
         <v>1</v>
       </c>
-      <c r="E61">
+      <c r="E62">
         <f t="shared" si="0"/>
         <v>0.15085628618923339</v>
       </c>
     </row>
-    <row r="75" spans="3:5">
-      <c r="C75" t="s">
+    <row r="76" spans="3:5">
+      <c r="C76" t="s">
         <v>77</v>
       </c>
-      <c r="D75" t="s">
+      <c r="D76" t="s">
         <v>75</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E76" t="s">
         <v>76</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76">
-        <v>8</v>
-      </c>
-      <c r="D76">
-        <v>35</v>
-      </c>
-      <c r="E76">
-        <v>2.5</v>
       </c>
     </row>
     <row r="77" spans="3:5">
       <c r="C77">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="D77">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="E77">
-        <v>2.4700000000000002</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="78" spans="3:5">
       <c r="C78">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="D78">
-        <v>144</v>
+        <v>72</v>
       </c>
       <c r="E78">
-        <v>2.48</v>
+        <v>2.4700000000000002</v>
       </c>
     </row>
     <row r="79" spans="3:5">
       <c r="C79">
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="D79">
-        <v>285</v>
+        <v>144</v>
       </c>
       <c r="E79">
-        <v>2.5</v>
+        <v>2.48</v>
       </c>
     </row>
     <row r="80" spans="3:5">
       <c r="C80">
-        <v>128</v>
+        <v>64</v>
       </c>
       <c r="D80">
-        <v>569</v>
+        <v>285</v>
       </c>
       <c r="E80">
-        <v>2.56</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="81" spans="3:5">
       <c r="C81">
-        <v>256</v>
+        <v>128</v>
       </c>
       <c r="D81">
-        <v>1153</v>
+        <v>569</v>
       </c>
       <c r="E81">
-        <v>2.7</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="82" spans="3:5">
       <c r="C82">
-        <v>512</v>
+        <v>256</v>
       </c>
       <c r="D82">
-        <v>2316</v>
+        <v>1153</v>
       </c>
       <c r="E82">
-        <v>2.93</v>
+        <v>2.7</v>
       </c>
     </row>
     <row r="83" spans="3:5">
       <c r="C83">
+        <v>512</v>
+      </c>
+      <c r="D83">
+        <v>2316</v>
+      </c>
+      <c r="E83">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="84" spans="3:5">
+      <c r="C84">
         <v>1024</v>
       </c>
-      <c r="D83">
+      <c r="D84">
         <v>3127</v>
       </c>
-      <c r="E83">
+      <c r="E84">
         <v>3.39</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24900" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="34600" windowHeight="19560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="98">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -258,30 +258,15 @@
     <t>Data size (bytes)</t>
   </si>
   <si>
-    <t>2mm N = 16</t>
-  </si>
-  <si>
-    <t>cholesky N = 128</t>
-  </si>
-  <si>
     <t>stencil9 n=400, epsilon = 0.05, iterations = 3</t>
   </si>
   <si>
-    <t>jacobi n = 400, epsilon = 0.05, iterations = 5</t>
-  </si>
-  <si>
-    <t>folding n = 50400, iterations = 10</t>
-  </si>
-  <si>
     <t>*all run on 10 locales</t>
   </si>
   <si>
     <t>pascal n1 = 100000, n2 = 100003, blocksize = 16</t>
   </si>
   <si>
-    <t>covariance N=64, M=64</t>
-  </si>
-  <si>
     <t>*compiled benchmark tests on chapel trunk revision 22919</t>
   </si>
   <si>
@@ -292,6 +277,45 @@
   </si>
   <si>
     <t>fdtd-2d</t>
+  </si>
+  <si>
+    <t>folding n = 50400, iterations = 10, WON'T WORK WITH BLOCK CYCLIC BECAUSE OF STRIDED ACCESSES</t>
+  </si>
+  <si>
+    <t>correlation N=64 , M=64</t>
+  </si>
+  <si>
+    <t>fw N=16 - If time later try this on a bigger input size</t>
+  </si>
+  <si>
+    <t>fdtd-apml</t>
+  </si>
+  <si>
+    <t>syr2k</t>
+  </si>
+  <si>
+    <t>syrk</t>
+  </si>
+  <si>
+    <t>jacobi-2d n = 400, epsilon = 0.05, iterations = 5</t>
+  </si>
+  <si>
+    <t>jacobi-2d</t>
+  </si>
+  <si>
+    <t>2mm N = 16 - If time later try this on bigger input size (1024)</t>
+  </si>
+  <si>
+    <t>cholesky N = 128 - If time later try this on input of 1024</t>
+  </si>
+  <si>
+    <t>covariance N=128, M=128 - if time later try this on bigger input size 1024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fw </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mvt </t>
   </si>
 </sst>
 </file>
@@ -377,7 +401,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="73">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -451,8 +475,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -461,8 +493,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="73">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -499,6 +532,10 @@
     <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -535,6 +572,10 @@
     <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -722,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2081708024"/>
-        <c:axId val="2081705032"/>
+        <c:axId val="2079893848"/>
+        <c:axId val="2079896824"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2081708024"/>
+        <c:axId val="2079893848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -735,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081705032"/>
+        <c:crossAx val="2079896824"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -743,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2081705032"/>
+        <c:axId val="2079896824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -771,21 +812,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2081708024"/>
+        <c:crossAx val="2079893848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -801,264 +840,6 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="118"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="18"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cyclic</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$56:$B$62</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2mm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cholesky</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>jacobi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>stencil9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>folding</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pascal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>geometric mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$56:$D$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$55</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Cyclic Modulo</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Data Collected at LTS'!$B$56:$B$62</c:f>
-              <c:strCache>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2mm</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>cholesky</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>jacobi</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>stencil9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>folding</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>pascal</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>geometric mean</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$56:$E$62</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.999967</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.976352</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.055144</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.036432</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.066086</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.090928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.150856286189233</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="2086841320"/>
-        <c:axId val="2086838328"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="2086841320"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086838328"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="2086838328"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" vert="horz"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Message Count Normalized</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> to Cyclic Distribution</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:layout/>
-          <c:overlay val="0"/>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086841320"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1107,7 +888,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$E$76</c:f>
+              <c:f>'Data Collected at LTS'!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1118,7 +899,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$77:$C$84</c:f>
+              <c:f>'Data Collected at LTS'!$C$59:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1151,7 +932,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$E$77:$E$84</c:f>
+              <c:f>'Data Collected at LTS'!$E$59:$E$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1192,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085798664"/>
-        <c:axId val="-2132152888"/>
+        <c:axId val="2079971880"/>
+        <c:axId val="2079977576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085798664"/>
+        <c:axId val="2079971880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,12 +1011,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2132152888"/>
+        <c:crossAx val="2079977576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2132152888"/>
+        <c:axId val="2079977576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1280,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085798664"/>
+        <c:crossAx val="2079971880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1297,7 +1078,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1326,7 +1107,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$D$76</c:f>
+              <c:f>'Data Collected at LTS'!$D$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1337,7 +1118,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$C$77:$C$84</c:f>
+              <c:f>'Data Collected at LTS'!$C$59:$C$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1370,7 +1151,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$D$77:$D$84</c:f>
+              <c:f>'Data Collected at LTS'!$D$59:$D$66</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -1411,11 +1192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2133144072"/>
-        <c:axId val="-2133265192"/>
+        <c:axId val="2080006056"/>
+        <c:axId val="2080011496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2133144072"/>
+        <c:axId val="2080006056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1444,12 +1225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133265192"/>
+        <c:crossAx val="2080011496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2133265192"/>
+        <c:axId val="2080011496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1484,11 +1265,1045 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2133144072"/>
+        <c:crossAx val="2080006056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cyclic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cyclic Modulo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$N$5:$N$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.99339387567572</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0824474198368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995692177530229</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.430533279507126</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.108398586464636</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.017170491815187</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.314858472750294</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.454484923125819</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.34703467892137</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.747877432925947</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.708864992652279</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080047304"/>
+        <c:axId val="2080052776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080047304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080052776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080052776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime Normalized</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> to Cyclic</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080047304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Cyclic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$K$5:$K$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cyclic Modulo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2d</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>covariance</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>stencil9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>folding</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$P$5:$P$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.999935296020705</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.007034751627491</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.001682820825608</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0698210858270214</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.994553342271717</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.969870538576369</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.0509739781503888</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.0654980503155921</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.0905526362801929</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.573686646473997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.321456918280518</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080083304"/>
+        <c:axId val="2080088776"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080083304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080088776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080088776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Count Normalized to Cyclic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080083304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Block Cyclic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$S$13:$S$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Block Cyclic Modulo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$X$13:$X$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.292318569503556</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.764203375874846</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.472642399331168</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080118248"/>
+        <c:axId val="2080123704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080118248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080123704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080123704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Normalized to Block Cyclic</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080118248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Block Cyclic</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$U$13:$U$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Block Cyclic Modulo</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>pascal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>jacobi-1D</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Collected at LTS'!$Z$13:$Z$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.0957998849562477</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83019560114575</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.282015324195239</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2080153320"/>
+        <c:axId val="2080158792"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2080153320"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Benchmark</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080158792"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2080158792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Message Count Normalized to Block Cyclic</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2080153320"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -1541,22 +2356,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>596900</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>146050</xdr:rowOff>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>431800</xdr:colOff>
-      <xdr:row>66</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>520700</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1573,19 +2386,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>762000</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
       <xdr:row>88</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvPr id="9" name="Chart 8"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1602,20 +2415,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>279400</xdr:colOff>
-      <xdr:row>88</xdr:row>
-      <xdr:rowOff>184150</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>101600</xdr:colOff>
-      <xdr:row>110</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvPr id="11" name="Chart 10"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1625,6 +2438,96 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>736600</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1079500</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="14" name="Chart 13"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3541,10 +4444,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA84"/>
+  <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3554,8 +4457,8 @@
     <col min="3" max="3" width="16.1640625" customWidth="1"/>
     <col min="4" max="4" width="19" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="7" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
     <col min="10" max="10" width="10.6640625" customWidth="1"/>
@@ -3726,14 +4629,14 @@
         <v>6.1939299999999999</v>
       </c>
       <c r="D5">
-        <f>C5/H5</f>
+        <f t="shared" ref="D5:D14" si="0">C5/H5</f>
         <v>0.51275528365770673</v>
       </c>
       <c r="E5">
         <v>1791617</v>
       </c>
       <c r="F5">
-        <f>E5/J5</f>
+        <f t="shared" ref="F5:F14" si="1">E5/J5</f>
         <v>0.53176490491779926</v>
       </c>
       <c r="G5" s="1"/>
@@ -3741,14 +4644,14 @@
         <v>12.079700000000001</v>
       </c>
       <c r="I5">
-        <f>H5/H5</f>
+        <f t="shared" ref="I5:I14" si="2">H5/H5</f>
         <v>1</v>
       </c>
       <c r="J5">
         <v>3369190</v>
       </c>
       <c r="K5">
-        <f>J5/J5</f>
+        <f t="shared" ref="K5:K14" si="3">J5/J5</f>
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
@@ -3756,14 +4659,14 @@
         <v>11.9999</v>
       </c>
       <c r="N5">
-        <f>M5/H5</f>
+        <f t="shared" ref="N5:N14" si="4">M5/H5</f>
         <v>0.99339387567572035</v>
       </c>
       <c r="O5">
         <v>3368972</v>
       </c>
       <c r="P5">
-        <f>O5/J5</f>
+        <f t="shared" ref="P5:P14" si="5">O5/J5</f>
         <v>0.9999352960207053</v>
       </c>
       <c r="Q5" s="1"/>
@@ -3771,64 +4674,106 @@
       <c r="AA5" s="1"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="3" t="s">
-        <v>47</v>
+      <c r="A6" t="s">
+        <v>32</v>
       </c>
       <c r="B6" s="1"/>
+      <c r="C6">
+        <v>66.007900000000006</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>0.47414018503620275</v>
+      </c>
+      <c r="E6">
+        <v>18151922</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0.44451111269088356</v>
+      </c>
       <c r="G6" s="1"/>
+      <c r="H6">
+        <v>139.21600000000001</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>40835699</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="L6" s="1"/>
+      <c r="M6">
+        <v>150.69399999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="4"/>
+        <v>1.0824474198368002</v>
+      </c>
+      <c r="O6">
+        <v>41122968</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>1.0070347516274913</v>
+      </c>
       <c r="Q6" s="1"/>
       <c r="V6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>96</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
-        <v>66.007900000000006</v>
+        <v>76.439499999999995</v>
       </c>
       <c r="D7">
-        <f>C7/H7</f>
-        <v>0.47414018503620275</v>
+        <f t="shared" si="0"/>
+        <v>0.5389325624845771</v>
       </c>
       <c r="E7">
-        <v>18151922</v>
+        <v>20233230</v>
       </c>
       <c r="F7">
-        <f>E7/J7</f>
-        <v>0.44451111269088356</v>
+        <f t="shared" si="1"/>
+        <v>0.57395783782529497</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
-        <v>139.21600000000001</v>
+        <v>141.83500000000001</v>
       </c>
       <c r="I7">
-        <f>H7/H7</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <v>40835699</v>
+        <v>35252119</v>
       </c>
       <c r="K7">
-        <f>J7/J7</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7">
-        <v>150.69399999999999</v>
+        <v>141.22399999999999</v>
       </c>
       <c r="N7">
-        <f>M7/H7</f>
-        <v>1.0824474198368002</v>
+        <f t="shared" si="4"/>
+        <v>0.99569217753022865</v>
       </c>
       <c r="O7">
-        <v>41122968</v>
+        <v>35311442</v>
       </c>
       <c r="P7">
-        <f>O7/J7</f>
-        <v>1.0070347516274913</v>
+        <f t="shared" si="5"/>
+        <v>1.0016828208256077</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="V7" s="1"/>
@@ -3836,63 +4781,105 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1"/>
+      <c r="C8">
+        <v>1.14863</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>0.41774591848239195</v>
+      </c>
+      <c r="E8">
+        <v>144368</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>4.2913956577739186E-2</v>
+      </c>
       <c r="G8" s="1"/>
+      <c r="H8">
+        <v>2.74959</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>3364127</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="L8" s="1"/>
+      <c r="M8">
+        <v>1.1837899999999999</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>0.4305332795071265</v>
+      </c>
+      <c r="O8">
+        <v>234887</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="5"/>
+        <v>6.9821085827021387E-2</v>
+      </c>
       <c r="Q8" s="1"/>
       <c r="V8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" t="s">
-        <v>34</v>
+      <c r="A9" s="6" t="s">
+        <v>44</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
-        <v>1.14863</v>
+        <v>84.839600000000004</v>
       </c>
       <c r="D9">
-        <f>C9/H9</f>
-        <v>0.41774591848239195</v>
+        <f t="shared" si="0"/>
+        <v>0.5392256063456552</v>
       </c>
       <c r="E9">
-        <v>144368</v>
+        <v>10868888</v>
       </c>
       <c r="F9">
-        <f>E9/J9</f>
-        <v>4.2913956577739186E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.62945637145964783</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9">
-        <v>2.74959</v>
+        <v>157.33600000000001</v>
       </c>
       <c r="I9">
-        <f>H9/H9</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J9">
-        <v>3364127</v>
+        <v>17267103</v>
       </c>
       <c r="K9">
-        <f>J9/J9</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9">
-        <v>1.1837899999999999</v>
+        <v>174.39099999999999</v>
       </c>
       <c r="N9">
-        <f>M9/H9</f>
-        <v>0.4305332795071265</v>
+        <f t="shared" si="4"/>
+        <v>1.108398586464636</v>
       </c>
       <c r="O9">
-        <v>234887</v>
+        <v>17173055</v>
       </c>
       <c r="P9">
-        <f>O9/J9</f>
-        <v>6.9821085827021387E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.99455334227171754</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="V9" s="1"/>
@@ -3900,63 +4887,105 @@
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B10" s="1"/>
+      <c r="C10">
+        <v>321.34100000000001</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>0.58356245482644276</v>
+      </c>
+      <c r="E10">
+        <v>45885384</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0.64567109402756917</v>
+      </c>
       <c r="G10" s="1"/>
+      <c r="H10">
+        <v>550.654</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>71066189</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="L10" s="1"/>
+      <c r="M10">
+        <v>560.10900000000004</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="4"/>
+        <v>1.0171704918151871</v>
+      </c>
+      <c r="O10">
+        <v>68925003</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="5"/>
+        <v>0.96987053857636862</v>
+      </c>
       <c r="Q10" s="1"/>
       <c r="V10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="6" t="s">
-        <v>45</v>
+      <c r="A11" s="5" t="s">
+        <v>48</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11">
-        <v>79.754199999999997</v>
+        <v>0.79603999999999997</v>
       </c>
       <c r="D11">
-        <f>C11/H11</f>
-        <v>0.42670982584735562</v>
+        <f t="shared" si="0"/>
+        <v>0.28634223371690232</v>
       </c>
       <c r="E11">
-        <v>11017460</v>
+        <v>147308</v>
       </c>
       <c r="F11">
-        <f>E11/J11</f>
-        <v>0.63292676509510681</v>
+        <f t="shared" si="1"/>
+        <v>3.6964220427281175E-2</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11">
-        <v>186.905</v>
+        <v>2.78003</v>
       </c>
       <c r="I11">
-        <f>H11/H11</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J11">
-        <v>17407164</v>
+        <v>3985151</v>
       </c>
       <c r="K11">
-        <f>J11/J11</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11">
-        <v>173.423</v>
+        <v>0.87531599999999998</v>
       </c>
       <c r="N11">
-        <f>M11/H11</f>
-        <v>0.92786709825847358</v>
+        <f t="shared" si="4"/>
+        <v>0.31485847275029405</v>
       </c>
       <c r="O11">
-        <v>17339284</v>
+        <v>203139</v>
       </c>
       <c r="P11">
-        <f>O11/J11</f>
-        <v>0.99610045611105869</v>
+        <f t="shared" si="5"/>
+        <v>5.0973978150388781E-2</v>
       </c>
       <c r="Q11" s="1"/>
       <c r="V11" s="1"/>
@@ -3964,137 +4993,397 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="B12" s="1"/>
-      <c r="C12">
-        <v>0.79603999999999997</v>
-      </c>
-      <c r="D12">
-        <f>C12/H12</f>
-        <v>0.28634223371690232</v>
-      </c>
-      <c r="E12">
-        <v>147308</v>
-      </c>
-      <c r="F12">
-        <f>E12/J12</f>
-        <v>3.6964220427281175E-2</v>
+      <c r="C12" s="6">
+        <v>5.6093000000000002</v>
+      </c>
+      <c r="D12" s="6">
+        <f t="shared" si="0"/>
+        <v>4.4569544316872589</v>
+      </c>
+      <c r="E12" s="6">
+        <v>3562817</v>
+      </c>
+      <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>1.0637624430471209</v>
       </c>
       <c r="G12" s="1"/>
-      <c r="H12">
-        <v>2.78003</v>
-      </c>
-      <c r="I12">
-        <f>H12/H12</f>
+      <c r="H12" s="6">
+        <v>1.2585500000000001</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="J12">
-        <v>3985151</v>
-      </c>
-      <c r="K12">
-        <f>J12/J12</f>
+      <c r="J12" s="6">
+        <v>3349260</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12">
-        <v>0.87531599999999998</v>
-      </c>
-      <c r="N12">
-        <f>M12/H12</f>
-        <v>0.31485847275029405</v>
-      </c>
-      <c r="O12">
-        <v>203139</v>
-      </c>
-      <c r="P12">
-        <f>O12/J12</f>
-        <v>5.0973978150388781E-2</v>
+      <c r="M12" s="6">
+        <v>0.57199199999999994</v>
+      </c>
+      <c r="N12" s="6">
+        <f t="shared" si="4"/>
+        <v>0.45448492312581934</v>
+      </c>
+      <c r="O12" s="6">
+        <v>219370</v>
+      </c>
+      <c r="P12" s="6">
+        <f t="shared" si="5"/>
+        <v>6.5498050315592096E-2</v>
       </c>
       <c r="Q12" s="1"/>
       <c r="V12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="4" t="s">
-        <v>50</v>
+      <c r="A13" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B13" s="1"/>
+      <c r="C13" s="6">
+        <v>6.6540000000000002E-2</v>
+      </c>
+      <c r="D13" s="6">
+        <f t="shared" si="0"/>
+        <v>0.16838407968256539</v>
+      </c>
+      <c r="E13" s="6">
+        <v>29527</v>
+      </c>
+      <c r="F13" s="6">
+        <f t="shared" si="1"/>
+        <v>4.5473446230233291E-2</v>
+      </c>
       <c r="G13" s="1"/>
+      <c r="H13" s="6">
+        <v>0.39516800000000002</v>
+      </c>
+      <c r="I13" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J13" s="6">
+        <v>649324</v>
+      </c>
+      <c r="K13" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="L13" s="1"/>
+      <c r="M13" s="6">
+        <v>0.13713700000000001</v>
+      </c>
+      <c r="N13" s="6">
+        <f t="shared" si="4"/>
+        <v>0.34703467892137013</v>
+      </c>
+      <c r="O13" s="6">
+        <v>58798</v>
+      </c>
+      <c r="P13" s="6">
+        <f t="shared" si="5"/>
+        <v>9.0552636280192944E-2</v>
+      </c>
       <c r="Q13" s="1"/>
+      <c r="R13" s="6">
+        <v>0.64637699999999998</v>
+      </c>
+      <c r="S13" s="6">
+        <f>R13/R13</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="6">
+        <v>982235</v>
+      </c>
+      <c r="U13" s="6">
+        <f>T13/T13</f>
+        <v>1</v>
+      </c>
       <c r="V13" s="1"/>
+      <c r="W13" s="6">
+        <v>0.188948</v>
+      </c>
+      <c r="X13" s="6">
+        <f>W13/R13</f>
+        <v>0.292318569503556</v>
+      </c>
+      <c r="Y13" s="6">
+        <v>94098</v>
+      </c>
+      <c r="Z13" s="6">
+        <f>Y13/T13</f>
+        <v>9.5799884956247736E-2</v>
+      </c>
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="4" t="s">
-        <v>51</v>
+      <c r="A14" s="5" t="s">
+        <v>82</v>
       </c>
       <c r="B14" s="1"/>
+      <c r="C14" s="6">
+        <v>2.40943</v>
+      </c>
+      <c r="D14" s="6">
+        <f t="shared" si="0"/>
+        <v>0.37459635855953055</v>
+      </c>
+      <c r="E14" s="6">
+        <v>1177164</v>
+      </c>
+      <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>0.29984968848760535</v>
+      </c>
       <c r="G14" s="1"/>
+      <c r="H14" s="6">
+        <v>6.4320700000000004</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J14" s="6">
+        <v>3925847</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
       <c r="L14" s="1"/>
+      <c r="M14" s="6">
+        <v>4.8103999999999996</v>
+      </c>
+      <c r="N14" s="6">
+        <f t="shared" si="4"/>
+        <v>0.74787743292594755</v>
+      </c>
+      <c r="O14" s="6">
+        <v>2252206</v>
+      </c>
+      <c r="P14" s="6">
+        <f t="shared" si="5"/>
+        <v>0.57368664647399659</v>
+      </c>
       <c r="Q14" s="1"/>
+      <c r="R14" s="6">
+        <v>11.6592</v>
+      </c>
+      <c r="S14" s="6">
+        <f>R14/R14</f>
+        <v>1</v>
+      </c>
+      <c r="T14" s="6">
+        <v>15657168</v>
+      </c>
+      <c r="U14" s="6">
+        <f>T14/T14</f>
+        <v>1</v>
+      </c>
       <c r="V14" s="1"/>
+      <c r="W14" s="6">
+        <v>8.91</v>
+      </c>
+      <c r="X14" s="6">
+        <f>W14/R14</f>
+        <v>0.76420337587484566</v>
+      </c>
+      <c r="Y14" s="6">
+        <v>12998512</v>
+      </c>
+      <c r="Z14" s="6">
+        <f>Y14/T14</f>
+        <v>0.83019560114574997</v>
+      </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27">
-      <c r="A15" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="AA15" s="1"/>
+    <row r="15" spans="1:27" s="2" customFormat="1">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="D15" s="2">
+        <f>GEOMEAN(D5,D6,D8,D11,D12,D13,D9,D10,D14,D7)</f>
+        <v>0.51783447222358048</v>
+      </c>
+      <c r="F15" s="2">
+        <f>GEOMEAN(F5,F6,F8,F11,F12,F13,F9,F10,F14,F7)</f>
+        <v>0.25723765956874339</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="I15" s="2">
+        <f>GEOMEAN(I5,I6,I8,I11,I12,I23,I9,I10,I13,I14,I7)</f>
+        <v>1</v>
+      </c>
+      <c r="K15" s="2">
+        <f>GEOMEAN(K5,K6,K8,K11,K12,K13,K9,K10,K14,K7)</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="8"/>
+      <c r="N15" s="2">
+        <f>GEOMEAN(N5,N6,N8,N11,N12,N13,N9,N10,N14+N7)</f>
+        <v>0.70886499265227876</v>
+      </c>
+      <c r="P15" s="2">
+        <f>GEOMEAN(P5,P6,P8,P11,P12,P13,P9,P10,P14,P7)</f>
+        <v>0.32145691828051831</v>
+      </c>
+      <c r="Q15" s="8"/>
+      <c r="S15" s="2">
+        <f>GEOMEAN(S13,S14)</f>
+        <v>1</v>
+      </c>
+      <c r="U15" s="2">
+        <f>GEOMEAN(U13,U14)</f>
+        <v>1</v>
+      </c>
+      <c r="V15" s="8"/>
+      <c r="X15" s="2">
+        <f>GEOMEAN(X13,X14)</f>
+        <v>0.47264239933116792</v>
+      </c>
+      <c r="Z15" s="2">
+        <f>GEOMEAN(Z13,Z14)</f>
+        <v>0.28201532419523906</v>
+      </c>
+      <c r="AA15" s="8"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
+      <c r="A16" s="5" t="s">
+        <v>84</v>
       </c>
       <c r="B16" s="1"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
       <c r="G16" s="1"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="1"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
       <c r="Q16" s="1"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
       <c r="V16" s="1"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
       <c r="AA16" s="1"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
-        <v>58</v>
+        <v>88</v>
       </c>
       <c r="B17" s="1"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
       <c r="G17" s="1"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
       <c r="L17" s="1"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
       <c r="Q17" s="1"/>
+      <c r="R17" s="6"/>
+      <c r="S17" s="6"/>
+      <c r="T17" s="6"/>
+      <c r="U17" s="6"/>
       <c r="V17" s="1"/>
+      <c r="W17" s="6"/>
+      <c r="X17" s="6"/>
+      <c r="Y17" s="6"/>
+      <c r="Z17" s="6"/>
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="B18" s="1"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
       <c r="G18" s="1"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="1"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
       <c r="Q18" s="1"/>
+      <c r="R18" s="6"/>
+      <c r="S18" s="6"/>
+      <c r="T18" s="6"/>
+      <c r="U18" s="6"/>
       <c r="V18" s="1"/>
+      <c r="W18" s="6"/>
+      <c r="X18" s="6"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
       <c r="G19" s="1"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
       <c r="L19" s="1"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
       <c r="Q19" s="1"/>
+      <c r="R19" s="6"/>
+      <c r="S19" s="6"/>
+      <c r="T19" s="6"/>
+      <c r="U19" s="6"/>
       <c r="V19" s="1"/>
+      <c r="W19" s="6"/>
+      <c r="X19" s="6"/>
+      <c r="Y19" s="6"/>
+      <c r="Z19" s="6"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27">
       <c r="A20" s="5" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B20" s="1"/>
       <c r="G20" s="1"/>
@@ -4105,286 +5394,86 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="5" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B21" s="1"/>
-      <c r="C21" s="7">
-        <v>5.6093000000000002</v>
-      </c>
-      <c r="D21" s="7">
-        <f>C21/H21</f>
-        <v>4.4569544316872589</v>
-      </c>
-      <c r="E21" s="7">
-        <v>3562817</v>
-      </c>
-      <c r="F21" s="7">
-        <f>E21/J21</f>
-        <v>1.0637624430471209</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7">
-        <v>1.2585500000000001</v>
-      </c>
-      <c r="I21" s="7">
-        <f>H21/H21</f>
-        <v>1</v>
-      </c>
-      <c r="J21" s="7">
-        <v>3349260</v>
-      </c>
-      <c r="K21" s="7">
-        <f>J21/J21</f>
-        <v>1</v>
-      </c>
-      <c r="L21" s="7"/>
-      <c r="M21" s="7">
-        <v>0.57199199999999994</v>
-      </c>
-      <c r="N21" s="7">
-        <f>M21/H21</f>
-        <v>0.45448492312581934</v>
-      </c>
-      <c r="O21" s="7">
-        <v>219370</v>
-      </c>
-      <c r="P21">
-        <f>O21/J21</f>
-        <v>6.5498050315592096E-2</v>
-      </c>
+      <c r="G21" s="1"/>
+      <c r="L21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="V21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
     <row r="22" spans="1:27">
       <c r="A22" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1"/>
-      <c r="C22" s="7">
-        <v>6.6540000000000002E-2</v>
-      </c>
-      <c r="D22" s="7">
-        <f>C22/H22</f>
-        <v>0.16838407968256539</v>
-      </c>
-      <c r="E22" s="7">
-        <v>29527</v>
-      </c>
-      <c r="F22" s="7">
-        <f>E22/J22</f>
-        <v>4.5473446230233291E-2</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7">
-        <v>0.39516800000000002</v>
-      </c>
-      <c r="I22" s="7">
-        <f>H22/H22</f>
-        <v>1</v>
-      </c>
-      <c r="J22" s="7">
-        <v>649324</v>
-      </c>
-      <c r="K22" s="7">
-        <f>J22/J22</f>
-        <v>1</v>
-      </c>
-      <c r="L22" s="7"/>
-      <c r="M22" s="7">
-        <v>0.13713700000000001</v>
-      </c>
-      <c r="N22" s="7">
-        <f>M22/H22</f>
-        <v>0.34703467892137013</v>
-      </c>
-      <c r="O22" s="7">
-        <v>58798</v>
-      </c>
-      <c r="P22" s="7">
-        <f>O22/J22</f>
-        <v>9.0552636280192944E-2</v>
-      </c>
-      <c r="Q22" s="7"/>
-      <c r="R22" s="7">
-        <v>0.64637699999999998</v>
-      </c>
-      <c r="S22" s="7"/>
-      <c r="T22" s="7">
-        <v>982235</v>
-      </c>
-      <c r="U22" s="7"/>
-      <c r="V22" s="7"/>
-      <c r="W22" s="7">
-        <v>0.188948</v>
-      </c>
-      <c r="X22" s="7"/>
-      <c r="Y22" s="7">
-        <v>94098</v>
-      </c>
-      <c r="Z22" s="7"/>
+      <c r="G22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="V22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="5" t="s">
-        <v>87</v>
-      </c>
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
-      <c r="C23" s="7">
-        <v>2.40943</v>
-      </c>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7">
-        <v>1177164</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7">
-        <v>6.4320700000000004</v>
-      </c>
-      <c r="I23" s="7"/>
-      <c r="J23" s="7">
-        <v>3925847</v>
-      </c>
-      <c r="K23" s="7"/>
-      <c r="L23" s="7"/>
-      <c r="M23" s="7">
-        <v>4.8103999999999996</v>
-      </c>
-      <c r="N23" s="7"/>
-      <c r="O23" s="7">
-        <v>2252206</v>
-      </c>
-      <c r="P23" s="7"/>
-      <c r="Q23" s="7"/>
-      <c r="R23" s="7">
-        <v>11.6592</v>
-      </c>
-      <c r="S23" s="7"/>
-      <c r="T23" s="7">
-        <v>15657168</v>
-      </c>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7">
-        <v>8.91</v>
-      </c>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7">
-        <v>12998512</v>
-      </c>
-      <c r="Z23" s="7"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+      <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24" spans="1:27">
-      <c r="A24" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="1"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-      <c r="K24" s="7"/>
-      <c r="L24" s="7"/>
-      <c r="M24" s="7"/>
-      <c r="N24" s="7"/>
-      <c r="O24" s="7"/>
-      <c r="P24" s="7"/>
-      <c r="Q24" s="7"/>
-      <c r="R24" s="7"/>
-      <c r="S24" s="7"/>
-      <c r="T24" s="7"/>
-      <c r="U24" s="7"/>
-      <c r="V24" s="7"/>
-      <c r="W24" s="7"/>
-      <c r="X24" s="7"/>
-      <c r="Y24" s="7"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="1"/>
-    </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-      <c r="K25" s="1"/>
-      <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="1"/>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
-      <c r="W25" s="1"/>
-      <c r="X25" s="1"/>
-      <c r="Y25" s="1"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-    </row>
     <row r="26" spans="1:27">
-      <c r="A26" t="s">
-        <v>25</v>
-      </c>
-      <c r="B26" s="1"/>
-      <c r="D26">
-        <f>GEOMEAN(D5,D7,D9,D12,D21,D22)</f>
-        <v>0.52863870700485549</v>
-      </c>
-      <c r="F26">
-        <f>GEOMEAN(F5,F7,F9,F12,F21,F22)</f>
-        <v>0.16209296042402524</v>
-      </c>
-      <c r="I26">
-        <f>GEOMEAN(I5,I7,I9,I12,I21,I25)</f>
-        <v>1</v>
-      </c>
-      <c r="K26">
-        <f>GEOMEAN(K5,K7,K9,K12,K21,K22)</f>
-        <v>1</v>
-      </c>
-      <c r="N26">
-        <f>GEOMEAN(N5,N7,N9,N12,N21,N22)</f>
-        <v>0.53324131737120128</v>
-      </c>
-      <c r="P26">
-        <f>GEOMEAN(P5,P7,P9,P12,P21,P22)</f>
-        <v>0.16643582984091718</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="V26" s="1"/>
-      <c r="AA26" s="1"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="B29" t="s">
+      <c r="B26" t="s">
         <v>73</v>
       </c>
-      <c r="D29" t="s">
-        <v>86</v>
+      <c r="D26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
+      <c r="B28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="30" spans="1:27">
       <c r="B30" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="B31" t="s">
-        <v>83</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
+      <c r="B32" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -4394,247 +5483,130 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="35" spans="2:2">
       <c r="B35" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="2:2">
       <c r="B37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="55" spans="2:5">
-      <c r="C55" t="s">
-        <v>9</v>
-      </c>
-      <c r="D55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="58" spans="3:5">
+      <c r="C58" t="s">
+        <v>77</v>
+      </c>
+      <c r="D58" t="s">
+        <v>75</v>
+      </c>
+      <c r="E58" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5">
+      <c r="C59">
         <v>8</v>
       </c>
-      <c r="E55" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5">
-      <c r="B56" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56">
-        <v>0.53731700000000004</v>
-      </c>
-      <c r="D56">
-        <v>1</v>
-      </c>
-      <c r="E56">
-        <v>0.99996700000000005</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5">
-      <c r="B57" t="s">
+      <c r="D59">
+        <v>35</v>
+      </c>
+      <c r="E59">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60">
+        <v>16</v>
+      </c>
+      <c r="D60">
+        <v>72</v>
+      </c>
+      <c r="E60">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5">
+      <c r="C61">
         <v>32</v>
       </c>
-      <c r="C57">
-        <v>0.44451099999999999</v>
-      </c>
-      <c r="D57">
-        <v>1</v>
-      </c>
-      <c r="E57">
-        <v>0.976352</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5">
-      <c r="B58" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58">
-        <v>4.1750000000000002E-2</v>
-      </c>
-      <c r="D58">
-        <v>1</v>
-      </c>
-      <c r="E58">
-        <v>5.5143999999999999E-2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5">
-      <c r="B59" t="s">
-        <v>48</v>
-      </c>
-      <c r="C59">
-        <v>3.3323999999999999E-2</v>
-      </c>
-      <c r="D59">
-        <v>1</v>
-      </c>
-      <c r="E59">
-        <v>3.6431999999999999E-2</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5">
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60">
-        <v>1.0654220000000001</v>
-      </c>
-      <c r="D60">
-        <v>1</v>
-      </c>
-      <c r="E60">
-        <v>6.6086000000000006E-2</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5">
-      <c r="B61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61">
-        <v>4.5158999999999998E-2</v>
-      </c>
       <c r="D61">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="E61">
-        <v>9.0927999999999995E-2</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5">
-      <c r="B62" t="s">
-        <v>25</v>
-      </c>
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="62" spans="3:5">
       <c r="C62">
-        <f>GEOMEAN(C56,C57,C58,C59,C60,C61)</f>
-        <v>0.15872016734377342</v>
+        <v>64</v>
       </c>
       <c r="D62">
-        <f t="shared" ref="D62:E62" si="0">GEOMEAN(D56,D57,D58,D59,D60,D61)</f>
-        <v>1</v>
+        <v>285</v>
       </c>
       <c r="E62">
-        <f t="shared" si="0"/>
-        <v>0.15085628618923339</v>
-      </c>
-    </row>
-    <row r="76" spans="3:5">
-      <c r="C76" t="s">
-        <v>77</v>
-      </c>
-      <c r="D76" t="s">
-        <v>75</v>
-      </c>
-      <c r="E76" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="77" spans="3:5">
-      <c r="C77">
-        <v>8</v>
-      </c>
-      <c r="D77">
-        <v>35</v>
-      </c>
-      <c r="E77">
         <v>2.5</v>
       </c>
     </row>
-    <row r="78" spans="3:5">
-      <c r="C78">
-        <v>16</v>
-      </c>
-      <c r="D78">
-        <v>72</v>
-      </c>
-      <c r="E78">
-        <v>2.4700000000000002</v>
-      </c>
-    </row>
-    <row r="79" spans="3:5">
-      <c r="C79">
-        <v>32</v>
-      </c>
-      <c r="D79">
-        <v>144</v>
-      </c>
-      <c r="E79">
-        <v>2.48</v>
-      </c>
-    </row>
-    <row r="80" spans="3:5">
-      <c r="C80">
-        <v>64</v>
-      </c>
-      <c r="D80">
-        <v>285</v>
-      </c>
-      <c r="E80">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="81" spans="3:5">
-      <c r="C81">
+    <row r="63" spans="3:5">
+      <c r="C63">
         <v>128</v>
       </c>
-      <c r="D81">
+      <c r="D63">
         <v>569</v>
       </c>
-      <c r="E81">
+      <c r="E63">
         <v>2.56</v>
       </c>
     </row>
-    <row r="82" spans="3:5">
-      <c r="C82">
+    <row r="64" spans="3:5">
+      <c r="C64">
         <v>256</v>
       </c>
-      <c r="D82">
+      <c r="D64">
         <v>1153</v>
       </c>
-      <c r="E82">
+      <c r="E64">
         <v>2.7</v>
       </c>
     </row>
-    <row r="83" spans="3:5">
-      <c r="C83">
+    <row r="65" spans="3:5">
+      <c r="C65">
         <v>512</v>
       </c>
-      <c r="D83">
+      <c r="D65">
         <v>2316</v>
       </c>
-      <c r="E83">
+      <c r="E65">
         <v>2.93</v>
       </c>
     </row>
-    <row r="84" spans="3:5">
-      <c r="C84">
+    <row r="66" spans="3:5">
+      <c r="C66">
         <v>1024</v>
       </c>
-      <c r="D84">
+      <c r="D66">
         <v>3127</v>
       </c>
-      <c r="E84">
+      <c r="E66">
         <v>3.39</v>
       </c>
     </row>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="34600" windowHeight="19560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="24620" windowHeight="19560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -282,12 +282,6 @@
     <t>folding n = 50400, iterations = 10, WON'T WORK WITH BLOCK CYCLIC BECAUSE OF STRIDED ACCESSES</t>
   </si>
   <si>
-    <t>correlation N=64 , M=64</t>
-  </si>
-  <si>
-    <t>fw N=16 - If time later try this on a bigger input size</t>
-  </si>
-  <si>
     <t>fdtd-apml</t>
   </si>
   <si>
@@ -303,19 +297,25 @@
     <t>jacobi-2d</t>
   </si>
   <si>
-    <t>2mm N = 16 - If time later try this on bigger input size (1024)</t>
-  </si>
-  <si>
-    <t>cholesky N = 128 - If time later try this on input of 1024</t>
-  </si>
-  <si>
-    <t>covariance N=128, M=128 - if time later try this on bigger input size 1024</t>
-  </si>
-  <si>
     <t xml:space="preserve">fw </t>
   </si>
   <si>
     <t xml:space="preserve">mvt </t>
+  </si>
+  <si>
+    <t>2mm N = 128</t>
+  </si>
+  <si>
+    <t>cholesky N = 256</t>
+  </si>
+  <si>
+    <t>correlation N=512 , M=512</t>
+  </si>
+  <si>
+    <t>covariance N=512, M=512</t>
+  </si>
+  <si>
+    <t>fw N=64</t>
   </si>
 </sst>
 </file>
@@ -763,11 +763,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2079893848"/>
-        <c:axId val="2079896824"/>
+        <c:axId val="2071196328"/>
+        <c:axId val="2071193336"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2079893848"/>
+        <c:axId val="2071196328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +776,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079896824"/>
+        <c:crossAx val="2071193336"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +784,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2079896824"/>
+        <c:axId val="2071193336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +818,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079893848"/>
+        <c:crossAx val="2071196328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,11 +973,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2079971880"/>
-        <c:axId val="2079977576"/>
+        <c:axId val="2072723816"/>
+        <c:axId val="2072729512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2079971880"/>
+        <c:axId val="2072723816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,12 +1011,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079977576"/>
+        <c:crossAx val="2072729512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2079977576"/>
+        <c:axId val="2072729512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1061,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2079971880"/>
+        <c:crossAx val="2072723816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1192,11 +1192,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2080006056"/>
-        <c:axId val="2080011496"/>
+        <c:axId val="2072757992"/>
+        <c:axId val="2072763432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2080006056"/>
+        <c:axId val="2072757992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,12 +1225,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080011496"/>
+        <c:crossAx val="2072763432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2080011496"/>
+        <c:axId val="2072763432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080006056"/>
+        <c:crossAx val="2072757992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1449,22 +1449,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.99339387567572</c:v>
+                  <c:v>1.091063566318107</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.0824474198368</c:v>
+                  <c:v>1.088760092847073</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.995692177530229</c:v>
+                  <c:v>1.011392661466027</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.430533279507126</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.108398586464636</c:v>
+                  <c:v>0.852632284542315</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.017170491815187</c:v>
+                  <c:v>0.907963959268016</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.314858472750294</c:v>
@@ -1479,7 +1479,7 @@
                   <c:v>0.747877432925947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.708864992652279</c:v>
+                  <c:v>0.688116829886376</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,11 +1494,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080047304"/>
-        <c:axId val="2080052776"/>
+        <c:axId val="2072799240"/>
+        <c:axId val="2072804712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080047304"/>
+        <c:axId val="2072799240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1526,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080052776"/>
+        <c:crossAx val="2072804712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1534,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080052776"/>
+        <c:axId val="2072804712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,7 +1569,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080047304"/>
+        <c:crossAx val="2072799240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1758,22 +1758,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.999935296020705</c:v>
+                  <c:v>1.000029086321673</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.007034751627491</c:v>
+                  <c:v>0.972299350879232</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.001682820825608</c:v>
+                  <c:v>0.996449986506737</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.0698210858270214</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.994553342271717</c:v>
+                  <c:v>0.853444974474862</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.969870538576369</c:v>
+                  <c:v>0.851909917468783</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0509739781503888</c:v>
@@ -1788,7 +1788,7 @@
                   <c:v>0.573686646473997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.321456918280518</c:v>
+                  <c:v>0.311241620034612</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,11 +1803,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080083304"/>
-        <c:axId val="2080088776"/>
+        <c:axId val="2072835240"/>
+        <c:axId val="2072840712"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080083304"/>
+        <c:axId val="2072835240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1835,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080088776"/>
+        <c:crossAx val="2072840712"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1843,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080088776"/>
+        <c:axId val="2072840712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1873,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080083304"/>
+        <c:crossAx val="2072835240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2011,11 +2011,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080118248"/>
-        <c:axId val="2080123704"/>
+        <c:axId val="2072870520"/>
+        <c:axId val="2072875976"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080118248"/>
+        <c:axId val="2072870520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2043,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080123704"/>
+        <c:crossAx val="2072875976"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2051,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080123704"/>
+        <c:axId val="2072875976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080118248"/>
+        <c:crossAx val="2072870520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2224,11 +2224,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2080153320"/>
-        <c:axId val="2080158792"/>
+        <c:axId val="2072905592"/>
+        <c:axId val="2072911064"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2080153320"/>
+        <c:axId val="2072905592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2256,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080158792"/>
+        <c:crossAx val="2072911064"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2264,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2080158792"/>
+        <c:axId val="2072911064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2294,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2080153320"/>
+        <c:crossAx val="2072905592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4446,8 +4446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4461,12 +4461,12 @@
     <col min="7" max="7" width="17.1640625" customWidth="1"/>
     <col min="8" max="8" width="8" customWidth="1"/>
     <col min="9" max="9" width="8.83203125" customWidth="1"/>
-    <col min="10" max="10" width="10.6640625" customWidth="1"/>
+    <col min="10" max="10" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="9.5" customWidth="1"/>
     <col min="12" max="12" width="9.6640625" customWidth="1"/>
     <col min="13" max="13" width="9.5" customWidth="1"/>
     <col min="14" max="14" width="9" customWidth="1"/>
-    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="15" max="15" width="11.1640625" customWidth="1"/>
     <col min="16" max="16" width="9.33203125" customWidth="1"/>
     <col min="17" max="17" width="10" customWidth="1"/>
   </cols>
@@ -4626,29 +4626,29 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5">
-        <v>6.1939299999999999</v>
+        <v>1043.54</v>
       </c>
       <c r="D5">
         <f t="shared" ref="D5:D14" si="0">C5/H5</f>
-        <v>0.51275528365770673</v>
+        <v>0.35895019262520639</v>
       </c>
       <c r="E5">
-        <v>1791617</v>
+        <v>127593456</v>
       </c>
       <c r="F5">
         <f t="shared" ref="F5:F14" si="1">E5/J5</f>
-        <v>0.53176490491779926</v>
+        <v>0.65292475450458798</v>
       </c>
       <c r="G5" s="1"/>
       <c r="H5">
-        <v>12.079700000000001</v>
+        <v>2907.2</v>
       </c>
       <c r="I5">
         <f t="shared" ref="I5:I14" si="2">H5/H5</f>
         <v>1</v>
       </c>
       <c r="J5">
-        <v>3369190</v>
+        <v>195418316</v>
       </c>
       <c r="K5">
         <f t="shared" ref="K5:K14" si="3">J5/J5</f>
@@ -4656,18 +4656,18 @@
       </c>
       <c r="L5" s="1"/>
       <c r="M5">
-        <v>11.9999</v>
+        <v>3171.94</v>
       </c>
       <c r="N5">
         <f t="shared" ref="N5:N14" si="4">M5/H5</f>
-        <v>0.99339387567572035</v>
+        <v>1.0910635663181067</v>
       </c>
       <c r="O5">
-        <v>3368972</v>
+        <v>195424000</v>
       </c>
       <c r="P5">
         <f t="shared" ref="P5:P14" si="5">O5/J5</f>
-        <v>0.9999352960207053</v>
+        <v>1.0000290863216732</v>
       </c>
       <c r="Q5" s="1"/>
       <c r="V5" s="1"/>
@@ -4679,29 +4679,29 @@
       </c>
       <c r="B6" s="1"/>
       <c r="C6">
-        <v>66.007900000000006</v>
+        <v>273.08300000000003</v>
       </c>
       <c r="D6">
         <f t="shared" si="0"/>
-        <v>0.47414018503620275</v>
+        <v>0.48609963971918035</v>
       </c>
       <c r="E6">
-        <v>18151922</v>
+        <v>78975357</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>0.44451111269088356</v>
+        <v>0.45748999317936045</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6">
-        <v>139.21600000000001</v>
+        <v>561.78399999999999</v>
       </c>
       <c r="I6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J6">
-        <v>40835699</v>
+        <v>172627507</v>
       </c>
       <c r="K6">
         <f t="shared" si="3"/>
@@ -4709,18 +4709,18 @@
       </c>
       <c r="L6" s="1"/>
       <c r="M6">
-        <v>150.69399999999999</v>
+        <v>611.64800000000002</v>
       </c>
       <c r="N6">
         <f t="shared" si="4"/>
-        <v>1.0824474198368002</v>
+        <v>1.0887600928470729</v>
       </c>
       <c r="O6">
-        <v>41122968</v>
+        <v>167845613</v>
       </c>
       <c r="P6">
         <f t="shared" si="5"/>
-        <v>1.0070347516274913</v>
+        <v>0.97229935087923158</v>
       </c>
       <c r="Q6" s="1"/>
       <c r="V6" s="1"/>
@@ -4728,33 +4728,33 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
-        <v>76.439499999999995</v>
+        <v>11026</v>
       </c>
       <c r="D7">
         <f t="shared" si="0"/>
-        <v>0.5389325624845771</v>
+        <v>0.54473324078236862</v>
       </c>
       <c r="E7">
-        <v>20233230</v>
+        <v>1307200935</v>
       </c>
       <c r="F7">
         <f t="shared" si="1"/>
-        <v>0.57395783782529497</v>
+        <v>0.69426964984561812</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7">
-        <v>141.83500000000001</v>
+        <v>20241.099999999999</v>
       </c>
       <c r="I7">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J7">
-        <v>35252119</v>
+        <v>1882843266</v>
       </c>
       <c r="K7">
         <f t="shared" si="3"/>
@@ -4762,18 +4762,18 @@
       </c>
       <c r="L7" s="1"/>
       <c r="M7">
-        <v>141.22399999999999</v>
+        <v>20471.7</v>
       </c>
       <c r="N7">
         <f t="shared" si="4"/>
-        <v>0.99569217753022865</v>
+        <v>1.0113926614660271</v>
       </c>
       <c r="O7">
-        <v>35311442</v>
+        <v>1876159147</v>
       </c>
       <c r="P7">
         <f t="shared" si="5"/>
-        <v>1.0016828208256077</v>
+        <v>0.99644998650673666</v>
       </c>
       <c r="Q7" s="1"/>
       <c r="V7" s="1"/>
@@ -4781,7 +4781,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -4838,29 +4838,29 @@
       </c>
       <c r="B9" s="1"/>
       <c r="C9">
-        <v>84.839600000000004</v>
+        <v>23838.400000000001</v>
       </c>
       <c r="D9">
         <f t="shared" si="0"/>
-        <v>0.5392256063456552</v>
+        <v>0.51545941457697708</v>
       </c>
       <c r="E9">
-        <v>10868888</v>
+        <v>961330178</v>
       </c>
       <c r="F9">
         <f t="shared" si="1"/>
-        <v>0.62945637145964783</v>
+        <v>0.66763969869878026</v>
       </c>
       <c r="G9" s="1"/>
       <c r="H9">
-        <v>157.33600000000001</v>
+        <v>46246.9</v>
       </c>
       <c r="I9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J9">
-        <v>17267103</v>
+        <v>1439893673</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -4868,18 +4868,18 @@
       </c>
       <c r="L9" s="1"/>
       <c r="M9">
-        <v>174.39099999999999</v>
+        <v>39431.599999999999</v>
       </c>
       <c r="N9">
         <f t="shared" si="4"/>
-        <v>1.108398586464636</v>
+        <v>0.85263228454231521</v>
       </c>
       <c r="O9">
-        <v>17173055</v>
+        <v>1228870019</v>
       </c>
       <c r="P9">
         <f t="shared" si="5"/>
-        <v>0.99455334227171754</v>
+        <v>0.85344497447486178</v>
       </c>
       <c r="Q9" s="1"/>
       <c r="V9" s="1"/>
@@ -4891,29 +4891,29 @@
       </c>
       <c r="B10" s="1"/>
       <c r="C10">
-        <v>321.34100000000001</v>
+        <v>6137.77</v>
       </c>
       <c r="D10">
         <f t="shared" si="0"/>
-        <v>0.58356245482644276</v>
+        <v>0.57130610421281913</v>
       </c>
       <c r="E10">
-        <v>45885384</v>
+        <v>962921287</v>
       </c>
       <c r="F10">
         <f t="shared" si="1"/>
-        <v>0.64567109402756917</v>
+        <v>0.66806626751168929</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10">
-        <v>550.654</v>
+        <v>10743.4</v>
       </c>
       <c r="I10">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J10">
-        <v>71066189</v>
+        <v>1441355946</v>
       </c>
       <c r="K10">
         <f t="shared" si="3"/>
@@ -4921,18 +4921,18 @@
       </c>
       <c r="L10" s="1"/>
       <c r="M10">
-        <v>560.10900000000004</v>
+        <v>9754.6200000000008</v>
       </c>
       <c r="N10">
         <f t="shared" si="4"/>
-        <v>1.0171704918151871</v>
+        <v>0.90796395926801576</v>
       </c>
       <c r="O10">
-        <v>68925003</v>
+        <v>1227905425</v>
       </c>
       <c r="P10">
         <f t="shared" si="5"/>
-        <v>0.96987053857636862</v>
+        <v>0.8519099174687832</v>
       </c>
       <c r="Q10" s="1"/>
       <c r="V10" s="1"/>
@@ -5213,11 +5213,11 @@
       <c r="B15" s="8"/>
       <c r="D15" s="2">
         <f>GEOMEAN(D5,D6,D8,D11,D12,D13,D9,D10,D14,D7)</f>
-        <v>0.51783447222358048</v>
+        <v>0.49816213095989281</v>
       </c>
       <c r="F15" s="2">
         <f>GEOMEAN(F5,F6,F8,F11,F12,F13,F9,F10,F14,F7)</f>
-        <v>0.25723765956874339</v>
+        <v>0.27089568306171985</v>
       </c>
       <c r="G15" s="8"/>
       <c r="I15" s="2">
@@ -5231,11 +5231,11 @@
       <c r="L15" s="8"/>
       <c r="N15" s="2">
         <f>GEOMEAN(N5,N6,N8,N11,N12,N13,N9,N10,N14+N7)</f>
-        <v>0.70886499265227876</v>
+        <v>0.68811682988637635</v>
       </c>
       <c r="P15" s="2">
         <f>GEOMEAN(P5,P6,P8,P11,P12,P13,P9,P10,P14,P7)</f>
-        <v>0.32145691828051831</v>
+        <v>0.31124162003461175</v>
       </c>
       <c r="Q15" s="8"/>
       <c r="S15" s="2">
@@ -5290,7 +5290,7 @@
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
@@ -5321,7 +5321,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
@@ -5352,7 +5352,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
@@ -5394,7 +5394,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1"/>
       <c r="G21" s="1"/>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="32" spans="1:27">
       <c r="B32" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -5493,7 +5493,7 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -5503,12 +5503,12 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="3:5">

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="0" windowWidth="24620" windowHeight="19560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="19560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -276,9 +276,6 @@
     <t>jacobi-1d M=10000, bsize = 4</t>
   </si>
   <si>
-    <t>fdtd-2d</t>
-  </si>
-  <si>
     <t>folding n = 50400, iterations = 10, WON'T WORK WITH BLOCK CYCLIC BECAUSE OF STRIDED ACCESSES</t>
   </si>
   <si>
@@ -294,9 +291,6 @@
     <t>jacobi-2d n = 400, epsilon = 0.05, iterations = 5</t>
   </si>
   <si>
-    <t>jacobi-2d</t>
-  </si>
-  <si>
     <t xml:space="preserve">fw </t>
   </si>
   <si>
@@ -316,6 +310,33 @@
   </si>
   <si>
     <t>fw N=64</t>
+  </si>
+  <si>
+    <t>fdtd2d - N=1000, M=1000</t>
+  </si>
+  <si>
+    <t>fdtdampl M=128, N=128, P=128</t>
+  </si>
+  <si>
+    <t>syr2k M=256 N=256</t>
+  </si>
+  <si>
+    <t>syrk M=128 N=128</t>
+  </si>
+  <si>
+    <t>lu N=256</t>
+  </si>
+  <si>
+    <t>mvt Dim=4000</t>
+  </si>
+  <si>
+    <t>trmm Dim=256</t>
+  </si>
+  <si>
+    <t>jacobi-2D</t>
+  </si>
+  <si>
+    <t>fdtd-2D</t>
   </si>
 </sst>
 </file>
@@ -401,8 +422,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="81">
+  <cellStyleXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -495,7 +518,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="81">
+  <cellStyles count="83">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -536,6 +559,7 @@
     <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -576,6 +600,7 @@
     <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -763,11 +788,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2071196328"/>
-        <c:axId val="2071193336"/>
+        <c:axId val="2063135016"/>
+        <c:axId val="2063137992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2071196328"/>
+        <c:axId val="2063135016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -776,7 +801,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071193336"/>
+        <c:crossAx val="2063137992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -784,7 +809,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2071193336"/>
+        <c:axId val="2063137992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -818,7 +843,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2071196328"/>
+        <c:crossAx val="2063135016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -973,11 +998,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2072723816"/>
-        <c:axId val="2072729512"/>
+        <c:axId val="2064340040"/>
+        <c:axId val="2064345736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2072723816"/>
+        <c:axId val="2064340040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,12 +1036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072729512"/>
+        <c:crossAx val="2064345736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2072729512"/>
+        <c:axId val="2064345736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1061,7 +1086,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072723816"/>
+        <c:crossAx val="2064340040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1192,11 +1217,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2072757992"/>
-        <c:axId val="2072763432"/>
+        <c:axId val="2064374216"/>
+        <c:axId val="2064379656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2072757992"/>
+        <c:axId val="2064374216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1225,12 +1250,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072763432"/>
+        <c:crossAx val="2064379656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2072763432"/>
+        <c:axId val="2064379656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1265,7 +1290,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072757992"/>
+        <c:crossAx val="2064374216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1312,9 +1337,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1325,7 +1350,7 @@
                   <c:v>fw </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jacobi-2d</c:v>
+                  <c:v>jacobi-2D</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>correlation</c:v>
@@ -1346,6 +1371,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1353,10 +1381,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$I$5:$I$15</c:f>
+              <c:f>'Data Collected at LTS'!$I$5:$I$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1388,6 +1416,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1403,9 +1434,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1416,7 +1447,7 @@
                   <c:v>fw </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jacobi-2d</c:v>
+                  <c:v>jacobi-2D</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>correlation</c:v>
@@ -1437,6 +1468,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1444,10 +1478,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$N$5:$N$15</c:f>
+              <c:f>'Data Collected at LTS'!$N$5:$N$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.091063566318107</c:v>
                 </c:pt>
@@ -1479,7 +1513,10 @@
                   <c:v>0.747877432925947</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.688116829886376</c:v>
+                  <c:v>0.101819376680275</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.554185617903178</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1494,11 +1531,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072799240"/>
-        <c:axId val="2072804712"/>
+        <c:axId val="2064415464"/>
+        <c:axId val="2064420936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072799240"/>
+        <c:axId val="2064415464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1526,7 +1563,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072804712"/>
+        <c:crossAx val="2064420936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1534,7 +1571,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072804712"/>
+        <c:axId val="2064420936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1569,7 +1606,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072799240"/>
+        <c:crossAx val="2064415464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1621,9 +1658,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1634,7 +1671,7 @@
                   <c:v>fw </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jacobi-2d</c:v>
+                  <c:v>jacobi-2D</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>correlation</c:v>
@@ -1655,6 +1692,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1662,10 +1702,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$K$5:$K$15</c:f>
+              <c:f>'Data Collected at LTS'!$K$5:$K$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1697,6 +1737,9 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1712,9 +1755,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1725,7 +1768,7 @@
                   <c:v>fw </c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jacobi-2d</c:v>
+                  <c:v>jacobi-2D</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>correlation</c:v>
@@ -1746,6 +1789,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="10">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="11">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1753,10 +1799,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$P$5:$P$15</c:f>
+              <c:f>'Data Collected at LTS'!$P$5:$P$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>1.000029086321673</c:v>
                 </c:pt>
@@ -1788,7 +1834,10 @@
                   <c:v>0.573686646473997</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.311241620034612</c:v>
+                  <c:v>0.0135468541455854</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.234070579157616</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1803,11 +1852,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072835240"/>
-        <c:axId val="2072840712"/>
+        <c:axId val="2064451464"/>
+        <c:axId val="2064456936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072835240"/>
+        <c:axId val="2064451464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1835,7 +1884,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072840712"/>
+        <c:crossAx val="2064456936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1843,7 +1892,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072840712"/>
+        <c:axId val="2064456936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1873,7 +1922,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072835240"/>
+        <c:crossAx val="2064451464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1925,9 +1974,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -1935,6 +1984,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1942,17 +1994,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$S$13:$S$15</c:f>
+              <c:f>'Data Collected at LTS'!$S$13:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1968,9 +2020,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -1978,6 +2030,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1985,17 +2040,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$X$13:$X$15</c:f>
+              <c:f>'Data Collected at LTS'!$X$13:$X$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.292318569503556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.764203375874846</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.472642399331168</c:v>
                 </c:pt>
               </c:numCache>
@@ -2011,11 +2066,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072870520"/>
-        <c:axId val="2072875976"/>
+        <c:axId val="2064486744"/>
+        <c:axId val="2064492200"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072870520"/>
+        <c:axId val="2064486744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2043,7 +2098,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072875976"/>
+        <c:crossAx val="2064492200"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2051,7 +2106,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072875976"/>
+        <c:axId val="2064492200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2086,7 +2141,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072870520"/>
+        <c:crossAx val="2064486744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2138,9 +2193,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2148,6 +2203,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2155,17 +2213,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$U$13:$U$15</c:f>
+              <c:f>'Data Collected at LTS'!$U$13:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2181,9 +2239,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$15</c:f>
+              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2191,6 +2249,9 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2198,17 +2259,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$Z$13:$Z$15</c:f>
+              <c:f>'Data Collected at LTS'!$Z$13:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0.0957998849562477</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83019560114575</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>0.282015324195239</c:v>
                 </c:pt>
               </c:numCache>
@@ -2224,11 +2285,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2072905592"/>
-        <c:axId val="2072911064"/>
+        <c:axId val="2064521816"/>
+        <c:axId val="2064527288"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2072905592"/>
+        <c:axId val="2064521816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2256,7 +2317,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072911064"/>
+        <c:crossAx val="2064527288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2264,7 +2325,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2072911064"/>
+        <c:axId val="2064527288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2294,7 +2355,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2072905592"/>
+        <c:crossAx val="2064521816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,15 +2537,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>736600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4446,8 +4507,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4728,7 +4789,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -4781,7 +4842,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -5206,91 +5267,121 @@
       </c>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15" spans="1:27" s="2" customFormat="1">
-      <c r="A15" s="2" t="s">
+    <row r="15" spans="1:27">
+      <c r="A15" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="6">
+        <v>4.3101200000000004</v>
+      </c>
+      <c r="D15" s="6">
+        <f>C15/H15</f>
+        <v>5.7222211158684325E-2</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1984428</v>
+      </c>
+      <c r="F15" s="6">
+        <f>E15/J15</f>
+        <v>9.827505008631358E-3</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="6">
+        <v>75.322500000000005</v>
+      </c>
+      <c r="I15" s="6">
+        <f>H15/H15</f>
+        <v>1</v>
+      </c>
+      <c r="J15" s="6">
+        <v>201925921</v>
+      </c>
+      <c r="K15" s="6">
+        <f>J15/J15</f>
+        <v>1</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="6">
+        <v>7.6692900000000002</v>
+      </c>
+      <c r="N15" s="6">
+        <f>M15/H15</f>
+        <v>0.10181937668027481</v>
+      </c>
+      <c r="O15" s="6">
+        <v>2735461</v>
+      </c>
+      <c r="P15" s="6">
+        <f>O15/J15</f>
+        <v>1.35468541455854E-2</v>
+      </c>
+      <c r="Q15" s="1"/>
+      <c r="R15" s="6"/>
+      <c r="S15" s="6"/>
+      <c r="T15" s="6"/>
+      <c r="U15" s="6"/>
+      <c r="V15" s="1"/>
+      <c r="W15" s="6"/>
+      <c r="X15" s="6"/>
+      <c r="Y15" s="6"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="1"/>
+    </row>
+    <row r="16" spans="1:27" s="2" customFormat="1">
+      <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="D15" s="2">
-        <f>GEOMEAN(D5,D6,D8,D11,D12,D13,D9,D10,D14,D7)</f>
-        <v>0.49816213095989281</v>
-      </c>
-      <c r="F15" s="2">
-        <f>GEOMEAN(F5,F6,F8,F11,F12,F13,F9,F10,F14,F7)</f>
-        <v>0.27089568306171985</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="I15" s="2">
-        <f>GEOMEAN(I5,I6,I8,I11,I12,I23,I9,I10,I13,I14,I7)</f>
+      <c r="B16" s="8"/>
+      <c r="D16" s="2">
+        <f>GEOMEAN(D5,D6,D8,D11,D12,D13,D9,D10,D14,D7,D15)</f>
+        <v>0.4091982753111279</v>
+      </c>
+      <c r="F16" s="2">
+        <f>GEOMEAN(F5,F6,F8,F11,F12,F13,F9,F10,F14,F7,F15)</f>
+        <v>0.20038276927162227</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="I16" s="2">
+        <f>GEOMEAN(I5,I6,I8,I11,I12,I23,I9,I10,I13,I14,I7,I15)</f>
         <v>1</v>
       </c>
-      <c r="K15" s="2">
-        <f>GEOMEAN(K5,K6,K8,K11,K12,K13,K9,K10,K14,K7)</f>
+      <c r="K16" s="2">
+        <f>GEOMEAN(K5,K6,K8,K11,K12,K13,K9,K10,K14,K7,K15)</f>
         <v>1</v>
       </c>
-      <c r="L15" s="8"/>
-      <c r="N15" s="2">
-        <f>GEOMEAN(N5,N6,N8,N11,N12,N13,N9,N10,N14+N7)</f>
-        <v>0.68811682988637635</v>
-      </c>
-      <c r="P15" s="2">
-        <f>GEOMEAN(P5,P6,P8,P11,P12,P13,P9,P10,P14,P7)</f>
-        <v>0.31124162003461175</v>
-      </c>
-      <c r="Q15" s="8"/>
-      <c r="S15" s="2">
+      <c r="L16" s="8"/>
+      <c r="N16" s="2">
+        <f>GEOMEAN(N5,N6,N8,N11,N12,N13,N9,N10,N14,N7,N15)</f>
+        <v>0.55418561790317755</v>
+      </c>
+      <c r="P16" s="2">
+        <f>GEOMEAN(P5,P6,P8,P11,P12,P13,P9,P10,P14,P7,P15)</f>
+        <v>0.23407057915761645</v>
+      </c>
+      <c r="Q16" s="8"/>
+      <c r="S16" s="2">
         <f>GEOMEAN(S13,S14)</f>
         <v>1</v>
       </c>
-      <c r="U15" s="2">
+      <c r="U16" s="2">
         <f>GEOMEAN(U13,U14)</f>
         <v>1</v>
       </c>
-      <c r="V15" s="8"/>
-      <c r="X15" s="2">
+      <c r="V16" s="8"/>
+      <c r="X16" s="2">
         <f>GEOMEAN(X13,X14)</f>
         <v>0.47264239933116792</v>
       </c>
-      <c r="Z15" s="2">
+      <c r="Z16" s="2">
         <f>GEOMEAN(Z13,Z14)</f>
         <v>0.28201532419523906</v>
       </c>
-      <c r="AA15" s="8"/>
-    </row>
-    <row r="16" spans="1:27">
-      <c r="A16" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="6"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="6"/>
-      <c r="U16" s="6"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="6"/>
-      <c r="X16" s="6"/>
-      <c r="Y16" s="6"/>
-      <c r="Z16" s="6"/>
-      <c r="AA16" s="1"/>
+      <c r="AA16" s="8"/>
     </row>
     <row r="17" spans="1:27">
       <c r="A17" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="6"/>
@@ -5321,7 +5412,7 @@
     </row>
     <row r="18" spans="1:27">
       <c r="A18" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="6"/>
@@ -5352,7 +5443,7 @@
     </row>
     <row r="19" spans="1:27">
       <c r="A19" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="6"/>
@@ -5394,7 +5485,7 @@
     </row>
     <row r="21" spans="1:27">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B21" s="1"/>
       <c r="G21" s="1"/>
@@ -5463,17 +5554,17 @@
     </row>
     <row r="30" spans="1:27">
       <c r="B30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="B31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="B32" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="2:2">
@@ -5483,7 +5574,7 @@
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" spans="2:2">
@@ -5493,7 +5584,7 @@
     </row>
     <row r="36" spans="2:2">
       <c r="B36" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="2:2">
@@ -5503,12 +5594,47 @@
     </row>
     <row r="38" spans="2:2">
       <c r="B38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="2:2">
       <c r="B39" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2">
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2">
+      <c r="B44" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2">
+      <c r="B45" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="3:5">

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24760" windowHeight="19560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="160" yWindow="0" windowWidth="24720" windowHeight="12780" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Data Collected at LTS" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -337,18 +338,119 @@
   </si>
   <si>
     <t>fdtd-2D</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>2mm</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>128 x 128</t>
+  </si>
+  <si>
+    <t>2 matrix multiplications (D=A*B; E=C*D)</t>
+  </si>
+  <si>
+    <t>64 x 64</t>
+  </si>
+  <si>
+    <t>Floyd-Warshall all-pairs shortest path algorithm</t>
+  </si>
+  <si>
+    <t>256 x 256</t>
+  </si>
+  <si>
+    <t>Triangular matrix multiply</t>
+  </si>
+  <si>
+    <t>512 x 512</t>
+  </si>
+  <si>
+    <t>Correlation computation</t>
+  </si>
+  <si>
+    <t>Covariance computation</t>
+  </si>
+  <si>
+    <t>Cholesky decomposition</t>
+  </si>
+  <si>
+    <t>LU decomposition</t>
+  </si>
+  <si>
+    <t>Matrix vector product and transpose</t>
+  </si>
+  <si>
+    <t>Symmetric rank-k operations</t>
+  </si>
+  <si>
+    <t>Symmetric rank-2k operations</t>
+  </si>
+  <si>
+    <t>fdtd-2d</t>
+  </si>
+  <si>
+    <t>1000 x 1000</t>
+  </si>
+  <si>
+    <t>2D Finite Different Time Domain Kernel</t>
+  </si>
+  <si>
+    <t>fdtd-ampl</t>
+  </si>
+  <si>
+    <t>128 x 128 x 128</t>
+  </si>
+  <si>
+    <t>FDTD using Anisotropic Perfectly Matched Layer</t>
+  </si>
+  <si>
+    <t>jacobi1D</t>
+  </si>
+  <si>
+    <t>1D Jacobi stencil computation</t>
+  </si>
+  <si>
+    <t>jacobi2D</t>
+  </si>
+  <si>
+    <t>400 x 400</t>
+  </si>
+  <si>
+    <t>2D Jacobi stencil computation</t>
+  </si>
+  <si>
+    <t>9-point stencil computation</t>
+  </si>
+  <si>
+    <t>100000, 100003</t>
+  </si>
+  <si>
+    <t>Computation of pascal triangle rows</t>
+  </si>
+  <si>
+    <t>Strided sum of consecutive array elements</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -379,6 +481,11 @@
       <sz val="12"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="6">
@@ -422,7 +529,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="83">
+  <cellStyleXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -506,8 +613,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -517,8 +632,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="83">
+  <cellStyles count="91">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -560,6 +679,10 @@
     <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -601,6 +724,10 @@
     <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -788,11 +915,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2063135016"/>
-        <c:axId val="2063137992"/>
+        <c:axId val="2048668920"/>
+        <c:axId val="2048671944"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2063135016"/>
+        <c:axId val="2048668920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -801,7 +928,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063137992"/>
+        <c:crossAx val="2048671944"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -809,7 +936,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2063137992"/>
+        <c:axId val="2048671944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -843,7 +970,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2063135016"/>
+        <c:crossAx val="2048668920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -998,11 +1125,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064340040"/>
-        <c:axId val="2064345736"/>
+        <c:axId val="2046968936"/>
+        <c:axId val="2046963240"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064340040"/>
+        <c:axId val="2046968936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1036,12 +1163,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064345736"/>
+        <c:crossAx val="2046963240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064345736"/>
+        <c:axId val="2046963240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1086,7 +1213,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064340040"/>
+        <c:crossAx val="2046968936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1217,11 +1344,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2064374216"/>
-        <c:axId val="2064379656"/>
+        <c:axId val="2046934504"/>
+        <c:axId val="2046929064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2064374216"/>
+        <c:axId val="2046934504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1250,12 +1377,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064379656"/>
+        <c:crossAx val="2046929064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2064379656"/>
+        <c:axId val="2046929064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1290,7 +1417,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064374216"/>
+        <c:crossAx val="2046934504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1362,16 +1489,16 @@
                   <c:v>stencil9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>folding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>pascal</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>jacobi-1D</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>fdtd-2D</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>geometric mean</c:v>
@@ -1459,16 +1586,16 @@
                   <c:v>stencil9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>folding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>pascal</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>jacobi-1D</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>fdtd-2D</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>geometric mean</c:v>
@@ -1504,16 +1631,16 @@
                   <c:v>0.314858472750294</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.101819376680275</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.454484923125819</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.34703467892137</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.747877432925947</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.101819376680275</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.554185617903178</c:v>
@@ -1531,11 +1658,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064415464"/>
-        <c:axId val="2064420936"/>
+        <c:axId val="2046893112"/>
+        <c:axId val="2046887624"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064415464"/>
+        <c:axId val="2046893112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1563,7 +1690,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064420936"/>
+        <c:crossAx val="2046887624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1571,7 +1698,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064420936"/>
+        <c:axId val="2046887624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1720,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> to Cyclic</a:t>
+                  <a:t> to Cyclic Distribution</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -1606,7 +1733,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064415464"/>
+        <c:crossAx val="2046893112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1683,16 +1810,16 @@
                   <c:v>stencil9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>folding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>pascal</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>jacobi-1D</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>fdtd-2D</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>geometric mean</c:v>
@@ -1780,16 +1907,16 @@
                   <c:v>stencil9</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>fdtd-2D</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>folding</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>pascal</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>jacobi-1D</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>fdtd-2D</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>geometric mean</c:v>
@@ -1825,16 +1952,16 @@
                   <c:v>0.0509739781503888</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>0.0135468541455854</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.0654980503155921</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>0.0905526362801929</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.573686646473997</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.0135468541455854</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0.234070579157616</c:v>
@@ -1852,11 +1979,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064451464"/>
-        <c:axId val="2064456936"/>
+        <c:axId val="2046857352"/>
+        <c:axId val="2046851864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064451464"/>
+        <c:axId val="2046857352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1884,7 +2011,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064456936"/>
+        <c:crossAx val="2046851864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1892,7 +2019,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064456936"/>
+        <c:axId val="2046851864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1910,7 +2037,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Message Count Normalized to Cyclic</a:t>
+                  <a:t>Message Count Normalized to Cyclic Distribution</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1922,7 +2049,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064451464"/>
+        <c:crossAx val="2046857352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1974,9 +2101,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -1984,9 +2111,6 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fdtd-2D</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1994,17 +2118,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$S$13:$S$16</c:f>
+              <c:f>'Data Collected at LTS'!$S$14:$S$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2020,9 +2144,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2030,9 +2154,6 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fdtd-2D</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2040,17 +2161,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$X$13:$X$16</c:f>
+              <c:f>'Data Collected at LTS'!$X$14:$X$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.292318569503556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.764203375874846</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.472642399331168</c:v>
                 </c:pt>
               </c:numCache>
@@ -2066,11 +2187,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064486744"/>
-        <c:axId val="2064492200"/>
+        <c:axId val="2046822056"/>
+        <c:axId val="2049240744"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064486744"/>
+        <c:axId val="2046822056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2098,7 +2219,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064492200"/>
+        <c:crossAx val="2049240744"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2106,7 +2227,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064492200"/>
+        <c:axId val="2049240744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2128,7 +2249,7 @@
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Normalized to Block Cyclic</a:t>
+                  <a:t> Normalized to Block Cyclic Distribution</a:t>
                 </a:r>
                 <a:endParaRPr lang="en-US"/>
               </a:p>
@@ -2141,7 +2262,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064486744"/>
+        <c:crossAx val="2046822056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2193,9 +2314,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2203,9 +2324,6 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fdtd-2D</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2213,17 +2331,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$U$13:$U$16</c:f>
+              <c:f>'Data Collected at LTS'!$U$14:$U$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2239,9 +2357,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$13:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
               <c:strCache>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2249,9 +2367,6 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>fdtd-2D</c:v>
-                </c:pt>
-                <c:pt idx="3">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2259,17 +2374,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$Z$13:$Z$16</c:f>
+              <c:f>'Data Collected at LTS'!$Z$14:$Z$16</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
+                <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>0.0957998849562477</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83019560114575</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="2">
                   <c:v>0.282015324195239</c:v>
                 </c:pt>
               </c:numCache>
@@ -2285,11 +2400,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2064521816"/>
-        <c:axId val="2064527288"/>
+        <c:axId val="2049270456"/>
+        <c:axId val="2049275928"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2064521816"/>
+        <c:axId val="2049270456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2317,7 +2432,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064527288"/>
+        <c:crossAx val="2049275928"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2325,7 +2440,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2064527288"/>
+        <c:axId val="2049275928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2343,7 +2458,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Message Count Normalized to Block Cyclic</a:t>
+                  <a:t>Message Count Normalized to Block Cyclic Distribution</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -2355,7 +2470,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2064521816"/>
+        <c:crossAx val="2049270456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2476,16 +2591,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>127000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>685800</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2506,16 +2621,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2537,15 +2652,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>63500</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>787400</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4507,8 +4622,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4690,14 +4805,14 @@
         <v>1043.54</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D14" si="0">C5/H5</f>
+        <f t="shared" ref="D5:D15" si="0">C5/H5</f>
         <v>0.35895019262520639</v>
       </c>
       <c r="E5">
         <v>127593456</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F14" si="1">E5/J5</f>
+        <f t="shared" ref="F5:F15" si="1">E5/J5</f>
         <v>0.65292475450458798</v>
       </c>
       <c r="G5" s="1"/>
@@ -4705,14 +4820,14 @@
         <v>2907.2</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I14" si="2">H5/H5</f>
+        <f t="shared" ref="I5:I15" si="2">H5/H5</f>
         <v>1</v>
       </c>
       <c r="J5">
         <v>195418316</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K14" si="3">J5/J5</f>
+        <f t="shared" ref="K5:K15" si="3">J5/J5</f>
         <v>1</v>
       </c>
       <c r="L5" s="1"/>
@@ -4720,14 +4835,14 @@
         <v>3171.94</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N14" si="4">M5/H5</f>
+        <f t="shared" ref="N5:N15" si="4">M5/H5</f>
         <v>1.0910635663181067</v>
       </c>
       <c r="O5">
         <v>195424000</v>
       </c>
       <c r="P5">
-        <f t="shared" ref="P5:P14" si="5">O5/J5</f>
+        <f t="shared" ref="P5:P15" si="5">O5/J5</f>
         <v>1.0000290863216732</v>
       </c>
       <c r="Q5" s="1"/>
@@ -5054,86 +5169,94 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6">
+        <v>4.3101200000000004</v>
+      </c>
+      <c r="D12" s="6">
+        <f>C12/H12</f>
+        <v>5.7222211158684325E-2</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1984428</v>
+      </c>
+      <c r="F12" s="6">
+        <f>E12/J12</f>
+        <v>9.827505008631358E-3</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="6">
+        <v>75.322500000000005</v>
+      </c>
+      <c r="I12" s="6">
+        <f>H12/H12</f>
+        <v>1</v>
+      </c>
+      <c r="J12" s="6">
+        <v>201925921</v>
+      </c>
+      <c r="K12" s="6">
+        <f>J12/J12</f>
+        <v>1</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="6">
+        <v>7.6692900000000002</v>
+      </c>
+      <c r="N12" s="6">
+        <f>M12/H12</f>
+        <v>0.10181937668027481</v>
+      </c>
+      <c r="O12" s="6">
+        <v>2735461</v>
+      </c>
+      <c r="P12" s="6">
+        <f>O12/J12</f>
+        <v>1.35468541455854E-2</v>
+      </c>
+      <c r="Q12" s="1"/>
+      <c r="R12" s="6"/>
+      <c r="S12" s="6"/>
+      <c r="T12" s="6"/>
+      <c r="U12" s="6"/>
+      <c r="V12" s="1"/>
+      <c r="W12" s="6"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="6"/>
+      <c r="Z12" s="6"/>
+      <c r="AA12" s="1"/>
+    </row>
+    <row r="13" spans="1:27">
+      <c r="A13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="6">
         <v>5.6093000000000002</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D13" s="6">
         <f t="shared" si="0"/>
         <v>4.4569544316872589</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E13" s="6">
         <v>3562817</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F13" s="6">
         <f t="shared" si="1"/>
         <v>1.0637624430471209</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="6">
-        <v>1.2585500000000001</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>3349260</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="6">
-        <v>0.57199199999999994</v>
-      </c>
-      <c r="N12" s="6">
-        <f t="shared" si="4"/>
-        <v>0.45448492312581934</v>
-      </c>
-      <c r="O12" s="6">
-        <v>219370</v>
-      </c>
-      <c r="P12" s="6">
-        <f t="shared" si="5"/>
-        <v>6.5498050315592096E-2</v>
-      </c>
-      <c r="Q12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="AA12" s="1"/>
-    </row>
-    <row r="13" spans="1:27">
-      <c r="A13" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" s="1"/>
-      <c r="C13" s="6">
-        <v>6.6540000000000002E-2</v>
-      </c>
-      <c r="D13" s="6">
-        <f t="shared" si="0"/>
-        <v>0.16838407968256539</v>
-      </c>
-      <c r="E13" s="6">
-        <v>29527</v>
-      </c>
-      <c r="F13" s="6">
-        <f t="shared" si="1"/>
-        <v>4.5473446230233291E-2</v>
-      </c>
       <c r="G13" s="1"/>
       <c r="H13" s="6">
-        <v>0.39516800000000002</v>
+        <v>1.2585500000000001</v>
       </c>
       <c r="I13" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J13" s="6">
-        <v>649324</v>
+        <v>3349260</v>
       </c>
       <c r="K13" s="6">
         <f t="shared" si="3"/>
@@ -5141,80 +5264,52 @@
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="6">
-        <v>0.13713700000000001</v>
+        <v>0.57199199999999994</v>
       </c>
       <c r="N13" s="6">
         <f t="shared" si="4"/>
-        <v>0.34703467892137013</v>
+        <v>0.45448492312581934</v>
       </c>
       <c r="O13" s="6">
-        <v>58798</v>
+        <v>219370</v>
       </c>
       <c r="P13" s="6">
         <f t="shared" si="5"/>
-        <v>9.0552636280192944E-2</v>
+        <v>6.5498050315592096E-2</v>
       </c>
       <c r="Q13" s="1"/>
-      <c r="R13" s="6">
-        <v>0.64637699999999998</v>
-      </c>
-      <c r="S13" s="6">
-        <f>R13/R13</f>
-        <v>1</v>
-      </c>
-      <c r="T13" s="6">
-        <v>982235</v>
-      </c>
-      <c r="U13" s="6">
-        <f>T13/T13</f>
-        <v>1</v>
-      </c>
       <c r="V13" s="1"/>
-      <c r="W13" s="6">
-        <v>0.188948</v>
-      </c>
-      <c r="X13" s="6">
-        <f>W13/R13</f>
-        <v>0.292318569503556</v>
-      </c>
-      <c r="Y13" s="6">
-        <v>94098</v>
-      </c>
-      <c r="Z13" s="6">
-        <f>Y13/T13</f>
-        <v>9.5799884956247736E-2</v>
-      </c>
       <c r="AA13" s="1"/>
     </row>
     <row r="14" spans="1:27">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="6">
-        <v>2.40943</v>
+        <v>6.6540000000000002E-2</v>
       </c>
       <c r="D14" s="6">
         <f t="shared" si="0"/>
-        <v>0.37459635855953055</v>
+        <v>0.16838407968256539</v>
       </c>
       <c r="E14" s="6">
-        <v>1177164</v>
+        <v>29527</v>
       </c>
       <c r="F14" s="6">
         <f t="shared" si="1"/>
-        <v>0.29984968848760535</v>
+        <v>4.5473446230233291E-2</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="6">
-        <v>6.4320700000000004</v>
+        <v>0.39516800000000002</v>
       </c>
       <c r="I14" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J14" s="6">
-        <v>3925847</v>
+        <v>649324</v>
       </c>
       <c r="K14" s="6">
         <f t="shared" si="3"/>
@@ -5222,29 +5317,29 @@
       </c>
       <c r="L14" s="1"/>
       <c r="M14" s="6">
-        <v>4.8103999999999996</v>
+        <v>0.13713700000000001</v>
       </c>
       <c r="N14" s="6">
         <f t="shared" si="4"/>
-        <v>0.74787743292594755</v>
+        <v>0.34703467892137013</v>
       </c>
       <c r="O14" s="6">
-        <v>2252206</v>
+        <v>58798</v>
       </c>
       <c r="P14" s="6">
         <f t="shared" si="5"/>
-        <v>0.57368664647399659</v>
+        <v>9.0552636280192944E-2</v>
       </c>
       <c r="Q14" s="1"/>
       <c r="R14" s="6">
-        <v>11.6592</v>
+        <v>0.64637699999999998</v>
       </c>
       <c r="S14" s="6">
         <f>R14/R14</f>
         <v>1</v>
       </c>
       <c r="T14" s="6">
-        <v>15657168</v>
+        <v>982235</v>
       </c>
       <c r="U14" s="6">
         <f>T14/T14</f>
@@ -5252,80 +5347,100 @@
       </c>
       <c r="V14" s="1"/>
       <c r="W14" s="6">
-        <v>8.91</v>
+        <v>0.188948</v>
       </c>
       <c r="X14" s="6">
         <f>W14/R14</f>
-        <v>0.76420337587484566</v>
+        <v>0.292318569503556</v>
       </c>
       <c r="Y14" s="6">
-        <v>12998512</v>
+        <v>94098</v>
       </c>
       <c r="Z14" s="6">
         <f>Y14/T14</f>
-        <v>0.83019560114574997</v>
+        <v>9.5799884956247736E-2</v>
       </c>
       <c r="AA14" s="1"/>
     </row>
     <row r="15" spans="1:27">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="6">
-        <v>4.3101200000000004</v>
+        <v>2.40943</v>
       </c>
       <c r="D15" s="6">
-        <f>C15/H15</f>
-        <v>5.7222211158684325E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.37459635855953055</v>
       </c>
       <c r="E15" s="6">
-        <v>1984428</v>
+        <v>1177164</v>
       </c>
       <c r="F15" s="6">
-        <f>E15/J15</f>
-        <v>9.827505008631358E-3</v>
+        <f t="shared" si="1"/>
+        <v>0.29984968848760535</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="6">
-        <v>75.322500000000005</v>
+        <v>6.4320700000000004</v>
       </c>
       <c r="I15" s="6">
-        <f>H15/H15</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="J15" s="6">
-        <v>201925921</v>
+        <v>3925847</v>
       </c>
       <c r="K15" s="6">
-        <f>J15/J15</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="L15" s="1"/>
       <c r="M15" s="6">
-        <v>7.6692900000000002</v>
+        <v>4.8103999999999996</v>
       </c>
       <c r="N15" s="6">
-        <f>M15/H15</f>
-        <v>0.10181937668027481</v>
+        <f t="shared" si="4"/>
+        <v>0.74787743292594755</v>
       </c>
       <c r="O15" s="6">
-        <v>2735461</v>
+        <v>2252206</v>
       </c>
       <c r="P15" s="6">
-        <f>O15/J15</f>
-        <v>1.35468541455854E-2</v>
+        <f t="shared" si="5"/>
+        <v>0.57368664647399659</v>
       </c>
       <c r="Q15" s="1"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="6"/>
-      <c r="T15" s="6"/>
-      <c r="U15" s="6"/>
+      <c r="R15" s="6">
+        <v>11.6592</v>
+      </c>
+      <c r="S15" s="6">
+        <f>R15/R15</f>
+        <v>1</v>
+      </c>
+      <c r="T15" s="6">
+        <v>15657168</v>
+      </c>
+      <c r="U15" s="6">
+        <f>T15/T15</f>
+        <v>1</v>
+      </c>
       <c r="V15" s="1"/>
-      <c r="W15" s="6"/>
-      <c r="X15" s="6"/>
-      <c r="Y15" s="6"/>
-      <c r="Z15" s="6"/>
+      <c r="W15" s="6">
+        <v>8.91</v>
+      </c>
+      <c r="X15" s="6">
+        <f>W15/R15</f>
+        <v>0.76420337587484566</v>
+      </c>
+      <c r="Y15" s="6">
+        <v>12998512</v>
+      </c>
+      <c r="Z15" s="6">
+        <f>Y15/T15</f>
+        <v>0.83019560114574997</v>
+      </c>
       <c r="AA15" s="1"/>
     </row>
     <row r="16" spans="1:27" s="2" customFormat="1">
@@ -5334,47 +5449,47 @@
       </c>
       <c r="B16" s="8"/>
       <c r="D16" s="2">
-        <f>GEOMEAN(D5,D6,D8,D11,D12,D13,D9,D10,D14,D7,D15)</f>
+        <f>GEOMEAN(D5,D6,D8,D11,D13,D14,D9,D10,D15,D7,D12)</f>
         <v>0.4091982753111279</v>
       </c>
       <c r="F16" s="2">
-        <f>GEOMEAN(F5,F6,F8,F11,F12,F13,F9,F10,F14,F7,F15)</f>
+        <f>GEOMEAN(F5,F6,F8,F11,F13,F14,F9,F10,F15,F7,F12)</f>
         <v>0.20038276927162227</v>
       </c>
       <c r="G16" s="8"/>
       <c r="I16" s="2">
-        <f>GEOMEAN(I5,I6,I8,I11,I12,I23,I9,I10,I13,I14,I7,I15)</f>
+        <f>GEOMEAN(I5,I6,I8,I11,I13,I23,I9,I10,I14,I15,I7,I12)</f>
         <v>1</v>
       </c>
       <c r="K16" s="2">
-        <f>GEOMEAN(K5,K6,K8,K11,K12,K13,K9,K10,K14,K7,K15)</f>
+        <f>GEOMEAN(K5,K6,K8,K11,K13,K14,K9,K10,K15,K7,K12)</f>
         <v>1</v>
       </c>
       <c r="L16" s="8"/>
       <c r="N16" s="2">
-        <f>GEOMEAN(N5,N6,N8,N11,N12,N13,N9,N10,N14,N7,N15)</f>
+        <f>GEOMEAN(N5,N6,N8,N11,N13,N14,N9,N10,N15,N7,N12)</f>
         <v>0.55418561790317755</v>
       </c>
       <c r="P16" s="2">
-        <f>GEOMEAN(P5,P6,P8,P11,P12,P13,P9,P10,P14,P7,P15)</f>
+        <f>GEOMEAN(P5,P6,P8,P11,P13,P14,P9,P10,P15,P7,P12)</f>
         <v>0.23407057915761645</v>
       </c>
       <c r="Q16" s="8"/>
       <c r="S16" s="2">
-        <f>GEOMEAN(S13,S14)</f>
+        <f>GEOMEAN(S14,S15)</f>
         <v>1</v>
       </c>
       <c r="U16" s="2">
-        <f>GEOMEAN(U13,U14)</f>
+        <f>GEOMEAN(U14,U15)</f>
         <v>1</v>
       </c>
       <c r="V16" s="8"/>
       <c r="X16" s="2">
-        <f>GEOMEAN(X13,X14)</f>
+        <f>GEOMEAN(X14,X15)</f>
         <v>0.47264239933116792</v>
       </c>
       <c r="Z16" s="2">
-        <f>GEOMEAN(Z13,Z14)</f>
+        <f>GEOMEAN(Z14,Z15)</f>
         <v>0.28201532419523906</v>
       </c>
       <c r="AA16" s="8"/>
@@ -6025,4 +6140,281 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B5:E22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="9.83203125" customWidth="1"/>
+    <col min="3" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:5">
+      <c r="B5" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C6">
+        <v>221</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+      <c r="E6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>153</v>
+      </c>
+      <c r="D7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E7" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8">
+        <v>133</v>
+      </c>
+      <c r="D8" t="s">
+        <v>113</v>
+      </c>
+      <c r="E8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>235</v>
+      </c>
+      <c r="D9" t="s">
+        <v>115</v>
+      </c>
+      <c r="E9" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10">
+        <v>201</v>
+      </c>
+      <c r="D10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11">
+        <v>182</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13">
+        <v>185</v>
+      </c>
+      <c r="D13" s="10">
+        <v>4000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14">
+        <v>154</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15">
+        <v>160</v>
+      </c>
+      <c r="D15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
+      <c r="C16">
+        <v>201</v>
+      </c>
+      <c r="D16" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" t="s">
+        <v>126</v>
+      </c>
+      <c r="C17">
+        <v>333</v>
+      </c>
+      <c r="D17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E17" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" t="s">
+        <v>129</v>
+      </c>
+      <c r="C18">
+        <v>138</v>
+      </c>
+      <c r="D18" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19">
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>132</v>
+      </c>
+      <c r="E19" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20">
+        <v>142</v>
+      </c>
+      <c r="D20" t="s">
+        <v>132</v>
+      </c>
+      <c r="E20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21">
+        <v>126</v>
+      </c>
+      <c r="D21" t="s">
+        <v>135</v>
+      </c>
+      <c r="E21" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5">
+      <c r="B22" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22">
+        <v>139</v>
+      </c>
+      <c r="D22" s="10">
+        <v>50400</v>
+      </c>
+      <c r="E22" t="s">
+        <v>137</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="160" yWindow="0" windowWidth="24720" windowHeight="12780" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12760" yWindow="0" windowWidth="12160" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -450,7 +450,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -529,8 +528,120 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="91">
+  <cellStyleXfs count="203">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -637,7 +748,7 @@
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="91">
+  <cellStyles count="203">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -683,6 +794,62 @@
     <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -728,6 +895,62 @@
     <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -915,11 +1138,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2048668920"/>
-        <c:axId val="2048671944"/>
+        <c:axId val="2098948984"/>
+        <c:axId val="2098951960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2048668920"/>
+        <c:axId val="2098948984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048671944"/>
+        <c:crossAx val="2098951960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -936,7 +1159,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2048671944"/>
+        <c:axId val="2098951960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -970,7 +1193,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2048668920"/>
+        <c:crossAx val="2098948984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1125,11 +1348,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2046968936"/>
-        <c:axId val="2046963240"/>
+        <c:axId val="2087866840"/>
+        <c:axId val="2087861144"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2046968936"/>
+        <c:axId val="2087866840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,12 +1386,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046963240"/>
+        <c:crossAx val="2087861144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2046963240"/>
+        <c:axId val="2087861144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1213,7 +1436,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046968936"/>
+        <c:crossAx val="2087866840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1344,11 +1567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2046934504"/>
-        <c:axId val="2046929064"/>
+        <c:axId val="2087832696"/>
+        <c:axId val="2087827256"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2046934504"/>
+        <c:axId val="2087832696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1377,12 +1600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046929064"/>
+        <c:crossAx val="2087827256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2046929064"/>
+        <c:axId val="2087827256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1417,7 +1640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046934504"/>
+        <c:crossAx val="2087832696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1658,11 +1881,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046893112"/>
-        <c:axId val="2046887624"/>
+        <c:axId val="2099031672"/>
+        <c:axId val="2099037144"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046893112"/>
+        <c:axId val="2099031672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1690,7 +1913,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046887624"/>
+        <c:crossAx val="2099037144"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1698,7 +1921,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046887624"/>
+        <c:axId val="2099037144"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1733,7 +1956,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046893112"/>
+        <c:crossAx val="2099031672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1979,11 +2202,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046857352"/>
-        <c:axId val="2046851864"/>
+        <c:axId val="2099067896"/>
+        <c:axId val="2099073368"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046857352"/>
+        <c:axId val="2099067896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2011,7 +2234,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046851864"/>
+        <c:crossAx val="2099073368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2019,7 +2242,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2046851864"/>
+        <c:axId val="2099073368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2049,7 +2272,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046857352"/>
+        <c:crossAx val="2099067896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2187,11 +2410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2046822056"/>
-        <c:axId val="2049240744"/>
+        <c:axId val="2099103208"/>
+        <c:axId val="2099108664"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2046822056"/>
+        <c:axId val="2099103208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2219,7 +2442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049240744"/>
+        <c:crossAx val="2099108664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2227,7 +2450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049240744"/>
+        <c:axId val="2099108664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2262,7 +2485,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2046822056"/>
+        <c:crossAx val="2099103208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2400,11 +2623,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2049270456"/>
-        <c:axId val="2049275928"/>
+        <c:axId val="2099138296"/>
+        <c:axId val="2099143752"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2049270456"/>
+        <c:axId val="2099138296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2432,7 +2655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049275928"/>
+        <c:crossAx val="2099143752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2440,7 +2663,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2049275928"/>
+        <c:axId val="2099143752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2470,7 +2693,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2049270456"/>
+        <c:crossAx val="2099138296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2651,16 +2874,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>48</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>787400</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>63500</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2682,15 +2905,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>158750</xdr:rowOff>
+      <xdr:colOff>838200</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1079500</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>203200</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4622,8 +4845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="Z16" sqref="Z16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4895,7 +5118,7 @@
         <v>167845613</v>
       </c>
       <c r="P6">
-        <f t="shared" si="5"/>
+        <f>O6/J6</f>
         <v>0.97229935087923158</v>
       </c>
       <c r="Q6" s="1"/>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="12760" yWindow="0" windowWidth="12160" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="-40" yWindow="0" windowWidth="24820" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="139">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -280,9 +280,6 @@
     <t>folding n = 50400, iterations = 10, WON'T WORK WITH BLOCK CYCLIC BECAUSE OF STRIDED ACCESSES</t>
   </si>
   <si>
-    <t>fdtd-apml</t>
-  </si>
-  <si>
     <t>syr2k</t>
   </si>
   <si>
@@ -316,22 +313,13 @@
     <t>fdtd2d - N=1000, M=1000</t>
   </si>
   <si>
-    <t>fdtdampl M=128, N=128, P=128</t>
-  </si>
-  <si>
     <t>syr2k M=256 N=256</t>
   </si>
   <si>
     <t>syrk M=128 N=128</t>
   </si>
   <si>
-    <t>lu N=256</t>
-  </si>
-  <si>
     <t>mvt Dim=4000</t>
-  </si>
-  <si>
-    <t>trmm Dim=256</t>
   </si>
   <si>
     <t>jacobi-2D</t>
@@ -438,6 +426,21 @@
   </si>
   <si>
     <t>Strided sum of consecutive array elements</t>
+  </si>
+  <si>
+    <t>run on 8 locales instead of 10 because of power issues</t>
+  </si>
+  <si>
+    <t>lu N=128</t>
+  </si>
+  <si>
+    <t>fdtdampl M=64, N=64, P=64</t>
+  </si>
+  <si>
+    <t>trmm Dim=128</t>
+  </si>
+  <si>
+    <t>fdtd-apml</t>
   </si>
 </sst>
 </file>
@@ -528,7 +531,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="203">
+  <cellStyleXfs count="207">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -732,8 +735,12 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -747,8 +754,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="203">
+  <cellStyles count="207">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -850,6 +858,8 @@
     <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -951,6 +961,8 @@
     <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1138,11 +1150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2098948984"/>
-        <c:axId val="2098951960"/>
+        <c:axId val="2073671976"/>
+        <c:axId val="2073674952"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2098948984"/>
+        <c:axId val="2073671976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098951960"/>
+        <c:crossAx val="2073674952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1159,7 +1171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2098951960"/>
+        <c:axId val="2073674952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1193,7 +1205,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2098948984"/>
+        <c:crossAx val="2073671976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1348,11 +1360,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087866840"/>
-        <c:axId val="2087861144"/>
+        <c:axId val="2073750040"/>
+        <c:axId val="2073755736"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087866840"/>
+        <c:axId val="2073750040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1386,12 +1398,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087861144"/>
+        <c:crossAx val="2073755736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087861144"/>
+        <c:axId val="2073755736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1436,7 +1448,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087866840"/>
+        <c:crossAx val="2073750040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1567,11 +1579,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2087832696"/>
-        <c:axId val="2087827256"/>
+        <c:axId val="2073784152"/>
+        <c:axId val="2073789608"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2087832696"/>
+        <c:axId val="2073784152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1612,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087827256"/>
+        <c:crossAx val="2073789608"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2087827256"/>
+        <c:axId val="2073789608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1640,7 +1652,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2087832696"/>
+        <c:crossAx val="2073784152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1687,9 +1699,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1724,6 +1736,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1731,10 +1761,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$I$5:$I$16</c:f>
+              <c:f>'Data Collected at LTS'!$I$5:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -1769,6 +1799,24 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1784,9 +1832,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -1821,6 +1869,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -1828,10 +1894,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$N$5:$N$16</c:f>
+              <c:f>'Data Collected at LTS'!$N$5:$N$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.091063566318107</c:v>
                 </c:pt>
@@ -1866,7 +1932,25 @@
                   <c:v>0.747877432925947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.554185617903178</c:v>
+                  <c:v>1.0533467462166</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.857116850693258</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.542193094901352</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.116840910271345</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.587555152332876</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.109119317581977</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.683076247561662</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1881,11 +1965,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099031672"/>
-        <c:axId val="2099037144"/>
+        <c:axId val="2073826440"/>
+        <c:axId val="2073831880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099031672"/>
+        <c:axId val="2073826440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1913,7 +1997,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099037144"/>
+        <c:crossAx val="2073831880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1921,7 +2005,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099037144"/>
+        <c:axId val="2073831880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1956,7 +2040,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099031672"/>
+        <c:crossAx val="2073826440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2008,9 +2092,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -2045,6 +2129,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2052,10 +2154,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$K$5:$K$16</c:f>
+              <c:f>'Data Collected at LTS'!$K$5:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
@@ -2090,6 +2192,24 @@
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2105,9 +2225,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$5:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$5:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>2mm</c:v>
                 </c:pt>
@@ -2142,6 +2262,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="17">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2149,10 +2287,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$P$5:$P$16</c:f>
+              <c:f>'Data Collected at LTS'!$P$5:$P$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="12"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1.000029086321673</c:v>
                 </c:pt>
@@ -2187,7 +2325,25 @@
                   <c:v>0.573686646473997</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.234070579157616</c:v>
+                  <c:v>1.030434759305726</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.926079452728464</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.926010585632856</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.978971252915299</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.614117732727607</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.993057704370276</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.376351694546064</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2202,11 +2358,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099067896"/>
-        <c:axId val="2099073368"/>
+        <c:axId val="2073862696"/>
+        <c:axId val="2073868152"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099067896"/>
+        <c:axId val="2073862696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2234,7 +2390,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099073368"/>
+        <c:crossAx val="2073868152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2242,7 +2398,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099073368"/>
+        <c:axId val="2073868152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2272,7 +2428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099067896"/>
+        <c:crossAx val="2073862696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2324,9 +2480,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2334,6 +2490,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2341,17 +2515,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$S$14:$S$16</c:f>
+              <c:f>'Data Collected at LTS'!$S$14:$S$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2367,9 +2541,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2377,6 +2551,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2384,17 +2576,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$X$14:$X$16</c:f>
+              <c:f>'Data Collected at LTS'!$X$14:$X$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.292318569503556</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.764203375874846</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.472642399331168</c:v>
                 </c:pt>
               </c:numCache>
@@ -2410,11 +2602,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099103208"/>
-        <c:axId val="2099108664"/>
+        <c:axId val="2073898040"/>
+        <c:axId val="2073903512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099103208"/>
+        <c:axId val="2073898040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2436,13 +2628,12 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099108664"/>
+        <c:crossAx val="2073903512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2450,7 +2641,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099108664"/>
+        <c:axId val="2073903512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2478,21 +2669,19 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099103208"/>
+        <c:crossAx val="2073898040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2537,9 +2726,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2547,6 +2736,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2554,17 +2761,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$U$14:$U$16</c:f>
+              <c:f>'Data Collected at LTS'!$U$14:$U$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>1.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2580,9 +2787,9 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'Data Collected at LTS'!$A$14:$A$16</c:f>
+              <c:f>'Data Collected at LTS'!$A$14:$A$22</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>pascal</c:v>
                 </c:pt>
@@ -2590,6 +2797,24 @@
                   <c:v>jacobi-1D</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>fdtd-apml</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>syrk</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>syr2k</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>lu</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>mvt </c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>trmm</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>geometric mean</c:v>
                 </c:pt>
               </c:strCache>
@@ -2597,17 +2822,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Data Collected at LTS'!$Z$14:$Z$16</c:f>
+              <c:f>'Data Collected at LTS'!$Z$14:$Z$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>0.0957998849562477</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.83019560114575</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="8">
                   <c:v>0.282015324195239</c:v>
                 </c:pt>
               </c:numCache>
@@ -2623,11 +2848,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099138296"/>
-        <c:axId val="2099143752"/>
+        <c:axId val="2073933592"/>
+        <c:axId val="2073939048"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099138296"/>
+        <c:axId val="2073933592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2655,7 +2880,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099143752"/>
+        <c:crossAx val="2073939048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2663,7 +2888,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099143752"/>
+        <c:axId val="2073939048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2693,7 +2918,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099138296"/>
+        <c:crossAx val="2073933592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4845,8 +5070,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="Z16" sqref="Z16"/>
+    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
+      <selection activeCell="S29" sqref="S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -5028,14 +5253,14 @@
         <v>1043.54</v>
       </c>
       <c r="D5">
-        <f t="shared" ref="D5:D15" si="0">C5/H5</f>
+        <f t="shared" ref="D5:D21" si="0">C5/H5</f>
         <v>0.35895019262520639</v>
       </c>
       <c r="E5">
         <v>127593456</v>
       </c>
       <c r="F5">
-        <f t="shared" ref="F5:F15" si="1">E5/J5</f>
+        <f t="shared" ref="F5:F21" si="1">E5/J5</f>
         <v>0.65292475450458798</v>
       </c>
       <c r="G5" s="1"/>
@@ -5043,7 +5268,7 @@
         <v>2907.2</v>
       </c>
       <c r="I5">
-        <f t="shared" ref="I5:I15" si="2">H5/H5</f>
+        <f t="shared" ref="I5:I21" si="2">H5/H5</f>
         <v>1</v>
       </c>
       <c r="J5">
@@ -5058,7 +5283,7 @@
         <v>3171.94</v>
       </c>
       <c r="N5">
-        <f t="shared" ref="N5:N15" si="4">M5/H5</f>
+        <f t="shared" ref="N5:N21" si="4">M5/H5</f>
         <v>1.0910635663181067</v>
       </c>
       <c r="O5">
@@ -5127,7 +5352,7 @@
     </row>
     <row r="7" spans="1:27">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7">
@@ -5180,7 +5405,7 @@
     </row>
     <row r="8" spans="1:27">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8">
@@ -5392,7 +5617,7 @@
     </row>
     <row r="12" spans="1:27">
       <c r="A12" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="6">
@@ -5666,76 +5891,116 @@
       </c>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16" spans="1:27" s="2" customFormat="1">
-      <c r="A16" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B16" s="8"/>
-      <c r="D16" s="2">
-        <f>GEOMEAN(D5,D6,D8,D11,D13,D14,D9,D10,D15,D7,D12)</f>
-        <v>0.4091982753111279</v>
-      </c>
-      <c r="F16" s="2">
-        <f>GEOMEAN(F5,F6,F8,F11,F13,F14,F9,F10,F15,F7,F12)</f>
-        <v>0.20038276927162227</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="I16" s="2">
-        <f>GEOMEAN(I5,I6,I8,I11,I13,I23,I9,I10,I14,I15,I7,I12)</f>
+    <row r="16" spans="1:27">
+      <c r="A16" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="6">
+        <v>382.86099999999999</v>
+      </c>
+      <c r="D16" s="6">
+        <f t="shared" si="0"/>
+        <v>0.64948607508613487</v>
+      </c>
+      <c r="E16" s="6">
+        <v>53384242</v>
+      </c>
+      <c r="F16" s="6">
+        <f t="shared" si="1"/>
+        <v>0.51093324620020009</v>
+      </c>
+      <c r="G16" s="1"/>
+      <c r="H16" s="6">
+        <v>589.48299999999995</v>
+      </c>
+      <c r="I16" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="K16" s="2">
-        <f>GEOMEAN(K5,K6,K8,K11,K13,K14,K9,K10,K15,K7,K12)</f>
+      <c r="J16" s="6">
+        <v>104483790</v>
+      </c>
+      <c r="K16" s="6">
+        <f>J16/J16</f>
         <v>1</v>
       </c>
-      <c r="L16" s="8"/>
-      <c r="N16" s="2">
-        <f>GEOMEAN(N5,N6,N8,N11,N13,N14,N9,N10,N15,N7,N12)</f>
-        <v>0.55418561790317755</v>
-      </c>
-      <c r="P16" s="2">
-        <f>GEOMEAN(P5,P6,P8,P11,P13,P14,P9,P10,P15,P7,P12)</f>
-        <v>0.23407057915761645</v>
-      </c>
-      <c r="Q16" s="8"/>
-      <c r="S16" s="2">
-        <f>GEOMEAN(S14,S15)</f>
+      <c r="L16" s="1"/>
+      <c r="M16" s="6">
+        <v>620.92999999999995</v>
+      </c>
+      <c r="N16" s="6">
+        <f t="shared" si="4"/>
+        <v>1.0533467462166</v>
+      </c>
+      <c r="O16" s="6">
+        <v>107663729</v>
+      </c>
+      <c r="P16" s="6">
+        <f>O16/J16</f>
+        <v>1.0304347593057257</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="6"/>
+      <c r="S16" s="6"/>
+      <c r="T16" s="6"/>
+      <c r="U16" s="6"/>
+      <c r="V16" s="1"/>
+      <c r="W16" s="6"/>
+      <c r="X16" s="6"/>
+      <c r="Y16" s="6"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="1"/>
+    </row>
+    <row r="17" spans="1:27">
+      <c r="A17" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="6">
+        <v>87.272099999999995</v>
+      </c>
+      <c r="D17" s="6">
+        <f t="shared" si="0"/>
+        <v>0.32423392429894043</v>
+      </c>
+      <c r="E17" s="6">
+        <v>40097632</v>
+      </c>
+      <c r="F17" s="6">
+        <f t="shared" si="1"/>
+        <v>0.51181402913790208</v>
+      </c>
+      <c r="G17" s="1"/>
+      <c r="H17" s="6">
+        <v>269.16399999999999</v>
+      </c>
+      <c r="I17" s="6">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="U16" s="2">
-        <f>GEOMEAN(U14,U15)</f>
+      <c r="J17" s="6">
+        <v>78344144</v>
+      </c>
+      <c r="K17" s="6">
+        <f>J17/J17</f>
         <v>1</v>
       </c>
-      <c r="V16" s="8"/>
-      <c r="X16" s="2">
-        <f>GEOMEAN(X14,X15)</f>
-        <v>0.47264239933116792</v>
-      </c>
-      <c r="Z16" s="2">
-        <f>GEOMEAN(Z14,Z15)</f>
-        <v>0.28201532419523906</v>
-      </c>
-      <c r="AA16" s="8"/>
-    </row>
-    <row r="17" spans="1:27">
-      <c r="A17" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="B17" s="1"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="6"/>
-      <c r="K17" s="6"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-      <c r="P17" s="6"/>
+      <c r="M17" s="6">
+        <v>230.70500000000001</v>
+      </c>
+      <c r="N17" s="6">
+        <f t="shared" si="4"/>
+        <v>0.85711685069325771</v>
+      </c>
+      <c r="O17" s="6">
+        <v>72552902</v>
+      </c>
+      <c r="P17" s="6">
+        <f>O17/J17</f>
+        <v>0.92607945272846426</v>
+      </c>
       <c r="Q17" s="1"/>
       <c r="R17" s="6"/>
       <c r="S17" s="6"/>
@@ -5749,24 +6014,54 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="5" t="s">
-        <v>86</v>
+      <c r="A18" s="4" t="s">
+        <v>85</v>
       </c>
       <c r="B18" s="1"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
+      <c r="C18" s="6">
+        <v>209.93299999999999</v>
+      </c>
+      <c r="D18" s="6">
+        <f t="shared" si="0"/>
+        <v>0.49650913631869975</v>
+      </c>
+      <c r="E18" s="6">
+        <v>80165578</v>
+      </c>
+      <c r="F18" s="6">
+        <f t="shared" si="1"/>
+        <v>0.51234264902087756</v>
+      </c>
       <c r="G18" s="1"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
+      <c r="H18" s="6">
+        <v>422.81799999999998</v>
+      </c>
+      <c r="I18" s="6">
+        <f>H18/H18</f>
+        <v>1</v>
+      </c>
+      <c r="J18" s="6">
+        <v>156468680</v>
+      </c>
+      <c r="K18" s="6">
+        <f t="shared" ref="K18:K21" si="6">J18/J18</f>
+        <v>1</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="6"/>
-      <c r="O18" s="6"/>
-      <c r="P18" s="6"/>
+      <c r="M18" s="6">
+        <v>652.06700000000001</v>
+      </c>
+      <c r="N18" s="6">
+        <f t="shared" si="4"/>
+        <v>1.5421930949013525</v>
+      </c>
+      <c r="O18" s="6">
+        <v>144891654</v>
+      </c>
+      <c r="P18" s="6">
+        <f t="shared" ref="P18:P21" si="7">O18/J18</f>
+        <v>0.92601058563285632</v>
+      </c>
       <c r="Q18" s="1"/>
       <c r="R18" s="6"/>
       <c r="S18" s="6"/>
@@ -5780,68 +6075,214 @@
       <c r="AA18" s="1"/>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="5" t="s">
-        <v>87</v>
+      <c r="A19" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="B19" s="1"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="C19" s="6">
+        <v>62.825000000000003</v>
+      </c>
+      <c r="D19" s="6">
+        <f t="shared" si="0"/>
+        <v>0.46615420002522762</v>
+      </c>
+      <c r="E19" s="6">
+        <v>15743462</v>
+      </c>
+      <c r="F19" s="6">
+        <f t="shared" si="1"/>
+        <v>0.46591114903344993</v>
+      </c>
       <c r="G19" s="1"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
+      <c r="H19" s="6">
+        <v>134.773</v>
+      </c>
+      <c r="I19" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>33790696</v>
+      </c>
+      <c r="K19" s="6">
+        <f>J19/J19</f>
+        <v>1</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="6"/>
-      <c r="O19" s="6"/>
-      <c r="P19" s="6"/>
+      <c r="M19" s="6">
+        <v>150.52000000000001</v>
+      </c>
+      <c r="N19" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1168409102713452</v>
+      </c>
+      <c r="O19" s="6">
+        <v>33080120</v>
+      </c>
+      <c r="P19" s="6">
+        <f t="shared" si="7"/>
+        <v>0.97897125291529952</v>
+      </c>
       <c r="Q19" s="1"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="6"/>
-      <c r="T19" s="6"/>
-      <c r="U19" s="6"/>
       <c r="V19" s="1"/>
-      <c r="W19" s="6"/>
-      <c r="X19" s="6"/>
-      <c r="Y19" s="6"/>
-      <c r="Z19" s="6"/>
       <c r="AA19" s="1"/>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="5" t="s">
-        <v>58</v>
+      <c r="A20" s="4" t="s">
+        <v>89</v>
       </c>
       <c r="B20" s="1"/>
+      <c r="C20" s="6">
+        <v>914.50199999999995</v>
+      </c>
+      <c r="D20" s="6">
+        <f t="shared" si="0"/>
+        <v>0.70913066741107778</v>
+      </c>
+      <c r="E20" s="6">
+        <v>243119489</v>
+      </c>
+      <c r="F20" s="6">
+        <f t="shared" si="1"/>
+        <v>0.56851600081732534</v>
+      </c>
       <c r="G20" s="1"/>
+      <c r="H20" s="6">
+        <v>1289.6099999999999</v>
+      </c>
+      <c r="I20" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="6">
+        <v>427638780</v>
+      </c>
+      <c r="K20" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="L20" s="1"/>
+      <c r="M20" s="6">
+        <v>757.71699999999998</v>
+      </c>
+      <c r="N20" s="6">
+        <f t="shared" si="4"/>
+        <v>0.58755515233287592</v>
+      </c>
+      <c r="O20" s="6">
+        <v>262620558</v>
+      </c>
+      <c r="P20" s="6">
+        <f t="shared" si="7"/>
+        <v>0.61411773272760717</v>
+      </c>
       <c r="Q20" s="1"/>
       <c r="V20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="5" t="s">
-        <v>90</v>
+      <c r="A21" s="4" t="s">
+        <v>60</v>
       </c>
       <c r="B21" s="1"/>
+      <c r="C21" s="6">
+        <v>137.75899999999999</v>
+      </c>
+      <c r="D21" s="6">
+        <f t="shared" si="0"/>
+        <v>0.48478354201417478</v>
+      </c>
+      <c r="E21" s="6">
+        <v>33621816</v>
+      </c>
+      <c r="F21" s="6">
+        <f t="shared" si="1"/>
+        <v>0.48501518194400722</v>
+      </c>
       <c r="G21" s="1"/>
+      <c r="H21" s="6">
+        <v>284.166</v>
+      </c>
+      <c r="I21" s="6">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="6">
+        <v>69321162</v>
+      </c>
+      <c r="K21" s="6">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
       <c r="L21" s="1"/>
+      <c r="M21" s="6">
+        <v>315.17399999999998</v>
+      </c>
+      <c r="N21" s="6">
+        <f t="shared" si="4"/>
+        <v>1.1091193175819767</v>
+      </c>
+      <c r="O21" s="6">
+        <v>68839914</v>
+      </c>
+      <c r="P21" s="6">
+        <f t="shared" si="7"/>
+        <v>0.99305770437027585</v>
+      </c>
       <c r="Q21" s="1"/>
       <c r="V21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22" spans="1:27">
-      <c r="A22" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="V22" s="1"/>
-      <c r="AA22" s="1"/>
+    <row r="22" spans="1:27" s="2" customFormat="1">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="D22" s="2">
+        <f>GEOMEAN(D5,D6,D8,D11,D13,D14,D9,D10,D15,D7,D12,D16,D17,D18,D19,D20,D21)</f>
+        <v>0.44099850655022216</v>
+      </c>
+      <c r="F22" s="2">
+        <f>GEOMEAN(F5,F6,F8,F11,F13,F14,F9,F10,F15,F7,F12,F16,F17,F18,F19,F20,F21)</f>
+        <v>0.2782840780608854</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="I22" s="2">
+        <f>GEOMEAN(I5,I6,I8,I11,I13,I23,I9,I10,I14,I15,I7,I12,I16,I17,I18,I19,I20,I21)</f>
+        <v>1</v>
+      </c>
+      <c r="K22" s="2">
+        <f>GEOMEAN(K5,K6,K8,K11,K13,K14,K9,K10,K15,K7,K12,K16,K17,K18,K19,K20,K21)</f>
+        <v>1</v>
+      </c>
+      <c r="L22" s="8"/>
+      <c r="N22" s="2">
+        <f>GEOMEAN(N5,N6,N8,N11,N13,N14,N9,N10,N15,N7,N12,N16,N17,N18,N19,N20,N21)</f>
+        <v>0.68307624756166163</v>
+      </c>
+      <c r="P22" s="2">
+        <f>GEOMEAN(P5,P6,P8,P11,P13,P14,P9,P10,P15,P7,P12,P16,P17,P18,P19,P20,P21)</f>
+        <v>0.37635169454606404</v>
+      </c>
+      <c r="Q22" s="8"/>
+      <c r="S22" s="2">
+        <f>GEOMEAN(S14,S15)</f>
+        <v>1</v>
+      </c>
+      <c r="U22" s="2">
+        <f>GEOMEAN(U14,U15)</f>
+        <v>1</v>
+      </c>
+      <c r="V22" s="8"/>
+      <c r="X22" s="2">
+        <f>GEOMEAN(X14,X15)</f>
+        <v>0.47264239933116792</v>
+      </c>
+      <c r="Z22" s="2">
+        <f>GEOMEAN(Z14,Z15)</f>
+        <v>0.28201532419523906</v>
+      </c>
+      <c r="AA22" s="8"/>
     </row>
     <row r="23" spans="1:27">
       <c r="A23" s="1"/>
@@ -5892,87 +6333,93 @@
     </row>
     <row r="30" spans="1:27">
       <c r="B30" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:27">
       <c r="B31" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:27">
       <c r="B32" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3">
       <c r="B33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:2">
+    <row r="34" spans="2:3">
       <c r="B34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:2">
+    <row r="35" spans="2:3">
       <c r="B35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:2">
+    <row r="36" spans="2:3">
       <c r="B36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="2:2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3">
       <c r="B37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:2">
+    <row r="38" spans="2:3">
       <c r="B38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="2:2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3">
       <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3">
+      <c r="B40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="40" spans="2:2">
-      <c r="B40" t="s">
+    <row r="41" spans="2:3">
+      <c r="B41" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3">
+      <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="41" spans="2:2">
-      <c r="B41" t="s">
+    <row r="43" spans="2:3">
+      <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="42" spans="2:2">
-      <c r="B42" t="s">
+    <row r="44" spans="2:3">
+      <c r="B44" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3">
+      <c r="B45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="43" spans="2:2">
-      <c r="B43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="2:2">
-      <c r="B44" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="45" spans="2:2">
-      <c r="B45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="2:2">
+    <row r="46" spans="2:3">
       <c r="B46" t="s">
-        <v>102</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3">
+      <c r="B48" s="11"/>
+      <c r="C48" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="3:5">
@@ -6381,30 +6828,30 @@
   <sheetData>
     <row r="5" spans="2:5">
       <c r="B5" s="9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="9" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="B6" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>221</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -6415,10 +6862,10 @@
         <v>153</v>
       </c>
       <c r="D7" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -6429,10 +6876,10 @@
         <v>133</v>
       </c>
       <c r="D8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -6443,10 +6890,10 @@
         <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -6457,10 +6904,10 @@
         <v>201</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E10" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -6471,10 +6918,10 @@
         <v>182</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -6485,10 +6932,10 @@
         <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E12" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -6502,68 +6949,68 @@
         <v>4000</v>
       </c>
       <c r="E13" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" spans="2:5">
       <c r="B14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C14">
         <v>154</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5">
       <c r="B15" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>160</v>
       </c>
       <c r="D15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16" spans="2:5">
       <c r="B16" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C16">
         <v>201</v>
       </c>
       <c r="D16" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E16" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
     </row>
     <row r="17" spans="2:5">
       <c r="B17" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C17">
         <v>333</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E17" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18" spans="2:5">
       <c r="B18" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C18">
         <v>138</v>
@@ -6572,21 +7019,21 @@
         <v>10000</v>
       </c>
       <c r="E18" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:5">
       <c r="B19" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C19">
         <v>152</v>
       </c>
       <c r="D19" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="2:5">
@@ -6597,10 +7044,10 @@
         <v>142</v>
       </c>
       <c r="D20" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E20" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="2:5">
@@ -6611,10 +7058,10 @@
         <v>126</v>
       </c>
       <c r="D21" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E21" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="22" spans="2:5">
@@ -6628,7 +7075,7 @@
         <v>50400</v>
       </c>
       <c r="E22" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="0" windowWidth="24820" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="15140" windowHeight="15560" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="142">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -441,6 +441,15 @@
   </si>
   <si>
     <t>fdtd-apml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max # elements to aggregate per chunk of work </t>
+  </si>
+  <si>
+    <t>400=&gt;2600, 4000=&gt;250000</t>
+  </si>
+  <si>
+    <t>400=&gt;2613, 4000=&gt;252126</t>
   </si>
 </sst>
 </file>
@@ -531,8 +540,76 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="207">
+  <cellStyleXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -756,7 +833,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="207">
+  <cellStyles count="275">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -860,6 +937,40 @@
     <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -963,6 +1074,40 @@
     <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1150,11 +1295,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073671976"/>
-        <c:axId val="2073674952"/>
+        <c:axId val="2097460424"/>
+        <c:axId val="2097463400"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073671976"/>
+        <c:axId val="2097460424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1163,7 +1308,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073674952"/>
+        <c:crossAx val="2097463400"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1171,7 +1316,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073674952"/>
+        <c:axId val="2097463400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1205,7 +1350,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073671976"/>
+        <c:crossAx val="2097460424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1360,11 +1505,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073750040"/>
-        <c:axId val="2073755736"/>
+        <c:axId val="2099199656"/>
+        <c:axId val="2099205352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073750040"/>
+        <c:axId val="2099199656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1398,12 +1543,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073755736"/>
+        <c:crossAx val="2099205352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073755736"/>
+        <c:axId val="2099205352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1448,7 +1593,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073750040"/>
+        <c:crossAx val="2099199656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1579,11 +1724,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073784152"/>
-        <c:axId val="2073789608"/>
+        <c:axId val="2099250360"/>
+        <c:axId val="2099255816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073784152"/>
+        <c:axId val="2099250360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,12 +1757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073789608"/>
+        <c:crossAx val="2099255816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073789608"/>
+        <c:axId val="2099255816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,7 +1797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073784152"/>
+        <c:crossAx val="2099250360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1965,11 +2110,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073826440"/>
-        <c:axId val="2073831880"/>
+        <c:axId val="2099292600"/>
+        <c:axId val="2099298072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073826440"/>
+        <c:axId val="2099292600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1997,7 +2142,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073831880"/>
+        <c:crossAx val="2099298072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2005,7 +2150,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073831880"/>
+        <c:axId val="2099298072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2040,7 +2185,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073826440"/>
+        <c:crossAx val="2099292600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2358,11 +2503,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073862696"/>
-        <c:axId val="2073868152"/>
+        <c:axId val="2099329368"/>
+        <c:axId val="2099334840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073862696"/>
+        <c:axId val="2099329368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2390,7 +2535,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073868152"/>
+        <c:crossAx val="2099334840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2398,7 +2543,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073868152"/>
+        <c:axId val="2099334840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2428,7 +2573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073862696"/>
+        <c:crossAx val="2099329368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2602,11 +2747,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073898040"/>
-        <c:axId val="2073903512"/>
+        <c:axId val="2099364696"/>
+        <c:axId val="2099370168"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073898040"/>
+        <c:axId val="2099364696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2628,12 +2773,13 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073903512"/>
+        <c:crossAx val="2099370168"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2641,7 +2787,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073903512"/>
+        <c:axId val="2099370168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2669,19 +2815,21 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073898040"/>
+        <c:crossAx val="2099364696"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2848,11 +2996,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2073933592"/>
-        <c:axId val="2073939048"/>
+        <c:axId val="2099400296"/>
+        <c:axId val="2099405768"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2073933592"/>
+        <c:axId val="2099400296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2880,7 +3028,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073939048"/>
+        <c:crossAx val="2099405768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2888,7 +3036,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2073939048"/>
+        <c:axId val="2099405768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2918,7 +3066,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073933592"/>
+        <c:crossAx val="2099400296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3070,14 +3218,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:colOff>292100</xdr:colOff>
+      <xdr:row>50</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>75</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>812800</xdr:colOff>
+      <xdr:row>74</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5070,8 +5218,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D15" workbookViewId="0">
-      <selection activeCell="S29" sqref="S29"/>
+    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6331,92 +6479,136 @@
         <v>79</v>
       </c>
     </row>
+    <row r="29" spans="1:27">
+      <c r="A29" t="s">
+        <v>139</v>
+      </c>
+    </row>
     <row r="30" spans="1:27">
+      <c r="A30">
+        <v>4</v>
+      </c>
       <c r="B30" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:27">
+      <c r="A31">
+        <v>16</v>
+      </c>
       <c r="B31" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="32" spans="1:27">
+      <c r="A32" t="s">
+        <v>140</v>
+      </c>
       <c r="B32" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="2:3">
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>141</v>
+      </c>
       <c r="B33" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="34" spans="2:3">
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>394</v>
+      </c>
       <c r="B34" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="35" spans="2:3">
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>1563</v>
+      </c>
       <c r="B35" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="36" spans="2:3">
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>16</v>
+      </c>
       <c r="B36" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="37" spans="2:3">
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>157</v>
+      </c>
       <c r="B37" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="38" spans="2:3">
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>16</v>
+      </c>
       <c r="B38" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="39" spans="2:3">
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>2</v>
+      </c>
       <c r="B39" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="40" spans="2:3">
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>16000</v>
+      </c>
       <c r="B40" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="41" spans="2:3">
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>4</v>
+      </c>
       <c r="B41" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="2:3">
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>16</v>
+      </c>
       <c r="B42" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="43" spans="2:3">
+    <row r="43" spans="1:3">
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="2:3">
+    <row r="44" spans="1:3">
       <c r="B44" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="45" spans="2:3">
+    <row r="45" spans="1:3">
       <c r="B45" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="46" spans="2:3">
+    <row r="46" spans="1:3">
       <c r="B46" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="48" spans="2:3">
+    <row r="48" spans="1:3">
       <c r="B48" s="11"/>
       <c r="C48" t="s">
         <v>134</v>

--- a/Benchmark Configuration Table.xlsx
+++ b/Benchmark Configuration Table.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24816"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="11620" yWindow="0" windowWidth="15140" windowHeight="15560" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="12960" yWindow="20" windowWidth="13660" windowHeight="15560" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Data Collected at LTS" sheetId="5" r:id="rId3"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet4" sheetId="6" r:id="rId5"/>
+    <sheet name="More Data 8 locales" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="168">
   <si>
     <t>Configuration Variables</t>
   </si>
@@ -450,13 +451,91 @@
   </si>
   <si>
     <t>400=&gt;2613, 4000=&gt;252126</t>
+  </si>
+  <si>
+    <t>Block Run</t>
+  </si>
+  <si>
+    <t>Block Message</t>
+  </si>
+  <si>
+    <t>Cyclic Run</t>
+  </si>
+  <si>
+    <t>Cyclic Message</t>
+  </si>
+  <si>
+    <t>Block Cyclic Run</t>
+  </si>
+  <si>
+    <t>Block Cyclic Message</t>
+  </si>
+  <si>
+    <t>Block Cyclic MUWU Run</t>
+  </si>
+  <si>
+    <t>Block Cyclic Message MUWU</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
+  <si>
+    <t>Normalized</t>
+  </si>
+  <si>
+    <t>CMUWU 4 Run</t>
+  </si>
+  <si>
+    <t>CMUWU 100 Run</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMUWU 16 Run </t>
+  </si>
+  <si>
+    <t>CMUWU 1000000 Run</t>
+  </si>
+  <si>
+    <t>CMUWU 4 Message</t>
+  </si>
+  <si>
+    <t>CMUWU 16 Message</t>
+  </si>
+  <si>
+    <t>CMUWU 100 Message</t>
+  </si>
+  <si>
+    <t>CMUWU 1000000 Message</t>
+  </si>
+  <si>
+    <t>CMUWU 16 Run</t>
+  </si>
+  <si>
+    <t>size=128</t>
+  </si>
+  <si>
+    <t>N=256</t>
+  </si>
+  <si>
+    <t>N=64</t>
+  </si>
+  <si>
+    <t>n=4000</t>
+  </si>
+  <si>
+    <t>N,M=512</t>
+  </si>
+  <si>
+    <t>Runtimes</t>
+  </si>
+  <si>
+    <t>Message</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -497,6 +576,12 @@
       <b/>
       <sz val="10"/>
       <name val="Verdana"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="205"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -540,7 +625,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="275">
+  <cellStyleXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -816,8 +901,40 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -832,8 +949,10 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="275">
+  <cellStyles count="307">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -971,6 +1090,22 @@
     <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1108,6 +1243,22 @@
     <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1295,11 +1446,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2097460424"/>
-        <c:axId val="2097463400"/>
+        <c:axId val="2049383096"/>
+        <c:axId val="2049386072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2097460424"/>
+        <c:axId val="2049383096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1308,7 +1459,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097463400"/>
+        <c:crossAx val="2049386072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1316,7 +1467,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2097463400"/>
+        <c:axId val="2049386072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1350,7 +1501,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097460424"/>
+        <c:crossAx val="2049383096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1505,11 +1656,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099199656"/>
-        <c:axId val="2099205352"/>
+        <c:axId val="2049466632"/>
+        <c:axId val="2049472328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099199656"/>
+        <c:axId val="2049466632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1543,12 +1694,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099205352"/>
+        <c:crossAx val="2049472328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099205352"/>
+        <c:axId val="2049472328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1593,7 +1744,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099199656"/>
+        <c:crossAx val="2049466632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1724,11 +1875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2099250360"/>
-        <c:axId val="2099255816"/>
+        <c:axId val="2049500776"/>
+        <c:axId val="2049506216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2099250360"/>
+        <c:axId val="2049500776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,12 +1908,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099255816"/>
+        <c:crossAx val="2049506216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2099255816"/>
+        <c:axId val="2049506216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1948,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099250360"/>
+        <c:crossAx val="2049500776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2095,7 +2246,7 @@
                   <c:v>1.109119317581977</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.683076247561662</c:v>
+                  <c:v>0.649179557942989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2110,11 +2261,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099292600"/>
-        <c:axId val="2099298072"/>
+        <c:axId val="2049543032"/>
+        <c:axId val="2049548504"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099292600"/>
+        <c:axId val="2049543032"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2142,7 +2293,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099298072"/>
+        <c:crossAx val="2049548504"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2150,7 +2301,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099298072"/>
+        <c:axId val="2049548504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2185,7 +2336,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099292600"/>
+        <c:crossAx val="2049543032"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2488,7 +2639,7 @@
                   <c:v>0.993057704370276</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.376351694546064</c:v>
+                  <c:v>0.355758263083233</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2503,11 +2654,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099329368"/>
-        <c:axId val="2099334840"/>
+        <c:axId val="2049579464"/>
+        <c:axId val="2049584936"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099329368"/>
+        <c:axId val="2049579464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2535,7 +2686,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099334840"/>
+        <c:crossAx val="2049584936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2543,7 +2694,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099334840"/>
+        <c:axId val="2049584936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2573,7 +2724,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099329368"/>
+        <c:crossAx val="2049579464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2747,11 +2898,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099364696"/>
-        <c:axId val="2099370168"/>
+        <c:axId val="2049614888"/>
+        <c:axId val="2049620360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099364696"/>
+        <c:axId val="2049614888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2779,7 +2930,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099370168"/>
+        <c:crossAx val="2049620360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2787,7 +2938,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099370168"/>
+        <c:axId val="2049620360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2822,7 +2973,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099364696"/>
+        <c:crossAx val="2049614888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2996,11 +3147,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2099400296"/>
-        <c:axId val="2099405768"/>
+        <c:axId val="2049650488"/>
+        <c:axId val="2049655960"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="2099400296"/>
+        <c:axId val="2049650488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3028,7 +3179,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099405768"/>
+        <c:crossAx val="2049655960"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3036,7 +3187,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2099405768"/>
+        <c:axId val="2049655960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3066,7 +3217,1003 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2099400296"/>
+        <c:crossAx val="2049650488"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Block Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$C$47:$C$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.682178298768595</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.468963433281393</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.931491577549451</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0132159893540792</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.565271307897169</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.294791180985031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$D$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$D$47:$D$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$E$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 4 Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$E$47:$E$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.79602391955182</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.024261311508832</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.734168588802684</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0503576619920155</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.427887651349447</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.744928790291542</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$F$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 16 Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$F$47:$F$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.821751842436181</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.022765003130961</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.632746208149857</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0529608967140956</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.37520019768091</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.739777303970786</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$G$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 100 Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$G$47:$G$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.790503424030896</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.022668525826792</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.531820088068778</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.0540469853618589</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.369050124923353</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.730166201470098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$H$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 1000000 Run</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$47:$B$52</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$H$47:$H$52</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.93194957584063</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.016222749712389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.66128818061089</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.741452553997338</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.40745604802914</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.277584330282209</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2061510776"/>
+        <c:axId val="2065232840"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2061510776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2065232840"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2065232840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2061510776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$C$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Block Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$C$56:$C$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.608807528255985</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.471040560893027</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.655582339667352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000761020051527262</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.657722022862314</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.156574419348954</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$D$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cyclic Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$D$56:$D$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$E$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 4 Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$E$56:$E$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.900450000834976</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.978110723604631</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.989813489432633</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000523061034684485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.805534929280932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.205592632445627</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$F$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 16 Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$F$56:$F$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.901978798659359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.000323076627026</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000523061034684485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85606716714306</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.209545995297848</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$G$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 100 Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$G$56:$G$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.999579397449082</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.999456331522571</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.000523061034684485</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.928150409592693</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.217345358356489</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$H$55</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CMUWU 1000000 Message</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'More Data 8 locales'!$B$56:$B$61</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2mm</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>cholesky</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>fw </c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jacobi-2D</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>correlation</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>geometric mean</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'More Data 8 locales'!$H$56:$H$61</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.999675818229761</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.00012044464704</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.000009626123248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.003699511211651</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.000699947647822</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="2060472376"/>
+        <c:axId val="2065362072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="2060472376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2065362072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2065362072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2060472376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3300,6 +4447,71 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>546100</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5218,8 +6430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P21" sqref="P21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6162,7 +7374,7 @@
       <c r="AA17" s="1"/>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B18" s="1"/>
@@ -6387,30 +7599,30 @@
       </c>
       <c r="B22" s="8"/>
       <c r="D22" s="2">
-        <f>GEOMEAN(D5,D6,D8,D11,D13,D14,D9,D10,D15,D7,D12,D16,D17,D18,D19,D20,D21)</f>
-        <v>0.44099850655022216</v>
+        <f>GEOMEAN(D5,D6,D8,D11,D13,D14,D9,D10,D15,D7,D12,D16,D17,D19,D20,D21)</f>
+        <v>0.43774277413280194</v>
       </c>
       <c r="F22" s="2">
-        <f>GEOMEAN(F5,F6,F8,F11,F13,F14,F9,F10,F15,F7,F12,F16,F17,F18,F19,F20,F21)</f>
-        <v>0.2782840780608854</v>
+        <f>GEOMEAN(F5,F6,F8,F11,F13,F14,F9,F10,F15,F7,F12,F16,F17,F19,F20,F21)</f>
+        <v>0.26786831735135952</v>
       </c>
       <c r="G22" s="8"/>
       <c r="I22" s="2">
-        <f>GEOMEAN(I5,I6,I8,I11,I13,I23,I9,I10,I14,I15,I7,I12,I16,I17,I18,I19,I20,I21)</f>
+        <f>GEOMEAN(I5,I6,I8,I11,I13,I23,I9,I10,I14,I15,I7,I12,I16,I17,I19,I20,I21)</f>
         <v>1</v>
       </c>
       <c r="K22" s="2">
-        <f>GEOMEAN(K5,K6,K8,K11,K13,K14,K9,K10,K15,K7,K12,K16,K17,K18,K19,K20,K21)</f>
+        <f>GEOMEAN(K5,K6,K8,K11,K13,K14,K9,K10,K15,K7,K12,K16,K17,K19,K20,K21)</f>
         <v>1</v>
       </c>
       <c r="L22" s="8"/>
       <c r="N22" s="2">
-        <f>GEOMEAN(N5,N6,N8,N11,N13,N14,N9,N10,N15,N7,N12,N16,N17,N18,N19,N20,N21)</f>
-        <v>0.68307624756166163</v>
+        <f>GEOMEAN(N5,N6,N8,N11,N13,N14,N9,N10,N15,N7,N12,N16,N17,N19,N20,N21)</f>
+        <v>0.64917955794298932</v>
       </c>
       <c r="P22" s="2">
-        <f>GEOMEAN(P5,P6,P8,P11,P13,P14,P9,P10,P15,P7,P12,P16,P17,P18,P19,P20,P21)</f>
-        <v>0.37635169454606404</v>
+        <f>GEOMEAN(P5,P6,P8,P11,P13,P14,P9,P10,P15,P7,P12,P16,P17,P19,P20,P21)</f>
+        <v>0.35575826308323288</v>
       </c>
       <c r="Q22" s="8"/>
       <c r="S22" s="2">
@@ -6589,21 +7801,33 @@
       </c>
     </row>
     <row r="43" spans="1:3">
+      <c r="A43">
+        <v>8</v>
+      </c>
       <c r="B43" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:3">
+      <c r="A44">
+        <v>8</v>
+      </c>
       <c r="B44" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="45" spans="1:3">
+      <c r="A45">
+        <v>250</v>
+      </c>
       <c r="B45" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:3">
+      <c r="A46">
+        <v>8</v>
+      </c>
       <c r="B46" t="s">
         <v>137</v>
       </c>
@@ -7279,4 +8503,1214 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:R61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O74" sqref="O74"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="3" width="9.5" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="15.1640625" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="17.1640625" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="19.33203125" customWidth="1"/>
+    <col min="14" max="14" width="23.6640625" customWidth="1"/>
+    <col min="15" max="15" width="14.1640625" customWidth="1"/>
+    <col min="16" max="16" width="18.1640625" customWidth="1"/>
+    <col min="17" max="17" width="17.1640625" customWidth="1"/>
+    <col min="18" max="18" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:18">
+      <c r="A4" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D4" t="s">
+        <v>143</v>
+      </c>
+      <c r="E4" t="s">
+        <v>144</v>
+      </c>
+      <c r="F4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G4" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
+        <v>154</v>
+      </c>
+      <c r="I4" t="s">
+        <v>153</v>
+      </c>
+      <c r="J4" t="s">
+        <v>155</v>
+      </c>
+      <c r="K4" t="s">
+        <v>156</v>
+      </c>
+      <c r="L4" t="s">
+        <v>157</v>
+      </c>
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" t="s">
+        <v>159</v>
+      </c>
+      <c r="O4" t="s">
+        <v>146</v>
+      </c>
+      <c r="P4" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>148</v>
+      </c>
+      <c r="R4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>3504.5</v>
+      </c>
+      <c r="D5">
+        <v>99307688</v>
+      </c>
+      <c r="E5">
+        <v>5137.22</v>
+      </c>
+      <c r="F5">
+        <v>163118364</v>
+      </c>
+      <c r="G5">
+        <v>9226.57</v>
+      </c>
+      <c r="H5">
+        <v>9358.74</v>
+      </c>
+      <c r="I5">
+        <v>9198.2099999999991</v>
+      </c>
+      <c r="J5">
+        <v>9924.85</v>
+      </c>
+      <c r="K5">
+        <v>146879931</v>
+      </c>
+      <c r="L5">
+        <v>147129306</v>
+      </c>
+      <c r="M5">
+        <v>163049756</v>
+      </c>
+      <c r="N5">
+        <v>163065484</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6">
+        <v>257.62599999999998</v>
+      </c>
+      <c r="D6">
+        <v>66253195</v>
+      </c>
+      <c r="E6">
+        <v>549.35199999999998</v>
+      </c>
+      <c r="F6">
+        <v>140652845</v>
+      </c>
+      <c r="G6">
+        <v>562.67999999999995</v>
+      </c>
+      <c r="H6">
+        <v>561.85799999999995</v>
+      </c>
+      <c r="I6">
+        <v>561.80499999999995</v>
+      </c>
+      <c r="J6">
+        <v>558.26400000000001</v>
+      </c>
+      <c r="K6">
+        <v>137574056</v>
+      </c>
+      <c r="L6">
+        <v>140652845</v>
+      </c>
+      <c r="M6">
+        <v>140652845</v>
+      </c>
+      <c r="N6">
+        <v>140652845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7">
+        <v>26653.7</v>
+      </c>
+      <c r="D7">
+        <v>857629076</v>
+      </c>
+      <c r="E7">
+        <v>28614</v>
+      </c>
+      <c r="F7">
+        <v>1308194294</v>
+      </c>
+      <c r="G7">
+        <v>49621.5</v>
+      </c>
+      <c r="H7">
+        <v>46719.4</v>
+      </c>
+      <c r="I7">
+        <v>43831.5</v>
+      </c>
+      <c r="J7">
+        <v>47536.1</v>
+      </c>
+      <c r="K7">
+        <v>1294868359</v>
+      </c>
+      <c r="L7">
+        <v>1308616941</v>
+      </c>
+      <c r="M7">
+        <v>1307483070</v>
+      </c>
+      <c r="N7">
+        <v>1308351859</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8">
+        <v>2.5821399999999999</v>
+      </c>
+      <c r="D8">
+        <v>243498</v>
+      </c>
+      <c r="E8">
+        <v>195.38</v>
+      </c>
+      <c r="F8">
+        <v>319962660</v>
+      </c>
+      <c r="G8">
+        <v>9.8388799999999996</v>
+      </c>
+      <c r="H8">
+        <v>10.3475</v>
+      </c>
+      <c r="I8">
+        <v>10.559699999999999</v>
+      </c>
+      <c r="J8">
+        <v>144.86500000000001</v>
+      </c>
+      <c r="K8">
+        <v>167360</v>
+      </c>
+      <c r="L8">
+        <v>167360</v>
+      </c>
+      <c r="M8">
+        <v>167360</v>
+      </c>
+      <c r="N8">
+        <v>319965740</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C9">
+        <v>12353.1</v>
+      </c>
+      <c r="D9">
+        <v>731105193</v>
+      </c>
+      <c r="E9">
+        <v>21853.4</v>
+      </c>
+      <c r="F9">
+        <v>1111571709</v>
+      </c>
+      <c r="G9">
+        <v>31204.2</v>
+      </c>
+      <c r="H9">
+        <v>30052.799999999999</v>
+      </c>
+      <c r="I9">
+        <v>29918.400000000001</v>
+      </c>
+      <c r="J9">
+        <v>30757.7</v>
+      </c>
+      <c r="K9">
+        <v>895409838</v>
+      </c>
+      <c r="L9">
+        <v>951580044</v>
+      </c>
+      <c r="M9">
+        <v>1031705737</v>
+      </c>
+      <c r="N9">
+        <v>1115683981</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="B10" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="B11" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="B12" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="B13" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="B14" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="B15" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="B16" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="B17" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="B18" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="B19" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="B20" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="B21" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D25" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>145</v>
+      </c>
+      <c r="G25" t="s">
+        <v>152</v>
+      </c>
+      <c r="H25" t="s">
+        <v>160</v>
+      </c>
+      <c r="I25" t="s">
+        <v>153</v>
+      </c>
+      <c r="J25" t="s">
+        <v>155</v>
+      </c>
+      <c r="K25" t="s">
+        <v>156</v>
+      </c>
+      <c r="L25" t="s">
+        <v>157</v>
+      </c>
+      <c r="M25" t="s">
+        <v>158</v>
+      </c>
+      <c r="N25" t="s">
+        <v>159</v>
+      </c>
+      <c r="O25" t="s">
+        <v>146</v>
+      </c>
+      <c r="P25" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>148</v>
+      </c>
+      <c r="R25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <f>C5/E5</f>
+        <v>0.6821782987685947</v>
+      </c>
+      <c r="D26">
+        <f>D5/F5</f>
+        <v>0.60880752825598472</v>
+      </c>
+      <c r="E26">
+        <f>E5/E5</f>
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <f>F5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <f>G5/E5</f>
+        <v>1.7960239195518197</v>
+      </c>
+      <c r="H26">
+        <f>H5/E5</f>
+        <v>1.8217518424361814</v>
+      </c>
+      <c r="I26">
+        <f>I5/E5</f>
+        <v>1.7905034240308959</v>
+      </c>
+      <c r="J26">
+        <f>J5/E5</f>
+        <v>1.9319495758406298</v>
+      </c>
+      <c r="K26">
+        <f>K5/F5</f>
+        <v>0.90045000083497651</v>
+      </c>
+      <c r="L26">
+        <f>L5/F5</f>
+        <v>0.90197879865935882</v>
+      </c>
+      <c r="M26">
+        <f>M5/F5</f>
+        <v>0.99957939744908186</v>
+      </c>
+      <c r="N26">
+        <f>N5/F5</f>
+        <v>0.99967581822976104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:C30" si="0">C6/E6</f>
+        <v>0.46896343328139334</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:D30" si="1">D6/F6</f>
+        <v>0.47104056089302709</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ref="E27:F30" si="2">E6/E6</f>
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ref="G27:G30" si="3">G6/E6</f>
+        <v>1.0242613115088322</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ref="H27:H30" si="4">H6/E6</f>
+        <v>1.0227650031309614</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ref="I27:I30" si="5">I6/E6</f>
+        <v>1.0226685258267922</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ref="J27:J30" si="6">J6/E6</f>
+        <v>1.0162227497123886</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ref="K27:K30" si="7">K6/F6</f>
+        <v>0.97811072360463092</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ref="L27:L30" si="8">L6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ref="M27:M30" si="9">M6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ref="N27:N30" si="10">N6/F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="B28" t="s">
+        <v>88</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.93149157754945133</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="1"/>
+        <v>0.65558233966735224</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <f t="shared" si="3"/>
+        <v>1.7341685888026841</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="4"/>
+        <v>1.6327462081498567</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="5"/>
+        <v>1.5318200880687776</v>
+      </c>
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>1.6612881806108897</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>0.98981348943263314</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>1.0003230766270259</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="9"/>
+        <v>0.99945633152257118</v>
+      </c>
+      <c r="N28">
+        <f>N7/F7</f>
+        <v>1.0001204446470395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>1.321598935407923E-2</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="1"/>
+        <v>7.6102005152726255E-4</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="3"/>
+        <v>5.0357661992015558E-2</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>5.2960896714095609E-2</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="5"/>
+        <v>5.4046985361858937E-2</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>0.74145255399733856</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="9"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>1.0000096261232483</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="B30" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.56527130789716928</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="1"/>
+        <v>0.65772202286231451</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <f t="shared" si="3"/>
+        <v>1.4278876513494467</v>
+      </c>
+      <c r="H30">
+        <f t="shared" si="4"/>
+        <v>1.3752001976809098</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="5"/>
+        <v>1.3690501249233529</v>
+      </c>
+      <c r="J30">
+        <f t="shared" si="6"/>
+        <v>1.4074560480291396</v>
+      </c>
+      <c r="K30">
+        <f t="shared" si="7"/>
+        <v>0.80553492928093229</v>
+      </c>
+      <c r="L30">
+        <f t="shared" si="8"/>
+        <v>0.85606716714306008</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="9"/>
+        <v>0.92815040959269324</v>
+      </c>
+      <c r="N30">
+        <f t="shared" si="10"/>
+        <v>1.0036995112116514</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="B31" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
+        <f>GEOMEAN(C26:C30)</f>
+        <v>0.29479118098503071</v>
+      </c>
+      <c r="D31">
+        <f>GEOMEAN(D26:D30)</f>
+        <v>0.15657441934895389</v>
+      </c>
+      <c r="E31">
+        <f>GEOMEAN(E26:E30)</f>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f>GEOMEAN(F26:F30)</f>
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <f>GEOMEAN(G26:G30)</f>
+        <v>0.74492879029154224</v>
+      </c>
+      <c r="H31">
+        <f>GEOMEAN(H26:H30)</f>
+        <v>0.73977730397078612</v>
+      </c>
+      <c r="I31">
+        <f>GEOMEAN(I26:I30)</f>
+        <v>0.73016620147009825</v>
+      </c>
+      <c r="J31">
+        <f>GEOMEAN(J26:J30)</f>
+        <v>1.2775843302822085</v>
+      </c>
+      <c r="K31">
+        <f>GEOMEAN(K26:K30)</f>
+        <v>0.20559263244562689</v>
+      </c>
+      <c r="L31">
+        <f>GEOMEAN(L26:L30)</f>
+        <v>0.20954599529784809</v>
+      </c>
+      <c r="M31">
+        <f>GEOMEAN(M26:M30)</f>
+        <v>0.2173453583564893</v>
+      </c>
+      <c r="N31">
+        <f>GEOMEAN(N26:N30)</f>
+        <v>1.0006999476478222</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="B32" s="6" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
+      <c r="B33" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="B35" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="B36" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="B37" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="B38" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="B39" s="5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="B40" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="B41" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="B42" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="B43" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C46" t="s">
+        <v>142</v>
+      </c>
+      <c r="D46" t="s">
+        <v>144</v>
+      </c>
+      <c r="E46" t="s">
+        <v>152</v>
+      </c>
+      <c r="F46" t="s">
+        <v>160</v>
+      </c>
+      <c r="G46" t="s">
+        <v>153</v>
+      </c>
+      <c r="H46" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="B47" t="s">
+        <v>20</v>
+      </c>
+      <c r="C47">
+        <f>C26/E26</f>
+        <v>0.6821782987685947</v>
+      </c>
+      <c r="D47">
+        <f>E26/E26</f>
+        <v>1</v>
+      </c>
+      <c r="E47">
+        <f>G26/E26</f>
+        <v>1.7960239195518197</v>
+      </c>
+      <c r="F47">
+        <f>H26/E26</f>
+        <v>1.8217518424361814</v>
+      </c>
+      <c r="G47" s="13">
+        <f>I26/E26</f>
+        <v>1.7905034240308959</v>
+      </c>
+      <c r="H47">
+        <f>J26/E26</f>
+        <v>1.9319495758406298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <f t="shared" ref="C48:C51" si="11">C27/E27</f>
+        <v>0.46896343328139334</v>
+      </c>
+      <c r="D48">
+        <f t="shared" ref="D48:D51" si="12">E27/E27</f>
+        <v>1</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E51" si="13">G27/E27</f>
+        <v>1.0242613115088322</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:F51" si="14">H27/E27</f>
+        <v>1.0227650031309614</v>
+      </c>
+      <c r="G48" s="13">
+        <f t="shared" ref="G48:G51" si="15">I27/E27</f>
+        <v>1.0226685258267922</v>
+      </c>
+      <c r="H48">
+        <f t="shared" ref="H48:H51" si="16">J27/E27</f>
+        <v>1.0162227497123886</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="B49" t="s">
+        <v>88</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="11"/>
+        <v>0.93149157754945133</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="13"/>
+        <v>1.7341685888026841</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="14"/>
+        <v>1.6327462081498567</v>
+      </c>
+      <c r="G49" s="13">
+        <f t="shared" si="15"/>
+        <v>1.5318200880687776</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="16"/>
+        <v>1.6612881806108897</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="11"/>
+        <v>1.321598935407923E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="13"/>
+        <v>5.0357661992015558E-2</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="14"/>
+        <v>5.2960896714095609E-2</v>
+      </c>
+      <c r="G50" s="13">
+        <f t="shared" si="15"/>
+        <v>5.4046985361858937E-2</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="16"/>
+        <v>0.74145255399733856</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="B51" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="11"/>
+        <v>0.56527130789716928</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="13"/>
+        <v>1.4278876513494467</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="14"/>
+        <v>1.3752001976809098</v>
+      </c>
+      <c r="G51" s="13">
+        <f t="shared" si="15"/>
+        <v>1.3690501249233529</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="16"/>
+        <v>1.4074560480291396</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="B52" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C52">
+        <f>GEOMEAN(C47:C51)</f>
+        <v>0.29479118098503071</v>
+      </c>
+      <c r="D52">
+        <f>GEOMEAN(D47:D51)</f>
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <f>GEOMEAN(E47:E51)</f>
+        <v>0.74492879029154224</v>
+      </c>
+      <c r="F52">
+        <f>GEOMEAN(F47:F51)</f>
+        <v>0.73977730397078612</v>
+      </c>
+      <c r="G52">
+        <f>GEOMEAN(G47:G51)</f>
+        <v>0.73016620147009825</v>
+      </c>
+      <c r="H52">
+        <f>GEOMEAN(H47:H51)</f>
+        <v>1.2775843302822085</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55" t="s">
+        <v>167</v>
+      </c>
+      <c r="B55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" t="s">
+        <v>143</v>
+      </c>
+      <c r="D55" t="s">
+        <v>145</v>
+      </c>
+      <c r="E55" t="s">
+        <v>156</v>
+      </c>
+      <c r="F55" t="s">
+        <v>157</v>
+      </c>
+      <c r="G55" t="s">
+        <v>158</v>
+      </c>
+      <c r="H55" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="B56" t="s">
+        <v>20</v>
+      </c>
+      <c r="C56">
+        <f>D5/F5</f>
+        <v>0.60880752825598472</v>
+      </c>
+      <c r="D56">
+        <f>F5/F5</f>
+        <v>1</v>
+      </c>
+      <c r="E56">
+        <f>K5/F5</f>
+        <v>0.90045000083497651</v>
+      </c>
+      <c r="F56">
+        <f>L5/F5</f>
+        <v>0.90197879865935882</v>
+      </c>
+      <c r="G56">
+        <f>M5/F5</f>
+        <v>0.99957939744908186</v>
+      </c>
+      <c r="H56">
+        <f>N5/F5</f>
+        <v>0.99967581822976104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="B57" t="s">
+        <v>32</v>
+      </c>
+      <c r="C57">
+        <f t="shared" ref="C57:C60" si="17">D6/F6</f>
+        <v>0.47104056089302709</v>
+      </c>
+      <c r="D57">
+        <f t="shared" ref="D57:D60" si="18">F6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ref="E57:E60" si="19">K6/F6</f>
+        <v>0.97811072360463092</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:F60" si="20">L6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" ref="G57:G60" si="21">M6/F6</f>
+        <v>1</v>
+      </c>
+      <c r="H57">
+        <f t="shared" ref="H57:H60" si="22">N6/F6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="B58" t="s">
+        <v>88</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="17"/>
+        <v>0.65558233966735224</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="19"/>
+        <v>0.98981348943263314</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="20"/>
+        <v>1.0003230766270259</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="21"/>
+        <v>0.99945633152257118</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="22"/>
+        <v>1.0001204446470395</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="B59" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="17"/>
+        <v>7.6102005152726255E-4</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="19"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="20"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="21"/>
+        <v>5.2306103468448479E-4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="22"/>
+        <v>1.0000096261232483</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="B60" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="17"/>
+        <v>0.65772202286231451</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="18"/>
+        <v>1</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="19"/>
+        <v>0.80553492928093229</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="20"/>
+        <v>0.85606716714306008</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="21"/>
+        <v>0.92815040959269324</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="22"/>
+        <v>1.0036995112116514</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="B61" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <f>GEOMEAN(C56:C60)</f>
+        <v>0.15657441934895389</v>
+      </c>
+      <c r="D61">
+        <f>GEOMEAN(D56:D60)</f>
+        <v>1</v>
+      </c>
+      <c r="E61">
+        <f>GEOMEAN(E56:E60)</f>
+        <v>0.20559263244562689</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:H61" si="23">GEOMEAN(F56:F60)</f>
+        <v>0.20954599529784809</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="23"/>
+        <v>0.2173453583564893</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="23"/>
+        <v>1.0006999476478222</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>